--- a/files/galen_results_gpt4_dynamic.xlsx
+++ b/files/galen_results_gpt4_dynamic.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C3661DDC17B9E8DC70170B0D33DFC419512BAFD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0552EEC-71EF-E44C-B819-2B80EA12D05F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="19660" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="248">
   <si>
     <t>Model</t>
   </si>
@@ -161,323 +167,1789 @@
 </t>
   </si>
   <si>
-    <t>As an exceptional computational biologist and genomics expert with a deep understanding of drug discovery, I can tell you that the dependency of a specific gene target such as POLR3E can vary across different cell lines. To identify cell lines with a high dependency on a particular gene, researchers typically use CRISPR screens or RNA interference (RNAi) technology to systematically knock down the expression of the gene and then assess the impact on cell viability or growth.
-Several databases and tools, such as the Cancer Dependency Map (DepMap) project, provide comprehensive datasets on gene dependencies across a wide range of cancer cell lines, which can be valuable resources for identifying cell lines with high dependency on a specific gene like POLR3E.
-By analyzing these datasets and conducting functional genomic experiments, researchers can gain insights into the cell lines where POLR3E may exhibit high dependency, which is crucial for understanding the potential therapeutic implications of targeting this gene in cancer treatment and drug discovery efforts.</t>
-  </si>
-  <si>
-    <t>The gene POLR3E encodes a subunit of RNA polymerase III, which is responsible for transcribing small noncoding RNAs. In terms of its association with specific cell lineages and indications, the enrichment of POLR3E in certain cell lines can provide insights into its potential role in specific biological processes or diseases. However, as of my last knowledge update, I don't have specific information on POLR3E enrichment in particular cell lineages or indications.
-To assess whether POLR3E is enriched in specific cell lineages or disease indications, a comprehensive analysis of gene expression data across a wide range of cell types and disease contexts may be necessary. This analysis could involve examining publicly available gene expression databases, such as the Cancer Cell Line Encyclopedia (CCLE) or the Gene Expression Omnibus (GEO), to identify the cell lines and indications in which POLR3E shows enrichment.
-If you have access to relevant gene expression data and analysis tools, you may consider conducting a differential expression analysis to identify cell lineages or disease indications in which POLR3E expression is significantly enriched. This could involve comparing POLR3E expression levels across different cell types or disease samples to identify any patterns of enrichment.
-In addition, if you have specific cell lineages or disease indications in mind, you may also want to explore literature and research articles for any published studies that have investigated the association of POLR3E with particular cell types or diseases.
-Overall, a systematic analysis of gene expression data and literature review would be essential to determine the cell lineages and disease indications in which POLR3E is enriched, and whether there are any lineages with high selectivity.</t>
-  </si>
-  <si>
-    <t>The concordance in the variant profile between cell lines and patient samples for a particular gene such as POLR3E can vary depending on the specific variants and the context in which they are being studied. Several factors can influence the concordance, including the genetic background of the cell lines, the specific patient population being studied, and the methods used for variant detection and analysis.
-In general, it is important to carefully consider the specific variants and their potential impact on the function of the POLR3E gene. Variants that are known to be pathogenic or associated with specific disease phenotypes in patients should be evaluated for concordance in cell line models. Additionally, understanding the functional consequences of the variants, such as their effect on gene expression, protein function, or cellular pathways, can provide further insights into the relevance of the concordance between cell lines and patients.
-If you have specific variant data for POLR3E in cell lines and patients that you would like to discuss further, or if you need assistance in interpreting the variant profiles, feel free to provide more details and I can help you analyze the concordance between the two.</t>
-  </si>
-  <si>
-    <t>Associating expression and variant profiles for the gene POLR3E involves analyzing data to understand how genetic variants may impact gene expression levels. To do this, you can utilize various approaches such as expression quantitative trait loci (eQTL) analysis, which identifies genetic variants that are associated with gene expression levels.
-In the case of POLR3E, you would first gather expression data (e.g., RNA-seq data) and variant data (e.g., whole-genome sequencing data) from relevant biological samples. Then, you can perform eQTL analysis to identify genetic variants that may influence the expression of POLR3E. This analysis can provide insights into how specific genetic variants may contribute to variations in POLR3E expression across different individuals.
-Additionally, you can also explore the impact of genetic variants on the protein sequence of POLR3E, potentially leading to changes in protein function. This can be achieved through in silico prediction tools and functional annotation of the variants to understand their potential effects on POLR3E function.
-Overall, by integrating expression and variant profiles for the gene POLR3E, you can gain a deeper understanding of how genetic variation may influence its expression and function, providing valuable insights for drug discovery and personalized medicine.</t>
-  </si>
-  <si>
-    <t>I don't have direct access to specific databases or proprietary platforms, but I can guide you on how to find the information you need.
-The gene POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of various small non-coding RNAs. To find studies related to POLR3E using cell lines, you can start by searching in public databases such as NCBI Gene, PubMed, or NCBI GEO.
-1. NCBI Gene: Visit the website and search for POLR3E. Under the "External Links" section, you can find related data in GEO or other databases.
-2. PubMed: Search for "POLR3E cell line" in the PubMed database. This might give you access to relevant studies that have used cell lines in the context of POLR3E.
-3. NCBI GEO: You can directly search for POLR3E in NCBI GEO to find relevant experimental data related to cell lines and POLR3E. The dataset links or analysis can be found within the platform.
-If you need further assistance, feel free to ask for more specific guidance.</t>
-  </si>
-  <si>
-    <t>The gene POLR3E encodes for the third largest subunit of RNA polymerase III, which is an essential enzyme involved in the transcription of various small, non-coding RNA molecules. To determine the differential expression of POLR3E in cancer vs normal tissue, one can analyze data from high-throughput gene expression studies such as those available in public databases like The Cancer Genome Atlas (TCGA) or Gene Expression Omnibus (GEO).
-Upon analysis of existing literature and datasets, it has been demonstrated that POLR3E is overexpressed in various types of cancer, including breast cancer, lung adenocarcinoma, and colorectal adenocarcinoma, compared to normal tissue. This overexpression has been associated with tumor growth, metastasis, and poor prognosis in certain cancers.
-These findings suggest that POLR3E may serve as a potential biomarker for these cancer types and could be further investigated as a therapeutic target for the development of cancer treatments.</t>
-  </si>
-  <si>
-    <t>The variant profile of tissues with significant differential expression for the gene POLR3E can be complex and multi-faceted. To start, we should consider both germline and somatic variations in these tissues.
-1. Germline Variations:
-   - Single Nucleotide Polymorphisms (SNPs): Common variations in the DNA sequence of the POLR3E gene can lead to different expression levels across tissues. By associating differential expression with specific SNPs in the gene's regulatory regions, we can better understand the genetic basis for this differential expression.
-   - Copy Number Variations (CNVs): Amplifications or deletions in the number of copies of the POLR3E gene may lead to altered expression levels. This can be identified through techniques such as array comparative genomic hybridization (aCGH) and next-generation sequencing (NGS).
-2. Somatic Variations:
-   - Somatic Mutations: Acquired mutations in the POLR3E gene within specific tissues can influence gene expression. These mutations may include single nucleotide substitutions, insertions, deletions, or structural variations. Next-generation sequencing, particularly whole-exome sequencing and whole-genome sequencing, can help identify these somatic variations.
-   - Epigenetic Modifications: Differential DNA methylation patterns and histone modifications in the regulatory regions of the POLR3E gene can also contribute to its varied expression across tissues. Epigenetic profiling techniques such as bisulfite sequencing and chromatin immunoprecipitation sequencing (ChIP-seq) can reveal these differences.
-3. Functional Impact:
-   - It's critical to assess the functional impact of these variations on the expression and activity of POLR3E. Computational tools and functional assays can help predict and validate the effects of these variants on gene expression and function.
-By integrating data from genomic, transcriptomic, and epigenomic analyses, as well as functional studies, we can gain a comprehensive understanding of the variant profile contributing to the differential expression of the POLR3E gene across tissues.</t>
-  </si>
-  <si>
-    <t>Yes, mutations in the gene POLR3E can occur at specific regions of the protein. POLR3E encodes one of the subunits of RNA polymerase III, which is involved in the synthesis of small RNAs. Mutations in POLR3E have been associated with a spectrum of neurogenetic disorders. 
-Studies have reported mutations in various regions of the POLR3E gene, including the catalytic core, the N-terminal, and the C-terminal domains. These mutations can affect the function of the RNA polymerase III complex, leading to impaired RNA synthesis and subsequent disease phenotypes.
-Understanding the specific regions where mutations commonly occur can provide valuable insights into the molecular mechanisms underlying the disease and may offer potential targets for drug discovery and therapeutic interventions.</t>
-  </si>
-  <si>
-    <t>I'm sorry, but I cannot access specific databases or provide real-time information on the pathogenicity of mutations in the POLR3E gene. However, there are publicly available databases and bioinformatics tools that can provide information on the pathogenicity of specific mutations in genes. I recommend consulting resources like ClinVar, dbSNP, or Ensembl to gather this kind of information. If you have specific mutation data, you can also use bioinformatics tools such as SIFT, PolyPhen, or MutationTaster to predict the potential impact of mutations on protein function.</t>
-  </si>
-  <si>
-    <t>As an expert in computational biology and genomics, I can tell you that POLR3E is a gene that encodes for a subunit of RNA polymerase III, which is responsible for transcribing small non-coding RNAs. Mutations in POLR3E have been associated with a rare autosomal recessive disorder called hypomyelinating leukodystrophy. However, the relationship between POLR3E mutations or copy number alterations and cancer progression or survival is not well-documented in the current literature.
-To investigate the pathogenicity scores of mutations or copy number profiles associated with cancer progression and survival for the gene POLR3E, one could perform a comprehensive literature review, analyze large cancer genomics databases such as TCGA (The Cancer Genome Atlas) or cBioPortal, and potentially conduct computational analyses to assess the impact of POLR3E mutations or copy number alterations on cancer phenotypes. If such data is not readily available, it may be necessary to collaborate with other researchers in the field to generate new experimental or clinical data to address this question.</t>
-  </si>
-  <si>
-    <t>The gene POLR3E encodes a subunit of RNA polymerase III, which is responsible for transcribing small, non-coding RNAs essential for various cellular functions. Mutations in POLR3E have been associated with some neurological and developmental disorders, including hypomyelinating leukodystrophy and 4H leukodystrophy. Therefore, therapeutic areas in focus for POLR3E may include neurological and developmental disorders, particularly those involving myelination and white matter abnormalities. Additionally, targeting the transcriptional machinery involving POLR3E may be a potential avenue for drug discovery in these conditions.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I don't have the specific information about clinical trials for the gene POLR3E at the moment. However, clinical trial information can change frequently as new trials are initiated and existing trials progress or are completed. I would recommend checking clinical trial registries such as ClinicalTrials.gov or contacting pharmaceutical companies directly for the most up-to-date information on clinical trials related to the gene POLR3E.</t>
-  </si>
-  <si>
-    <t>As of the latest information available, there are no known drugs in the market specifically indicated for the treatment of POLR3E gene-related conditions. POLR3E is a gene associated with the RNA polymerase III enzyme complex, and mutations in this gene can lead to hypomyelinating leukodystrophy, a rare genetic disorder affecting the central nervous system.
-However, it's important to note that this information may change over time as new drugs are developed and approved. I would recommend consulting with a medical professional or a genetic counselor for the most up-to-date information on potential treatments for conditions associated with the POLR3E gene.</t>
-  </si>
-  <si>
-    <t>First, let's clarify the role of POLR3E. POLR3E encodes a subunit of RNA polymerase III, which is responsible for the transcription of small, non-coding RNAs. Although POLR3E mutations are associated with hypomyelinating leukodystrophy, there is limited information available about specific drug targets related to this gene.
-Given the limited information available, it's challenging to identify first-in-class opportunities for targeting POLR3E directly. However, considering its involvement in transcriptional regulation, research on small molecule inhibitors or modulators of RNA polymerase III activity may offer potential opportunities for drug discovery in the context of POLR3E-related disorders.
-Moreover, exploring the downstream pathways affected by POLR3E mutations may potentially reveal novel targets or therapeutic strategies. For a comprehensive understanding of drug discovery opportunities related to POLR3E, further research and investigation are necessary.</t>
-  </si>
-  <si>
-    <t>Determining which genes or proteins to target for a new therapeutic typically involves a comprehensive analysis of the disease pathology, biological pathways, and the underlying genetic and molecular mechanisms.
-1. Disease Understanding: First, it's important to thoroughly understand the disease at the molecular level. This involves studying the genetic, environmental, and lifestyle factors contributing to the disease, as well as the specific cellular and molecular processes involved.
-2. Target Identification: Next, potential therapeutic targets are identified by studying the genes, proteins, or pathways that play key roles in the disease. This can involve using various omics technologies (genomics, transcriptomics, proteomics, etc.) to analyze gene expression patterns, protein interactions, and genetic variations associated with the disease.
-3. Validation: Once potential targets are identified, they need to be validated to ensure their relevance to the disease and their potential as druggable targets. This may involve experimental studies, such as functional genomics and in vitro or in vivo models, to confirm the role of the target in disease pathogenesis.
-4. Druggability Assessment: Assessment of the druggability of the target is also crucial. This involves evaluating whether the target can be modulated by small molecules or biologics and whether it is accessible to therapeutic intervention.
-5. Off-Target Effects: Additionally, potential off-target effects of targeting a specific gene or protein need to be carefully evaluated to minimize unwanted side effects.
-6. Therapeutic Modality Selection: Based on the nature of the target and the disease, the appropriate therapeutic modality (small molecule, antibody, gene therapy, etc.) is chosen.
-Ultimately, the goal is to identify a target that is biologically relevant to the disease, druggable, and has the potential to modulate the disease pathology effectively with minimal off-target effects. This process typically involves collaboration between computational biologists, molecular biologists, pharmacologists, and clinicians to ensure a comprehensive and multidisciplinary approach to target identification and validation.</t>
-  </si>
-  <si>
-    <t>There are several methods that can be used to validate a potential biomarker for a specific disease. These methods include:
-1. Retrospective studies: These involve analyzing stored samples from patients with the disease to determine if the biomarker is consistently associated with the disease.
-2. Prospective studies: These involve collecting new samples from patients with the disease and following them over time to determine if the biomarker is predictive of disease progression or treatment response.
-3. Validation in large, diverse patient populations: It is important to validate a biomarker in large and diverse patient populations to ensure that it is applicable across different demographics and disease subtypes.
-4. Comparison with existing biomarkers: It is important to compare the new biomarker with existing biomarkers to determine if it provides additional value in diagnosing or monitoring the disease.
-5. Mechanistic studies: These involve studying the biological mechanisms underlying the association between the biomarker and the disease to understand its clinical significance.
-6. Replication in independent cohorts: It is important to replicate the findings in independent cohorts to ensure that the association between the biomarker and the disease is consistent across different populations.
-7. Regulatory approval: Finally, regulatory approval is required to validate a biomarker for clinical use. This may involve obtaining approval from agencies such as the FDA or EMA.
-By using a combination of these methods, researchers can ensure that a potential biomarker is rigorously validated for its intended clinical application in the diagnosis, prognosis, or treatment of a specific disease.</t>
-  </si>
-  <si>
-    <t>Pathway analysis plays a crucial role in drug discovery by helping researchers understand the intricate biological pathways and networks involved in disease processes. By integrating pathway analysis into drug discovery, researchers can uncover potential drug targets, elucidate disease mechanisms, and identify new biomarkers for disease diagnosis and prognosis. Here's how pathway analysis can be integrated into drug discovery:
-1. Target Identification: Pathway analysis can help researchers identify key biological pathways that are dysregulated in a disease state. By examining gene expression data or proteomic profiles, researchers can pinpoint specific genes or proteins within these pathways that may serve as potential drug targets. This information is invaluable for guiding the development of targeted therapies.
-2. Mechanism of Action: Understanding the intricate signaling pathways and molecular networks involved in disease progression is essential for developing effective drugs. Pathway analysis can shed light on the underlying mechanisms driving the disease, allowing researchers to design drugs that specifically modulate these pathways.
-3. Biomarker Discovery: Pathway analysis can aid in identifying molecular signatures or biomarkers associated with disease states. These biomarkers can be utilized for patient stratification, monitoring treatment responses, and predicting disease outcomes. Furthermore, pathway analysis can reveal the connections between biomarkers and disease pathways, providing insights into potential diagnostic and prognostic markers.
-4. Drug Repurposing: Pathway analysis can uncover existing drugs or compounds that may have the potential to target specific disease-associated pathways. By leveraging the knowledge of drug-pathway interactions, researchers can repurpose existing drugs for new therapeutic indications, accelerating the drug discovery process.
-5. Personalized Medicine: Pathway analysis can contribute to the development of personalized medicine by identifying patient-specific variations in pathway activities. This information can be utilized to tailor treatments based on individual molecular profiles, improving treatment efficacy and reducing adverse effects.
-In summary, pathway analysis serves as a powerful tool in drug discovery, providing critical insights into disease mechanisms, drug targets, biomarkers, and personalized treatment strategies. By integrating pathway analysis into the drug discovery process, researchers can expedite the development of innovative and effective therapeutics.</t>
-  </si>
-  <si>
-    <t>Phenotypic screening and genotypic screening are two common approaches used in drug discovery. Genotypic screening involves the use of genomic and genetic information to identify potential drug targets, while phenotypic screening involves screening for compounds that can directly affect a specific cell or tissue phenotype, typically without prior knowledge of the target.
-Genotypic screening focuses on identifying specific molecular targets that are associated with a disease or condition, usually based on genetic and genomic data, such as DNA sequencing information or gene expression profiles. This approach allows for a more targeted and rational selection of potential drug targets, as it directly identifies the underlying biological pathways or molecules that are involved in a particular disease.
-On the other hand, phenotypic screening offers a broader and more unbiased approach to identifying potential drug candidates. It involves screening a large number of compounds for their ability to produce a desired cellular or tissue phenotype, such as the inhibition of cell proliferation in cancer cells or the promotion of neurite outgrowth in neuronal cells. This approach can identify novel drug candidates and uncover new biological pathways or molecular targets that may not have been previously linked to the disease of interest.
-In drug discovery, phenotypic screening can complement genotypic screening by providing a more comprehensive and holistic view of the biological processes involved in a particular disease. It can help identify novel drug candidates and uncover new therapeutic targets that may not have been previously considered. Additionally, phenotypic screening can also help validate the relevance of potential drug targets identified through genotypic screening by demonstrating their functional significance in disease-relevant cellular or tissue models.
-Overall, combining both genotypic and phenotypic screening approaches in drug discovery can provide a more comprehensive and effective strategy for identifying potential drug candidates and targets, ultimately leading to the development of more successful therapeutics for various diseases.</t>
-  </si>
-  <si>
-    <t>Translating in vitro findings to in vivo models presents several challenges. Some of the main challenges include:
-1. Complexity of in vivo systems: In vitro models often oversimplify the complexity of in vivo systems, including the interactions between different cell types, tissues, and organs. In vivo models may also involve systemic responses and feedback mechanisms that are not captured in in vitro experiments.
-2. Pharmacokinetics and pharmacodynamics: In vitro models may not accurately reflect the absorption, distribution, metabolism, and excretion (ADME) of a drug in vivo, which can affect the drug's efficacy and safety profile. Understanding the pharmacokinetics and pharmacodynamics of a drug in vivo is crucial for successful translation.
-3. Species differences: In vitro findings in one species may not directly translate to another species due to differences in physiology, metabolism, and genetic makeup. This is particularly relevant when translating findings from preclinical models to human patients.
-4. Predictive validity: In vitro models may not always accurately predict the efficacy and safety of a drug in vivo. Variability in in vivo responses, such as inter-individual differences and disease heterogeneity, can make it challenging to extrapolate in vitro findings to clinical outcomes.
-5. Ethical and regulatory considerations: In vivo models, especially in human subjects, raise ethical considerations and must comply with regulatory requirements. Bridging the gap between in vitro and in vivo research while maintaining ethical standards and regulatory compliance is a significant challenge.
-Addressing these challenges requires a comprehensive understanding of the biological systems involved, advanced experimental methodologies, and the integration of multi-disciplinary approaches, such as computational modeling and advanced imaging techniques. Additionally, the use of more complex in vitro models, such as organoids and microphysiological systems, can improve the predictive validity of in vitro findings when translating to in vivo models.</t>
-  </si>
-  <si>
-    <t>Structural biology plays a key role in aiding the design of new drugs by providing detailed insights into the three-dimensional structures of biological molecules, such as proteins and nucleic acids. These insights are crucial for understanding the molecular mechanisms of diseases and for designing targeted drugs to interact with specific molecular targets.
-One of the primary ways in which structural biology contributes to drug design is through the determination of high-resolution structures of drug targets, such as enzymes, receptors, and other biomolecules involved in disease processes. For example, X-ray crystallography, NMR spectroscopy, and cryo-electron microscopy are powerful techniques used to elucidate the atomic arrangement of these biomolecules, providing information about their active sites, binding pockets, and conformational changes.
-With this detailed structural information, computational methods such as molecular modeling and virtual screening can be employed to identify potential drug candidates that can interact with the target molecule. By analyzing the structure of the target and the potential drug candidates, researchers can predict how these molecules might interact at a molecular level, guiding the optimization of drug candidates to enhance their binding affinity and specificity.
-Furthermore, structural biology also aids in understanding the mechanisms of drug resistance. By determining the structures of drug-target complexes and studying how mutations in the target molecule can confer resistance, researchers can design new drugs or modify existing ones to overcome resistance mechanisms.
-In summary, structural biology provides a wealth of information that is essential for rational drug design, including the identification of drug targets, the design of novel drug candidates, and the understanding of drug-target interactions. As a computational biologist and genomics expert, incorporating structural biology data into computational models and drug discovery pipelines can significantly accelerate the development of new and improved drugs.</t>
-  </si>
-  <si>
-    <t>POLR3E is a gene that encodes a subunit of RNA polymerase III (Pol III), which is responsible for transcribing small non-coding RNAs such as tRNAs and 5S rRNA. POLR3E is essential for the assembly and activity of Pol III, and it specifically interacts with other subunits to form the catalytic core of the enzyme. Pol III transcribes genes involved in protein synthesis and is critical for cell growth and proliferation.
-The mechanisms of POLR3E involve its participation in the formation of the Pol III complex, where it helps in the accurate initiation and elongation of RNA synthesis. It also plays a role in recognizing and binding to specific promoter sequences for Pol III-transcribed genes.
-From a classification perspective, POLR3E is categorized as a protein-coding gene, and mutations or dysregulation of this gene have been associated with hypomyelinating leukodystrophy, a neurological disorder characterized by abnormal development of myelin in the brain.
-Overall, POLR3E is a crucial gene involved in the transcription of essential non-coding RNAs and plays a central role in various cellular processes, particularly those related to protein synthesis and neurological function.</t>
-  </si>
-  <si>
-    <t>POLR3E, also known as RNA polymerase III subunit E, plays a critical role in transcription by RNA polymerase III. While direct involvement of POLR3E in cancer is not well established, dysregulation of RNA polymerase III transcription has been implicated in carcinogenesis. RNA polymerase III transcribes genes encoding small non-coding RNAs, such as tRNAs and 5S rRNA, which are essential for protein synthesis and cell growth.
-Aberrant expression of RNA polymerase III-transcribed genes has been observed in various cancer types, leading to increased protein synthesis and cell proliferation. Additionally, mutations or dysregulation of POLR3E may indirectly contribute to cancer development by disrupting normal RNA polymerase III function. It's also worth noting that POLR3E may interact with other genes involved in transcription regulation and cellular growth, potentially influencing cancer-related pathways.
-Further studies are needed to comprehensively understand the direct and indirect roles of POLR3E in cancer and its interactions with other genes.</t>
-  </si>
-  <si>
-    <t>POLR3E (RNA polymerase III subunit E) is not generally considered an oncogene. It is a component of RNA polymerase III, which is responsible for transcribing small non-coding RNAs, such as transfer RNAs and 5S ribosomal RNA. There is no clear evidence to suggest that POLR3E plays a direct role in promoting cancer development or progression.
-However, it's important to note that the role of individual genes in oncogenesis is complex, and their involvement in cancer can depend on the specific context and cellular environment. Therefore, to fully understand the potential oncogenic nature of a gene, comprehensive experimental studies and analyses would be necessary.</t>
-  </si>
-  <si>
-    <t>POLR3E, which encodes for the RNA polymerase III subunit E, has been associated with various cancer indications and types. Studies have suggested its involvement in breast cancer, esophageal squamous cell carcinoma, and ovarian cancer. Additionally, aberrant expression of POLR3E has been implicated in lung adenocarcinoma and colorectal cancer. These associations indicate the potential significance of POLR3E in cancer biology and its potential as a therapeutic target in the respective cancer types.</t>
-  </si>
-  <si>
-    <t>I can provide you with information on the known interactions of the gene POLR3E from publicly available databases such as STRING (Search Tool for the Retrieval of Interacting Genes/Proteins) or GeneMANIA. These databases contain protein-protein interaction networks and functional association networks for genes.
-For example, in the STRING database, you can search for the protein encoded by POLR3E and retrieve a network of known interactions with other proteins. The network may include direct physical interactions, as well as functional associations derived from various sources such as curated databases, experimental data, and predicted interactions.
-Similarly, GeneMANIA provides a platform to explore protein-protein interactions, co-expression, pathways, and protein domains associated with POLR3E.
-By accessing these databases, you can gain insights into the molecular mechanisms and interactions involving POLR3E, which can be valuable for drug discovery and target identification.
-Please note that the specific interactions and networks may vary based on the version and updates of the databases, so you may need to access the most current data for the latest information.</t>
-  </si>
-  <si>
-    <t>Sure! Here are some key publications related to the gene POLR3E:
-1. "POLR3E mutation causes endosteal hyperostosis with renal tubular acidosis" - This study identified POLR3E mutations in patients with endosteal hyperostosis and renal tubular acidosis. [Link to publication](https://www.ncbi.nlm.nih.gov/pubmed/29799030)
-2. "A mutation in the gene encoding the RNA polymerase III subunit POLR3A causes an unusual syndrome with thick nail plates, onychogryphosis, and keratoderma" - This publication describes the identification of a mutation in POLR3E associated with a rare syndrome characterized by nail and skin abnormalities. [Link to publication](https://www.ncbi.nlm.nih.gov/pubmed/25111689)
-3. "Mutations in POLR3A and POLR3B are a major cause of hypomyelinating leukodystrophies with or without dental abnormalities and/or hypogonadotropic hypogonadism" - This study identifies POLR3E mutations as a cause of hypomyelinating leukodystrophies with additional clinical manifestations. [Link to publication](https://www.ncbi.nlm.nih.gov/pubmed/24360803)
-These publications provide insight into the role of POLR3E mutations in various genetic syndromes and diseases, and may have implications for potential therapeutic interventions.</t>
-  </si>
-  <si>
-    <t>Here are some examples of pseudokinase genes:
-1. Pseudokinase 3 (PSKH3)
-2. Pseudokinase domain containing, ERKF (PGF)
-3. Tribbles pseudokinase 2 (TRIB2)
-4. Pseudokinase 2 (PSKH2)
-5. Pseudokinase 6 (PSKH6)
-Please note that this list is not exhaustive, and there are many more pseudokinase genes in the human genome. Let me know if you need more information or specific pseudokinase genes.</t>
-  </si>
-  <si>
-    <t>One strategy to use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease would be to target and modify the gene associated with the production of amyloid beta (Aβ) protein, such as the amyloid precursor protein (APP) gene or the presenilin 1 (PSEN1) and presenilin 2 (PSEN2) genes.
-1. Designing sgRNAs: Design specific guide RNAs (sgRNAs) to target the desired genomic loci within the APP, PSEN1, or PSEN2 genes. These sgRNAs should be designed to ensure high specificity and efficiency in targeting the gene of interest.
-2. Delivery of CRISPR-Cas9 components: Deliver the Cas9 protein and the designed sgRNAs into the target cells, such as neurons or neural stem cells. This can be achieved through viral vectors, lipid nanoparticles, electroporation, or other appropriate delivery methods.
-3. Genome editing: Allow the CRISPR-Cas9 system to induce double-stranded breaks at the targeted genomic loci. The cellular repair machinery may then introduce specific modifications, such as gene knockout, knock-in of specific mutations, or precise base editing, depending on the desired outcome.
-4. Validation and characterization: Validate the gene edits by sequencing the modified genomic loci to confirm the desired changes. Characterize the cellular and molecular effects of the gene modifications, such as changes in Aβ production or tau protein regulation, to assess the impact on Alzheimer's disease-related pathways.
-5. In vivo studies: If applicable, perform in vivo studies in animal models of Alzheimer's disease to evaluate the effects of the gene edits on disease progression, cognitive function, and neuropathology.
-It's important to note that the use of CRISPR-Cas9 for gene editing in the context of Alzheimer's disease should consider the ethical and safety implications of such genome modifications, and regulatory approval may be required for any potential therapeutic applications. Additionally, off-target effects and unintended consequences of gene editing should be carefully evaluated and minimized to ensure the safety and efficacy of this approach.</t>
-  </si>
-  <si>
-    <t>To design siRNA sequences to target and knock down a specific oncogene, we need to follow a few steps:
-1. Identifying the target oncogene: First, we need to identify the specific oncogene that we want to target. Let's assume we are targeting the oncogene KRAS as an example.
-2. Designing siRNA sequences: We can use bioinformatics tools such as siRNA design software to design siRNA sequences that specifically target the mRNA of the KRAS oncogene. The siRNA sequences should be designed to be specific to the target gene and minimize off-target effects.
-3. Validating the siRNA sequences: Once we have designed the siRNA sequences, we need to validate them using tools such as BLAST to ensure they do not have significant homology to other genes in the genome and won't cause off-target effects.
-4. Testing the siRNA sequences: After validation, the designed siRNA sequences can be synthesized and tested in cell culture or animal models to determine their efficacy in knocking down the target oncogene.
-5. Optimizing the siRNA sequences: Based on the initial testing, the siRNA sequences may need optimization to improve their efficiency and specificity.
-It's important to note that designing effective siRNA sequences requires careful consideration of factors such as target sequence selection, siRNA structure, delivery method, and off-target effects. Additionally, proper controls and validation experiments are essential to ensure the specificity and efficacy of the designed siRNA sequences.</t>
-  </si>
-  <si>
-    <t>Certainly! To design a high-throughput screening (HTS) assay for identifying small molecule inhibitors of the novel protein target, we need to consider the characteristics of the target and the available screening techniques.
-1. Assay Design:
-   - Select an appropriate assay format based on the function of the protein target. For example, if the target is an enzyme, an enzymatic assay can be used. If it is a transcription factor, a reporter gene assay might be suitable.
-   - Since the protein is believed to be involved in cancer cell proliferation, the assay could involve measuring the effect of small molecules on cell viability, proliferation, or a specific pathway associated with cancer.
-2. Target Protein Assay Development:
-   - If the protein target is an enzyme, develop a coupled enzymatic assay or a direct enzyme activity assay. For transcription factors, a reporter gene assay can be developed.
-   - For a pathway-based assay, determine the key components of the pathway and design an assay to measure the activity of these components.
-3. High-Throughput Screening (HTS) Implementation:
-   - Miniaturize the assay to a 384- or 1536-well format to enable high throughput.
-   - Automate the assay setup and readout using liquid handling robots and plate readers.
-4. Compound Library:
-   - Utilize a diverse small molecule compound library, preferably including FDA-approved drugs, bioactive compounds, natural products, and small molecule libraries from pharmaceutical companies.
-5. Data Analysis:
-   - Implement robust data analysis techniques to efficiently process large amounts of screening data.
-6. Hit Validation and Characterization:
-   - Validate hits using secondary assays to confirm their specificity and efficacy in inhibiting the target.
-   - Perform initial characterization of validated hits for their drug-likeness, off-target effects, and potential for further development.
-By following these steps and considering the specific characteristics of the target protein, a high-throughput screening assay can be designed to identify small molecule inhibitors for the novel protein target involved in cancer cell proliferation.</t>
-  </si>
-  <si>
-    <t>To develop an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer, a multifaceted approach integrating genomics, molecular biology, and drug development strategies can be employed.
-1. Identification of the Target Antigen:
-   - Utilize genomic and transcriptomic data from breast cancer cell lines and patient samples to identify the specific antigen that is overexpressed.
-   - Perform differential gene expression analysis and examine genomic alterations to pinpoint the antigen that is consistently overexpressed in the target breast cancer subtype.
+    <t>The dependency of a specific gene, like POLR3E, can vary across different cell lines. To identify cell lines with high dependency on POLR3E, you can analyze data from large-scale CRISPR knockout or RNA interference (RNAi) screens, such as those from the Cancer Dependency Map (DepMap) project.
+These databases provide information on gene essentiality across hundreds of cell lines, allowing you to identify cell lines with high dependency on POLR3E. You can use tools such as the DepMap portal to access these data and search for cell lines with significant dependency on POLR3E.
+Consider consulting with bioinformatics specialists or computational biologists who have experience in analyzing large-scale genomic datasets to perform this analysis effectively.</t>
+  </si>
+  <si>
+    <t>The gene POLR3E encodes for one of the subunits of RNA polymerase III, which is involved in the transcription of various small noncoding RNAs. The expression and function of POLR3E may vary across different cell lines and tissues. While there is no direct information available on the dependent cell lines for POLR3E, its enriched expression can provide insights into potential indications and lineages with high selectivity.
+To determine the indications and lineages with high selectivity for POLR3E, you may want to examine gene expression data from diverse cell lines and tissues using resources such as the Genotype-Tissue Expression (GTEx) project, Cancer Cell Line Encyclopedia (CCLE), Human Protein Atlas, and other publicly available databases.
+By analyzing the expression profiles of POLR3E across different cell types and conditions, you can identify specific indications and lineages where this gene is significantly enriched. This information can be valuable for understanding the potential roles of POLR3E in specific biological processes, disease conditions, and drug targeting strategies. Additionally, combining this analysis with functional studies and pathway analysis can provide further insights into the implications of POLR3E enrichment in particular cell types and disease contexts.</t>
+  </si>
+  <si>
+    <t>There is evidence demonstrating a concordance in the variant profile of cell lines and patient samples for the gene POLR3E. POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of small non-coding RNAs. Variants in this gene have been associated with different diseases, including hypomyelinating leukodystrophy and other neurological disorders. Studies have shown that certain variants identified in patient samples are also present in corresponding cell line models, which supports their utility for investigating disease mechanisms and testing potential drug treatments. This concordance can be valuable for drug discovery efforts, as it allows for the validation of potential therapeutic targets and the screening of drug candidates using relevant cell line models.</t>
+  </si>
+  <si>
+    <t>The gene POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of various small non-coding RNAs. To study the associations between expression and variant profiles for the POLR3E gene, we can leverage various genomic and bioinformatic tools and databases.
+1. Expression Profiles:
+We can first analyze the expression profiles of POLR3E in different tissues and cell types using RNA sequencing data from large-scale projects such as the Genotype-Tissue Expression (GTEx) project or the Human Protein Atlas. This can help us understand the baseline expression levels of POLR3E and identify any tissue-specific expression patterns.
+2. Variant Profiles:
+Next, we can investigate the variant profiles of POLR3E by examining genetic variation data from population-level studies such as the 1000 Genomes Project or the Exome Aggregation Consortium (ExAC). This can involve identifying single nucleotide polymorphisms (SNPs), insertions/deletions, and other genetic variants within and around the POLR3E gene.
+3. Integrative Analysis:
+To explore the associations between expression and variant profiles, we can perform integrative analysis by correlating the genetic variants with gene expression levels. This can be achieved using expression quantitative trait loci (eQTL) analysis, where we identify genetic variants that are significantly associated with the expression levels of POLR3E. Tools such as the GTEx portal or QTLtools can be utilized for this purpose.
+4. Functional Impact Assessment:
+Furthermore, we can predict the potential functional impact of genetic variants on POLR3E using bioinformatics tools such as SIFT, PolyPhen, or MutationTaster. This can help us prioritize genetic variants that are likely to influence the expression or function of POLR3E.
+By integrating expression and variant profiles, we can gain insights into the regulatory mechanisms and genetic determinants that influence the expression of the POLR3E gene. This knowledge is valuable for understanding the role of POLR3E in health and disease, and for identifying potential therapeutic targets or biomarkers.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I currently do not have direct access to the latest experimental data available on NCBI GEO or other specific databases. However, I would suggest searching for the gene POLR3E in the NCBI GEO database website. You can use the gene symbol "POLR3E" as a keyword for searching, and you may find relevant studies that have used cell lines for the target of interest. If you need any assistance in interpreting the data or performing any specific analysis, feel free to ask for guidance.</t>
+  </si>
+  <si>
+    <t>The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing small non-coding RNAs. To identify indications with significant differential expression in cancer vs normal tissue for the POLR3E gene, we can utilize bioinformatics tools and databases such as TCGA, GTEx, Oncomine, and GEO to analyze gene expression data across different cancer types.
+After conducting a thorough analysis, I have found that POLR3E is overexpressed in various types of cancer compared to normal tissue. Specifically, significant differential expression of POLR3E has been observed in multiple cancer types including breast cancer, lung cancer, ovarian cancer, and others.
+As for indications associated with differential expression, POLR3E overexpression has been implicated in cancer progression, metastasis, and drug resistance. Additionally, studies have linked POLR3E overexpression with poor patient prognosis in certain cancer types.
+It is important to note that gene expression patterns can vary across different cancer types and subtypes, so further investigation into specific indications of interest is recommended.</t>
+  </si>
+  <si>
+    <t>The variant profile of tissues with significant differential expression for the gene POLR3E typically involves diverse alterations such as copy number variations (CNVs), mutations, and other genetic changes. 
+1. Copy Number Variations (CNVs): Tissues with differential expression of POLR3E may exhibit CNVs in the form of amplifications or deletions of the gene. These CNVs can lead to changes in the expression levels of POLR3E. For instance, amplifications can result in increased expression, while deletions can lead to reduced expression.
+2. Mutations: The variant profile may also include various types of mutations in the POLR3E gene, such as single nucleotide variants (SNVs), insertions, deletions, and structural variants. These mutations can affect the function of POLR3E and its expression levels. Additionally, mutations in regulatory regions or epigenetic changes can also impact the expression of POLR3E.
+3. Epigenetic Modifications: Differential expression of POLR3E can also be influenced by epigenetic modifications, such as DNA methylation or histone modifications, which can alter the accessibility of the gene to the transcriptional machinery.
+4. Regulatory Variants: Variants in the regulatory elements, such as promoters and enhancers, can also contribute to the differential expression of POLR3E across different tissues.
+Overall, the variant profile of tissues with significant differential expression for the gene POLR3E is likely to encompass a combination of CNVs, mutations, regulatory variants, and epigenetic modifications that collectively influence the expression levels of this gene in a tissue-specific manner. Understanding these variant profiles can provide insights into the regulatory mechanisms and potential therapeutic targets related to POLR3E expression in different tissues.</t>
+  </si>
+  <si>
+    <t>POLR3E is a gene that codes for an RNA polymerase subunit. Mutations in this gene can lead to POLR3-related leukodystrophy, a rare genetic disorder affecting the white matter of the brain. 
+In terms of mutation hotspots within the POLR3E protein, there is no widely reported specific region with a significantly higher frequency of mutations. However, mutations can be distributed across the entire protein. To identify specific regions of increased mutation frequency, one would need to analyze large-scale genomic sequencing data from patients with POLR3E-related disorders. This type of analysis could help identify potential functional domains or critical amino acid residues within the protein that are more prone to mutation and might be important for its function.
+Understanding the specific locations and types of mutations in POLR3E can provide insights into the molecular mechanisms of the associated disease and potentially guide the development of targeted therapies.</t>
+  </si>
+  <si>
+    <t>I don't have access to specific databases or the ability to retrieve real-time data on the pathogenic mutations for the gene POLR3E. However, you can consult publicly available resources such as ClinVar, COSMIC, or the Human Gene Mutation Database (HGMD) to obtain information about known mutations in POLR3E and their pathogenicity. Additionally, you may consider reaching out to a genetic counselor or a professional with expertise in clinical genetics for assistance with interpreting the pathogenicity of mutations in this gene.</t>
+  </si>
+  <si>
+    <t>In-depth information about the specific association of pathogenicity scores of mutations or copy number profiles with cancer progression and survival for the gene POLR3E requires a detailed analysis of available genomic and clinical data. However, as a computational biologist and genomics expert, I can guide you through the process of investigating this. 
+1. Mutation Pathogenicity Scores: You can start by using bioinformatics tools and databases such as SIFT, PolyPhen, and CADD to assess the pathogenicity scores of mutations in the POLR3E gene. These tools predict the potential impact of mutations on protein function and can provide insights into their potential relevance to cancer progression.
+2. Copy Number Profiles: Analyzing copy number profiles associated with the POLR3E gene in cancer datasets (such as TCGA) can be valuable. This involves examining copy number alterations, amplifications, or deletions in relation to clinical outcomes and survival data for different types of cancer.
+3. Integrative Analysis: Integrating mutation pathogenicity scores and copy number profiles with clinical data, such as patient survival and disease progression, could provide a comprehensive understanding of the potential role of POLR3E in cancer.
+It's essential to use bioinformatics and statistical tools to perform these analyses and interpret the results. Additionally, consulting the relevant literature and collaborating with experts in the field can enhance the understanding of the clinical implications of these genomic alterations in cancer.</t>
+  </si>
+  <si>
+    <t>The gene POLR3E encodes an essential subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs such as transfer RNAs (tRNAs) and 5S ribosomal RNA. Mutations in POLR3E have been associated with a rare genetic disorder called hypomyelinating leukodystrophy, and POLR3E dysfunction has also been linked to neurodegenerative disorders.
+Therapeutic areas and platforms in focus for targeting POLR3E-related conditions may include:
+1. Gene therapy: Developing gene therapy approaches to correct or replace the mutated POLR3E gene in patients with hypomyelinating leukodystrophy or other related conditions.
+2. Small molecule modulation: Investigating small molecule compounds that can modulate the activity of POLR3E to potentially restore normal function or mitigate the effects of dysfunctional POLR3E.
+3. RNA-targeted therapies: Exploring RNA-targeted therapies, such as antisense oligonucleotides or RNA interference, to regulate the expression or function of POLR3E and related transcripts.
+4. Neuroprotective strategies: Developing neuroprotective agents that can support myelination and protect against neurodegeneration in conditions associated with POLR3E dysfunction.
+These are just a few examples of the therapeutic areas and platforms that may be of interest for targeting the gene POLR3E. As research in this field continues to advance, new opportunities for therapeutic intervention may emerge.</t>
+  </si>
+  <si>
+    <t>I'm afraid I cannot provide the latest clinical trial data or specific details on pharmaceutical companies related to POLR3E gene and its associated drug trials. Access to such information is highly regulated and constantly updated, making it difficult to guarantee accuracy. I recommend reaching out to trusted medical databases, clinical trial registries, or speaking with a qualified medical professional for the most recent and reliable information on clinical trials and drug development for POLR3E gene.</t>
+  </si>
+  <si>
+    <t>As of my last knowledge update, there are no drugs explicitly indicated for the gene POLR3E. POLR3E is a subunit of RNA polymerase III, an enzyme involved in the transcription of various small nuclear RNAs and some small nucleolar RNAs. Research on drugs targeting POLR3E-related conditions may still be ongoing, and it's always good to consult with a healthcare professional or a current database for the most up-to-date information on drug indications.</t>
+  </si>
+  <si>
+    <t>The gene POLR3E encodes for the RPC5 subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs. As of now, there are no known first-in-class drugs targeting POLR3E specifically. However, targeting RNA polymerase machinery is an active area of research in the development of new therapeutic agents for various diseases, including cancers and genetic disorders. Given the critical role of RNA polymerase III in cellular processes, there may be opportunities for drug discovery targeting this gene in the future. Understanding the genetic and molecular pathways associated with POLR3E may uncover potential targets for drug development.</t>
+  </si>
+  <si>
+    <t>Identifying which genes or proteins to target for a new therapeutic typically involves a combination of approaches, including understanding the underlying biology of the disease, conducting high-throughput screening assays, utilizing bioinformatics and computational biology techniques, and leveraging existing knowledge of pathways and networks involved in the disease.
+First, the biology of the disease must be thoroughly understood. This involves studying the molecular and cellular mechanisms underlying the disease, as well as identifying key genes, proteins, and pathways involved in its development and progression.
+Next, high-throughput screening assays can be used to identify potential drug targets. These assays can involve testing large libraries of compounds or molecules to see if they have an effect on the activity of specific proteins or pathways associated with the disease.
+Bioinformatics and computational biology techniques can also be employed to analyze large-scale genomic, transcriptomic, and proteomic data to identify potential drug targets. This can involve identifying genes or proteins that are differentially expressed in diseased versus healthy tissues, or using network-based approaches to identify key nodes in disease-associated pathways.
+Additionally, existing knowledge of pathways and networks involved in the disease can be leveraged to identify potential drug targets. This may involve targeting proteins known to be involved in disease-associated pathways, or identifying key nodes in protein-protein interaction networks associated with the disease.
+Overall, a combination of experimental and computational approaches is typically used to identify potential genes or proteins to target for a new therapeutic, with the goal of modulating the underlying disease biology in a way that leads to therapeutic benefit.</t>
+  </si>
+  <si>
+    <t>There are several methods that can be used to validate a potential biomarker for a specific disease. These may include:
+1. Clinical studies: Conducting various types of clinical studies, such as case-control studies, cohort studies, or randomized controlled trials, to assess the association of the biomarker with the disease of interest.
+2. Assay development and validation: Developing and validating a robust and reliable assay for the detection and quantification of the biomarker in biological samples, such as blood, urine, or tissue.
+3. Replication studies: Replicating the findings from initial discovery studies in independent cohorts or populations to determine the consistency and reproducibility of the biomarker's association with the disease.
+4. Functional validation: Investigating the biological function of the biomarker and its role in disease pathogenesis using in vitro or in vivo experimental models.
+5. Longitudinal studies: Conducting longitudinal studies to evaluate the predictive value of the biomarker for disease progression, prognosis, or treatment response over time.
+6. Meta-analysis: Pooling and analyzing data from multiple studies to provide a more comprehensive assessment of the biomarker's performance across different populations and study designs.
+7. Regulatory approval: Obtaining regulatory approval for the biomarker as a diagnostic, prognostic, or predictive tool for the specific disease, which may involve submission to regulatory agencies such as the FDA or EMA.
+By employing these methods, researchers can systematically evaluate and validate the utility of a potential biomarker for a specific disease, paving the way for its clinical application in patient care and drug development.</t>
+  </si>
+  <si>
+    <t>Pathway analysis plays a crucial role in drug discovery by providing insights into the underlying biological mechanisms and pathways involved in disease processes. By integrating pathway analysis into the drug discovery process, researchers can identify potential drug targets, understand the molecular pathways affected by disease, and prioritize candidate drugs for further development. Here are some ways in which pathway analysis can be integrated into drug discovery:
+1. Target Identification: Pathway analysis can help identify key molecular pathways that are dysregulated in a specific disease. By analyzing gene expression data or omics data (such as genomics, proteomics, or metabolomics), researchers can pinpoint potential drug targets within these pathways.
+2. Mechanism of Action: Understanding the molecular pathways involved in disease can provide insights into the mechanisms driving the pathology. Pathway analysis can help elucidate how drugs may modulate these pathways and provide a rationale for their therapeutic effects.
+3. Drug Repurposing: Pathway analysis can uncover potential connections between drugs and specific pathways, allowing researchers to identify existing drugs that may have unexplored therapeutic potential for different diseases.
+4. Biomarker Discovery: Pathway analysis can aid in the identification of biomarkers associated with disease progression or drug response. These biomarkers can be used for patient stratification in clinical trials or for monitoring treatment efficacy.
+5. Prioritization of Drug Candidates: Integrating pathway analysis with drug discovery efforts can help prioritize potential drug candidates based on their ability to modulate relevant pathways implicated in the disease.
+In summary, pathway analysis provides a powerful framework for understanding the complex molecular interactions underlying diseases and for informing drug discovery efforts. By leveraging this approach, researchers can make more informed decisions in prioritizing targets, identifying potential drug candidates, and understanding the mechanisms of action of novel therapies.</t>
+  </si>
+  <si>
+    <t>Phenotypic screening and genotypic screening are two complementary approaches in drug discovery and development. Genotypic screening involves identifying potential drug targets based on genetic or genomic information, such as gene mutations or overexpression in disease-related pathways. On the other hand, phenotypic screening involves testing a large number of compounds for their ability to elicit a specific cellular or tissue response, without necessarily knowing the target or mechanism of action.
+Here's how they complement each other:
+1. Target identification and validation: Genotypic screening can help identify potential drug targets, but phenotypic screening can help validate these targets by identifying compounds that modulate the desired cellular phenotype, providing evidence of the relevance of the target in the disease process.
+2. Broad applicability: Phenotypic screening can lead to the identification of new drug targets or pathways that may not have been predicted based on genotypic information alone, providing a broader and more unbiased approach to drug discovery.
+3. Mechanism of action elucidation: Phenotypic screening can lead to the identification of compounds with desired effects, and subsequent genotypic screening can help elucidate their mechanisms of action by identifying their molecular targets or pathways.
+4. Addressing complex diseases: Phenotypic screening can be particularly useful in identifying compounds for complex diseases where the underlying genetic and molecular mechanisms are not fully understood, or where multiple pathways may be involved.
+In conclusion, while genotypic screening provides valuable insights into potential drug targets, phenotypic screening allows for the identification of compounds with desirable effects on cellular or tissue function, and the two approaches can be used in conjunction to enhance the drug discovery process.</t>
+  </si>
+  <si>
+    <t>Translating in vitro findings to in vivo models presents several challenges in drug discovery and development:
+1. Complexity of biological systems: In vivo models are more complex than in vitro systems, as they involve interactions between multiple cell types, tissues, and organs. Therefore, the effects observed in an in vitro model may not fully represent what happens in a living organism.
+2. Pharmacokinetics and pharmacodynamics: In vivo models need to consider the absorption, distribution, metabolism, and excretion of the drug (pharmacokinetics) as well as the drug's effects on the body (pharmacodynamics). In vitro models may not capture these aspects accurately.
+3. Species differences: In vitro models are often based on human cells, while in vivo models may involve animal models. Species differences can impact drug metabolism, toxicity, and efficacy, making it challenging to directly translate findings from in vitro studies to in vivo settings.
+4. Experimental variability: In vitro experiments can be tightly controlled, but in vivo experiments are subject to greater variability due to factors such as genetics, environment, and individual variation among the test subjects.
+5. Ethical and practical considerations: In vivo studies raise ethical considerations related to the use of animal models, and these models may also be more costly and time-consuming to work with compared to in vitro systems.
+To address these challenges, researchers may employ a range of techniques, including utilizing multiple complementary in vitro models, incorporating human-relevant cell types and 3D culture systems into in vitro studies, optimizing experimental designs, and leveraging computational models to bridge the gap between in vitro and in vivo findings. Similarly, advancements in technologies such as microfluidics and organ-on-a-chip systems are helping to better mimic in vivo conditions in vitro, thereby improving the translatability of findings.</t>
+  </si>
+  <si>
+    <t>Structural biology plays a crucial role in the design of new drugs by providing detailed insights into the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids. Here's how it aids in the drug design process:
+1. Understanding the Target: Structural biology techniques, such as X-ray crystallography, nuclear magnetic resonance (NMR) spectroscopy, and cryo-electron microscopy, can be used to determine the three-dimensional structure of a target protein involved in a disease, such as an enzyme or receptor. This information helps in understanding the target's function, active site, and binding pockets, which are essential for designing drugs that can modulate its activity.
+2. Rational Drug Design: Once the structure of the target protein is known, computational methods can be used to design small molecule drug candidates that specifically interact with the target protein, either by inhibiting or enhancing its activity. Structure-based drug design (SBDD) involves using the structural information to rationally design molecules that fit into the binding site of the target protein, leading to the development of more potent and selective drugs.
+3. Virtual Screening: Structural information can guide virtual screening efforts, where large libraries of chemical compounds are computationally screened to identify potential drug candidates that can bind to the target protein. By considering the structural features of the target protein, virtual screening can narrow down the search space for potential drug candidates, saving time and resources in the drug discovery process.
+4. Understanding Drug-Target Interactions: Structural biology also helps in understanding the molecular interactions between drug candidates and their target proteins at an atomic level. This knowledge is crucial for optimizing the drug's potency, selectivity, and pharmacokinetic properties, leading to the development of more effective and safer drugs.
+5. Overcoming Drug Resistance: By elucidating the structural basis of drug resistance in pathogens or cancer cells, structural biology can aid in the design of new drugs or drug combinations that can overcome resistance mechanisms, improving the efficacy of treatments.
+In summary, structural biology is integral to the drug discovery process, providing valuable insights into the molecular basis of disease and enabling the rational design of new drugs with improved potency, selectivity, and therapeutic potential.</t>
+  </si>
+  <si>
+    <t>The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing a variety of small non-coding RNAs. These include transfer RNAs (tRNAs), small ribosomal RNAs (sRNAs), and other small regulatory RNAs. The POLR3E protein is a part of the RNA polymerase III complex and is involved in the initiation and termination of RNA transcription.
+Functionally, POLR3E plays a crucial role in the accurate transcription of these small RNAs, which are essential for protein synthesis and other cellular processes. Defects in POLR3E can lead to disruption of normal RNA transcription, which can contribute to various developmental and neurological disorders.
+POLR3E is classified as a protein-coding gene, specifically as a subunit of RNA polymerase III, and its dysfunction can lead to a range of molecular and cellular consequences. Studying POLR3E and its associated pathways is important for understanding gene expression regulation and for potential therapeutic interventions, particularly in the context of developmental disorders and neurodegenerative diseases.</t>
+  </si>
+  <si>
+    <t>POLR3E encodes a subunit of RNA polymerase III, which transcribes small non-coding RNAs. In cancer, dysregulation of POLR3E has been linked to various pathways. Some studies suggest that POLR3E mutations can lead to impaired transcription of non-coding RNAs, contributing to cancer progression. Additionally, POLR3E mutations have been associated with altered expression of genes involved in cell growth, differentiation, and apoptosis, thereby influencing cancer development. Interactions between POLR3E and other genes are likely in pathways related to RNA transcription and regulation. Further research is needed to fully understand the specific mechanisms and interactions involved in POLR3E's role in cancer.</t>
+  </si>
+  <si>
+    <t>POLR3E is a subunit of RNA polymerase III, which is an enzyme involved in the transcription of small non-coding RNAs. To determine if the gene POLR3E is an oncogene, we typically look at experimental evidence from cell and animal models, as well as clinical data from cancer patients.
+Currently, there is limited evidence to suggest that POLR3E is an oncogene. Based on existing studies and databases such as COSMIC and TCGA, POLR3E mutations or dysregulation are not commonly associated with cancer development.
+However, it's important to note that our understanding of oncogenes is constantly evolving, and new research may uncover previously unknown roles for genes in cancer. Therefore, ongoing research in the field of cancer genomics and functional studies will continue to provide more insights into the potential oncogenic properties of POLR3E.</t>
+  </si>
+  <si>
+    <t>The gene POLR3E, which encodes a subunit of RNA polymerase III, has been associated with several cancer indications or types. Research has linked POLR3E to various cancers, including but not limited to breast cancer, ovarian cancer, and colorectal cancer. Aberrant expression or mutations in POLR3E may contribute to the development and progression of these cancers. Additionally, POLR3E has been implicated in other cancer types, and ongoing research may continue to uncover its role in different cancer indications.</t>
+  </si>
+  <si>
+    <t>There are multiple databases where you can obtain relevant networks for the gene POLR3E. Some of the popular databases include STRING, GeneMANIA, and BioGRID. These databases provide protein-protein interaction networks, gene co-expression networks, and other functional association networks that can help you understand the mechanism and interactions of the POLR3E gene.
+In these networks, POLR3E would be connected to other genes or proteins based on experimental evidence, computational predictions, co-expression patterns, and other types of functional associations. These networks can provide valuable insights into the roles and interactions of POLR3E within cellular pathways and biological processes.
+I can also help you in analyzing and interpreting the networks obtained from these databases if you need assistance in understanding the biological implications of the interactions of POLR3E.</t>
+  </si>
+  <si>
+    <t>Here are a few key publications related to the gene POLR3E:
+1. "Mutations in POLR3A and POLR3B are a major cause of hypomyelinating leukodystrophies with or without dental abnormalities and/or hypogonadotropic hypogonadism." Huang Y et al. J Med Genet. 2019. [PubMed](https://pubmed.ncbi.nlm.nih.gov/30796115/)
+2. "Hypomyelinating leukodystrophy-associated POLR3A and POLR3B mutations reduce RNA polymerase III activity." Saitsu H et al. Human mutation. 2011. [PubMed](https://pubmed.ncbi.nlm.nih.gov/21896127/)
+3. "RNA polymerase III and its associated factors." Dumay-Odelot H et al. BAG J. 2010. [PubMed](https://pubmed.ncbi.nlm.nih.gov/20844618/)
+These publications provide valuable insights into the role of POLR3E gene mutations in hypomyelinating leukodystrophies and related conditions.</t>
+  </si>
+  <si>
+    <t>Here are some well-known pseudokinase genes:
+1. Pseudoephedrine Kinase (PSEK)
+2. Serine/Threonine-Protein Pseudo Kinase (STPK)
+3. Pseudokinase 3 (PSDK3)
+4. Mitogen-activated Pseudo Kinase 1 (MAPK1)
+5. Pseudokinase Kinase 2 (PSKK2)
+Pseudokinases are proteins that structurally resemble kinases but lack catalytic activity. They have important functions in signaling pathways and cellular processes despite their lack of kinase activity. If you need further details about specific pseudokinases or additional pseudokinase genes, feel free to ask!</t>
+  </si>
+  <si>
+    <t>To use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease, the first step would be to identify the specific gene or genes associated with the disease. One of the genes frequently implicated in Alzheimer's disease is the gene encoding the amyloid precursor protein (APP).
+Once the target gene has been identified, the next step would be to design a guide RNA (gRNA) that is complementary to the DNA sequence within the gene that we want to modify. The gRNA will guide the Cas9 enzyme to the correct location in the genome.
+The delivery of CRISPR-Cas9 components to the targeted cells is a crucial aspect. Depending on the context, this could involve using viral vectors, nanoparticles, or other delivery methods to ensure that the CRISPR-Cas9 components reach the desired brain cells efficiently and effectively.
+After the CRISPR-Cas9 components have been delivered to the cells, the Cas9 enzyme will create a double-strand break at the targeted location within the gene. This break will activate the cell's natural DNA repair mechanisms, which can be harnessed to introduce specific changes to the gene.
+In the context of Alzheimer's disease, potential strategies for gene editing could include:
+1. Inhibiting the production of amyloid beta peptides by disrupting the cleavage sites within the APP gene.
+2. Correcting disease-associated mutations within the APP gene using CRISPR-Cas9 gene editing to restore normal protein function.
+3. Modifying genes related to neuroinflammation, oxidative stress, or other aspects of Alzheimer's pathology to mitigate disease progression.
+Finally, it is essential to rigorously assess the specificity and off-target effects of CRISPR-Cas9 editing to ensure minimal unintended genetic alterations. This can be achieved through advanced genome sequencing and off-target analysis techniques.
+In summary, using CRISPR-Cas9 for editing genes implicated in Alzheimer's disease holds great potential for developing targeted therapies. However, extensive preclinical and clinical research is necessary to validate the safety and efficacy of this approach before it can be applied in the clinical setting.</t>
+  </si>
+  <si>
+    <t>Designing siRNA sequences to target and knock down a specific oncogene requires careful consideration of the target gene's mRNA sequence to ensure specific and effective knockdown. Additionally, it's important to consider potential off-target effects and ensure the siRNA sequences are designed for optimal knockdown efficiency.
+Here's a general outline for developing siRNA sequences to target a specific oncogene:
+1. Target Identification: Identify the specific oncogene that you want to target for knockdown. Obtain the mRNA sequence of the oncogene from a reliable sequence database such as NCBI or Ensembl.
+2. Sequence Selection: Use bioinformatics tools or siRNA design software to identify potential siRNA sequences that target the mRNA sequence of the oncogene. Ensure that the selected siRNA sequences have high target specificity and minimal off-target effects. Criteria for selection may include GC content, off-target predictions, and secondary structure analysis.
+3. Off-Target Analysis: Perform off-target analysis to check for potential binding sites of the selected siRNA sequences in other genes. Avoid selecting sequences with significant homology to non-target genes to minimize off-target effects.
+4. siRNA Design: Design the siRNA sequences with the following characteristics:
+   - 19-21 nucleotide length with a 2-nucleotide overhang on the 3' end for improved stability and efficacy.
+   - GC content around 50-55% to optimize duplex stability.
+   - Avoidance of sequences with significant self-complementarity or secondary structure to prevent unintended interactions.
+5. In Silico Validation: Validate the selected siRNA sequences in silico to ensure that they specifically target the oncogene mRNA and do not have significant off-target effects.
+6. Experimental Validation: Once the siRNA sequences are designed and validated in silico, experimental validation should be performed using cell culture models or animal models to confirm their efficacy in knocking down the target oncogene.
+It's important to note that experimental validation is crucial to ensure the effectiveness of the designed siRNA sequences in knocking down the specific oncogene. Additionally, optimizing siRNA delivery methods and assessing potential off-target effects in cellular or animal models is essential for successful knockdown of the oncogene.</t>
+  </si>
+  <si>
+    <t>To design a high-throughput screening (HTS) assay, several steps need to be considered:
+1. Assay Selection: Choose an appropriate assay type based on the target and available resources. For a novel protein target involved in cancer cell proliferation, a biochemical or cell-based assay could be suitable.
+2. Assay Development: Develop the assay by optimizing conditions that ensure robust and reproducible results. For example, for a biochemical assay, it may involve determining the optimal substrate concentration, enzyme concentration, and assay buffer conditions. For a cell-based assay, it may involve optimizing cell density, reagent concentrations, and incubation times.
+3. Library Selection: Choose a diverse and representative compound library for screening. This could include small molecule libraries, natural product libraries, or even fragment libraries.
+4. Screening Conditions: Set up the appropriate screening conditions, including reaction volumes, incubation times, and detection methods. For a biochemical assay, this could involve setting up microplate formats for screening using a spectrophotometric or fluorometric readout. For a cell-based assay, this could involve assay miniaturization and optimization of incubation times to increase throughput.
+5. Data Analysis: Establish a robust data analysis pipeline to effectively process and analyze screening results. This may involve setting up appropriate data analysis software and statistical methods to identify hits.
+Given the complex nature of cancer cell proliferation, a cell-based assay is likely to be more relevant for identifying potential small molecule inhibitors. This assay would involve culturing cancer cells in multi-well plates, treating them with test compounds, and then quantifying cell viability or proliferation using a readout such as a metabolic assay (e.g., MTS or ATP assay) or a high-content imaging system.
+Once the assay is established, it can be used to screen large compound libraries to identify potential small molecule inhibitors of the novel protein target. Hits from the primary screening can then be validated through secondary assays to confirm specificity and activity.
+As an exceptional computational biologist and genomics expert, you have the expertise to design, optimize, and implement high-throughput screening assays to identify small molecule inhibitors for novel cancer targets.</t>
+  </si>
+  <si>
+    <t>Developing an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer requires a comprehensive approach that includes target selection, antibody development, linker-payload design, and preclinical/clinical validation. Here's a proposed strategy for this:
+1. Target Selection:
+   - Identify the specific antigen that is overexpressed in the type of breast cancer of interest. This can be done through genomic, transcriptomic, and proteomic analysis of patient samples. Candidate antigens should be associated with cancer cell proliferation, survival, and metastasis.
+   - Validate the therapeutic potential of the selected antigen using in vitro and in vivo models to ensure that targeting this antigen will lead to a meaningful therapeutic effect.
 2. Antibody Development:
-   - Design and produce monoclonal antibodies specifically targeting the identified antigen. This can involve using phage display libraries, hybridoma technology, or recombinant antibody engineering techniques.
-   - Characterize the specificity, affinity, and internalization properties of the generated antibodies to ensure their suitability for ADC development.
-3. Payload Selection:
-   - Select an appropriate cytotoxic payload that is highly potent and has demonstrated efficacy in breast cancer. This can involve using small molecule drugs or toxins with proven mechanisms of action against cancer cells.
-4. ADC Conjugation:
-   - Conjugate the selected antibody with the cytotoxic payload using stable linkers that enable targeted delivery of the payload to cancer cells while minimizing off-target effects.
-   - Optimize the conjugation process to ensure homogeneity and stability of the ADC while preserving the antigen-binding specificity of the antibody component.
-5. Preclinical Evaluation:
-   - Assess the in vitro cytotoxicity and specificity of the ADC using breast cancer cell lines overexpressing the target antigen.
-   - Evaluate the pharmacokinetics, biodistribution, and in vivo efficacy of the ADC in relevant breast cancer xenograft models.
-6. Clinical Development:
-   - Initiate clinical trials to assess the safety, tolerability, pharmacokinetics, and preliminary efficacy of the ADC in patients with the specific type of breast cancer overexpressing the target antigen.
-   - Utilize biomarker analysis to identify patient populations most likely to benefit from treatment with the ADC.
-By employing this comprehensive strategy, it is possible to develop a highly potent and selective ADC targeting a specific antigen overexpressed in a type of breast cancer, with the potential to improve treatment outcomes for patients with this disease.</t>
-  </si>
-  <si>
-    <t>Sure, here's an outline for a pharmacokinetic study design for a new oral antidiabetic drug:
-1. Study Objective: The primary objective of the study is to assess the pharmacokinetics of the new oral antidiabetic drug in healthy volunteers or patients with diabetes.
-2. Study Population: The study will include healthy volunteers or patients with type 2 diabetes mellitus who meet the inclusion and exclusion criteria. The sample size should be large enough to provide statistically meaningful results.
-3. Study Design: The study will be a single-center, open-label, crossover design with multiple doses. The participants will be randomly assigned to receive the new antidiabetic drug and a comparator drug (either placebo or an existing antidiabetic drug) in a randomized sequence with a washout period between doses.
-4. Dose Selection: The study will evaluate at least two different doses of the new antidiabetic drug to assess dose-proportionality and determine the optimal dose for further clinical development.
-5. Sampling Schedule: Blood samples will be collected at predetermined time points after drug administration to assess the pharmacokinetic parameters, including peak plasma concentration (Cmax), time to peak concentration (Tmax), area under the plasma concentration-time curve (AUC), half-life (t1/2), and clearance.
-6. Analytical Method: High-performance liquid chromatography (HPLC) or mass spectrometry will be used to quantify the plasma concentrations of the new antidiabetic drug.
-7. Safety Monitoring: Adverse events, vital signs, and electrocardiogram (ECG) measurements will be monitored throughout the study to assess the safety and tolerability of the new drug.
-8. Statistical Analysis: The pharmacokinetic parameters will be analyzed using non-compartmental analysis to determine the drug's absorption, distribution, metabolism, and excretion characteristics. Statistical comparisons between the new antidiabetic drug and the comparator drug will be conducted to assess bioequivalence and dose proportionality.
-9. Ethical Considerations: The study will be conducted in accordance with ethical principles, and informed consent will be obtained from all participants. The study protocol will be reviewed and approved by an independent ethics committee or institutional review board.
-10. Reporting and Interpretation: The study findings will be reported in a scientific manuscript and presented at relevant conferences. The pharmacokinetic data will help guide further clinical development and dosing recommendations for the new oral antidiabetic drug.
-This study design will provide valuable pharmacokinetic information to support the further development and regulatory approval of the new oral antidiabetic drug.</t>
-  </si>
-  <si>
-    <t>Building a chemogenomics model to predict drug-target interactions involves several steps. Here's a high-level overview of the process:
-1. Data Collection: The first step is to gather comprehensive data on chemical compounds (drugs) and target proteins. This includes information on the chemical structure of the compounds, as well as their biological activity and interactions with target proteins. Additionally, genomic data on the target proteins, such as gene sequences and functional annotations, is essential.
-2. Data Preprocessing and Integration: The collected data needs to be preprocessed and integrated to create a unified dataset. This involves standardizing data formats, resolving inconsistencies, and merging data from different sources into a single repository.
-3. Feature Extraction: From the integrated dataset, relevant features need to be extracted to represent the chemical and biological properties of the compounds and target proteins. This may involve molecular descriptors for the compounds, such as fingerprints or physicochemical properties, and genomic features for the target proteins, such as sequence motifs or structural characteristics.
-4. Model Training: Using the extracted features, machine learning or statistical models can be trained to predict the likelihood of interactions between drugs and target proteins. Various algorithms, such as support vector machines, random forests, or deep learning models, can be employed for this purpose.
-5. Model Evaluation: The performance of the trained model needs to be evaluated using validation techniques such as cross-validation or independent test sets. The model's accuracy, precision, recall, and other metrics are assessed to determine its predictive power.
-6. Model Application: Once the model is validated, it can be applied to predict novel drug-target interactions for new compounds or targets. This can help identify potential drug candidates, understand off-target effects, or repurpose existing drugs for new indications.
-7. Model Refinement: The model may be iteratively refined by incorporating additional data, improving feature representation, or using more advanced modeling techniques to enhance its predictive capabilities.
-Overall, building a chemogenomics model to predict drug-target interactions involves a multidisciplinary approach that combines expertise in chemistry, biology, genomics, and data science to harness the power of computational tools for drug discovery and development.</t>
-  </si>
-  <si>
-    <t>Computational models can predict off-target effects of potential drug candidates through various approaches:
-1. Ligand-Based Methods: These methods analyze the chemical and structural characteristics of the drug molecule to predict interactions with off-target proteins. Quantitative structure-activity relationship (QSAR) and pharmacophore modeling are examples of ligand-based methods.
-2. Structure-Based Methods: These methods rely on the 3D structure of the drug candidate and off-target proteins to predict binding affinities and potential off-target interactions. Molecular docking and molecular dynamics simulations are commonly used in structure-based approaches.
-3. Systems Biology Approaches: These methods consider the broader biological context, integrating data on drug-target interactions, signaling pathways, and gene expression to predict potential off-target effects.
-4. Machine Learning and Data Mining: Computational models can be trained on large datasets of known drug-protein interactions to predict off-target effects of new drug candidates using machine learning algorithms.
-5. Integrated Approaches: Combining multiple computational techniques, such as ligand- and structure-based methods, along with systems biology and machine learning, can provide a more comprehensive prediction of off-target effects.
-Additionally, advancements in omics technologies, such as genomics, proteomics, and transcriptomics, have enabled the integration of large-scale biological data into computational models to improve the prediction of off-target effects.
-By applying these computational approaches, researchers can assess the potential off-target interactions of drug candidates, thereby aiding in the selection of safer and more effective therapeutics during the drug discovery process.</t>
-  </si>
-  <si>
-    <t>When selecting a delivery method for a new drug, several important considerations are taken into account:
-1. Bioavailability: The delivery method should ensure that the drug reaches its target site in the body at an effective concentration. Factors such as absorption, distribution, metabolism, and excretion (ADME) of the drug need to be considered.
-2. Target tissue or organ: The delivery method should be tailored to the specific tissue or organ where the drug needs to exert its therapeutic effect. For example, the delivery method for a drug targeting the brain would differ from one targeting the liver.
-3. Patient convenience and compliance: The delivery method should be convenient and easy for the patient to use, leading to improved compliance with the prescribed treatment regimen. This could include considerations such as frequency of administration, mode of administration (oral, injectable, transdermal, etc.), and overall patient experience.
-4. Pharmacokinetics and pharmacodynamics: The delivery method should be designed to achieve the desired pharmacokinetic profile of the drug, ensuring that it remains at therapeutic levels for the necessary duration. Additionally, the method should be optimized to maximize the drug's pharmacodynamic effects.
-5. Safety and tolerability: The selected delivery method should be minimally invasive and should not cause undue discomfort or adverse effects to the patient. This involves considering factors such as local and systemic side effects, potential for allergic reactions, and overall tolerability.
-6. Stability of the drug: The delivery method should maintain the stability and integrity of the drug, ensuring that it remains effective throughout its shelf life and during administration.
-7. Targeted drug delivery: Advances in drug delivery technologies allow for targeted delivery to specific cells or tissues, minimizing off-target effects and improving the therapeutic index of the drug.
-8. Manufacturing and commercial considerations: The chosen delivery method should be amenable to scale-up for manufacturing and should be cost-effective for commercial production.
-By carefully considering these factors, researchers and pharmaceutical companies can select the most appropriate delivery method for a new drug, ultimately leading to improved patient outcomes and treatment efficacy.</t>
-  </si>
-  <si>
-    <t>To screen for synergistic effects between drug candidates, you can employ a variety of experimental and computational approaches. Here are some strategies that you can use to identify and characterize synergistic interactions between drug candidates:
-1. High-throughput Screening (HTS): You can perform an HTS of compound libraries to identify individual drugs with potential synergistic effects. This involves testing multiple combinations of drug candidates in various cell lines or biological systems to measure their combined effects on a specific biological endpoint.
-2. Combination Drug Screening: Utilize a combinatorial screening approach to systematically test all possible combinations of drug candidates at different concentrations. This can provide a comprehensive understanding of potential synergistic, additive, or antagonistic interactions between the drugs.
-3. Omics-based Approaches: Employ genomics, transcriptomics, proteomics, and metabolomics techniques to analyze the molecular responses of cells or tissues to different drug combinations. This can help identify molecular pathways and interactions that are modulated by the drug combinations, providing insights into potential synergistic effects.
-4. Computational Modeling: Utilize computational models, such as quantitative structure-activity relationship (QSAR) models, molecular docking simulations, and network pharmacology approaches, to predict potential synergistic interactions between drug candidates based on their molecular properties, binding affinities, and effects on biological pathways.
-5. Mechanistic Studies: Conduct in-depth mechanistic studies to elucidate the molecular and cellular mechanisms underlying the synergistic effects of drug combinations. This can involve exploring the interactions of drug targets, signaling pathways, and physiological responses to identify potential synergistic interactions.
-6. Systems Biology Approaches: Apply systems biology techniques to integrate data from various experimental and computational sources to build comprehensive models of drug interactions and their effects on biological systems. This can help uncover emergent properties of drug combinations and predict synergistic effects.
-By employing a combination of these experimental and computational strategies, you can systematically identify and characterize synergistic interactions between drug candidates, leading to the discovery of effective combination therapies for various diseases.</t>
-  </si>
-  <si>
-    <t>The mutations in the PAS domain of a target protein that exhibit high selectivity for prostate cancer cell lines would likely be specific to that particular protein and its interaction with cellular pathways relevant to prostate cancer. Identifying these mutations would require a comprehensive understanding of the target protein's structure-function relationship, its role in cancer biology, and specific signaling pathways involved in prostate cancer.
-In general, high selectivity for prostate cancer cell lines could arise from mutations that alter the protein's binding affinity to specific cancer-associated factors, modify its enzymatic activity to favor cancer cell survival or proliferation, or affect its interaction with other proteins or cellular components involved in prostate cancer progression.
-To identify such mutations, a combination of computational approaches, structural modeling, and high-throughput screening methods can be employed. Additionally, analysis of genomic data from prostate cancer patient samples may also provide insights into somatic mutations within the PAS domain that are associated with the disease.
-As an exceptionally skilled computational biologist and genomics expert, you could apply advanced computational modeling techniques, molecular dynamics simulations, and structure-based drug design strategies to predict and study the impact of mutations in the PAS domain on the target protein's function and its relevance to prostate cancer. Additionally, leveraging large-scale genomics datasets and bioinformatics tools can help identify candidate mutations for further experimental validation in prostate cancer cell lines.</t>
-  </si>
-  <si>
-    <t>The BRCA1 and BRCA2 genes are crucial for maintaining cellular homeostasis, and mutations in these genes are associated with increased risk of breast and ovarian cancers. Structural variants in these genes can have diverse effects on their function and interaction with paralogs. These effects can range from altering binding affinities with partner proteins to impacting the stability and localization of the gene products.
-Specifically, several structural variants in the BRCA1 and BRCA2 genes have been associated with changes in their interactions with paralogs such as PALB2 (partner and localizer of BRCA2), which is a key mediator of BRCA2 function in DNA repair. These interactions are typically mediated through specific protein domains, and structural variants can directly impact the integrity of these domains, leading to changes in interaction patterns.
-It is important to note that the effects of structural variants on protein-protein interactions can be context-dependent and may require detailed functional studies to fully understand their implications. Furthermore, the impact of specific structural variants on interaction with paralogs may vary depending on the precise nature of the variant, including whether it involves insertions, deletions, duplications, inversions, or complex rearrangements.
-In summary, the effects of structural variants in the BRCA genes on their interactions with paralogs are complex and multifaceted, and their precise implications would need to be investigated on a case-by-case basis using experimental approaches.</t>
-  </si>
-  <si>
-    <t>I don't have direct access to the NCBI GEO database or GSE249645, but I can guide you on how to approach this. The gene set enrichment profile in a specific experiment like GSE249645 can provide valuable insights into the biological pathways or processes that are altered under the experimental conditions. To find tissues with gene expression profiles similar to those in the experiment:
-1. Retrieve the gene set enrichment results from the GSE249645 dataset. This will give you a list of enriched gene sets or pathways associated with the experimental conditions.
-2. Correlate the enriched gene sets with tissue-specific gene expression profiles from databases like GTEx (Genotype-Tissue Expression) or TCGA (The Cancer Genome Atlas). These databases provide comprehensive gene expression data across different tissues and can be used to identify tissues with similar gene expression patterns.
-3. Use computational tools such as gene set enrichment analysis (GSEA) or other pathway analysis methods to compare the enriched gene sets from GSE249645 with tissue-specific gene expression profiles. This can help identify tissues that exhibit similar enrichment patterns.
-By performing these steps, you can identify tissues in patients that have gene set enrichment profiles similar to those in the experiment GSE249645.</t>
-  </si>
-  <si>
-    <t>To identify protein domains enriched for pathogenic mutations in breast cancer patients, you can perform an analysis using various bioinformatics tools and databases. One approach is to use tools such as InterPro or Pfam to identify protein domains within the target protein sequence. Once the protein domains are identified, you can then query databases like ClinVar or COSMIC to determine if mutations within these domains are associated with pathogenic effects in breast cancer patients.
-Additionally, you can also utilize computational prediction tools to assess the potential impact of mutations on protein function, such as SIFT, PolyPhen, or CADD. Integrating the results from these analyses can provide insights into the protein domains enriched for pathogenic mutations in breast cancer patients.
-If you have specific target proteins and mutation data, I could assist you in performing this analysis in more detail.</t>
-  </si>
-  <si>
-    <t>n/a</t>
+   - Generate monoclonal antibodies against the selected antigen using hybridoma technology, phage display, or other antibody discovery platforms.
+   - Screen and characterize candidate antibodies for specificity, binding affinity, internalization, and minimal off-target effects.
+   - Optimize the lead antibody's properties for ADC development, including humanization to reduce immunogenicity and engineering for stable conjugation with a linker-payload.
+3. Linker-Payload Design:
+   - Select an appropriate linker-payload system that allows for efficient conjugation to the antibody, stability in circulation, and release of the cytotoxic payload in the target cancer cells.
+   - Consider the payload's mechanism of action, potency, and selectivity to ensure its efficacy against the antigen-expressing cancer cells.
+4. Preclinical Validation:
+   - Assess the in vitro cytotoxicity and specificity of the ADC against breast cancer cell lines overexpressing the target antigen.
+   - Evaluate the in vivo efficacy of the ADC in xenograft models using patient-derived tumor xenografts (PDX) or genetically engineered mouse models (GEMM) that recapitulate the relevant features of the disease.
+5. Clinical Translation:
+   - Initiate clinical trials to evaluate the safety, pharmacokinetics, pharmacodynamics, and efficacy of the ADC in patients with the specific type of breast cancer.
+   - Stratify patient populations based on the level of antigen expression to identify subgroups most likely to benefit from the treatment.
+   - Consider combination therapy with standard-of-care treatments to enhance the therapeutic outcome.
+Throughout the development process, it's crucial to continually assess the pharmacokinetic properties, conjugation stability, and safety profile of the ADC while optimizing its efficacy against the target antigen-expressing breast cancer cells. Additionally, leveraging cutting-edge genomics and computational tools can aid in patient stratification, biomarker discovery, and rational design for improved clinical outcomes.</t>
+  </si>
+  <si>
+    <t>Sure, a pharmacokinetic study for a new oral antidiabetic drug would aim to assess how the drug is absorbed, distributed, metabolized, and excreted by the body. The study design would typically involve the following key elements:
+1. Study Population: It's important to include a representative sample of the target population for the antidiabetic drug, such as individuals with type 2 diabetes. The study may exclude individuals with significant comorbidities or those taking medications that could interfere with the drug's pharmacokinetics.
+2. Dose Selection: Determine the dose levels to be tested based on preclinical data and safety considerations. Typically, multiple dose levels are evaluated to establish the drug's pharmacokinetic profile across a range of concentrations.
+3. Study Design: A randomized, crossover study design may be used, where each participant receives all dose levels of the drug in a randomized sequence, with a washout period between doses to eliminate any residual effects of the previous dose. Alternatively, a parallel-group design may be considered for practical or ethical reasons.
+4. Sample Collection: Blood samples should be collected at specific time points following drug administration to capture the drug's concentration over time. Additional samples for assessing metabolites or other pharmacokinetic parameters may also be collected.
+5. Analytical Methods: Ensure that sensitive and specific analytical methods are in place to accurately measure the drug and its metabolites in biological samples. This may involve the use of techniques such as liquid chromatography-mass spectrometry (LC-MS) or enzyme-linked immunosorbent assays (ELISA).
+6. Pharmacokinetic Parameters: The following parameters should be calculated from the drug concentration-time data, including but not limited to, maximum concentration (Cmax), time to reach Cmax (Tmax), area under the concentration-time curve (AUC), half-life, and clearance.
+7. Statistical Analysis: Statistical analysis of the pharmacokinetic data will be essential to compare the pharmacokinetic parameters between different dose levels and assess factors influencing drug absorption, distribution, metabolism, and excretion.
+8. Safety Monitoring: Monitor participants for adverse events and assess safety parameters such as vital signs, ECG, and laboratory tests to ensure the drug is well-tolerated.
+9. Data Interpretation: The pharmacokinetic data should be interpreted in the context of the drug's therapeutic target and efficacy. Understanding how the drug's pharmacokinetic profile relates to its pharmacodynamic effects is crucial for dose optimization and clinical use.
+Overall, a well-designed pharmacokinetic study will provide valuable insights into the behavior of the oral antidiabetic drug in humans and guide subsequent clinical development and dosing strategies.</t>
+  </si>
+  <si>
+    <t>Building a chemogenomics model to predict drug-target interactions involves several steps, utilizing both biological and computational techniques. Here's an outline of the general process:
+1. Data Collection:
+   - Gather comprehensive datasets of chemical compounds (drugs) and their corresponding target proteins, including binding affinities or activity measurements.
+   - Collect genomic and proteomic data, such as gene expression profiles, protein sequences, and structural information of target proteins.
+2. Data Preprocessing:
+   - Standardize and curate the chemical and biological data to ensure quality and consistency.
+   - Perform feature engineering to extract relevant molecular descriptors from chemical structures and identify genomic features that influence target interactions.
+3. Designing the Model:
+   - Choose appropriate machine learning algorithms, such as random forest, support vector machines, or deep learning models, to build the predictive model.
+   - Integrate chemical and genomic features into a unified framework to capture the complex relationships between drugs and targets.
+4. Training the Model:
+   - Split the data into training and validation sets.
+   - Train the model on the training dataset, optimizing parameters and hyperparameters using cross-validation techniques.
+   - Evaluate the model's performance using metrics like accuracy, precision, recall, and area under the receiver operating characteristic curve (AUC-ROC).
+5. Model Validation and Evaluation:
+   - Validate the model on an independent test set to assess its generalizability.
+   - Assess the model's predictive power through cross-validation and benchmarking against known drug-target interactions.
+6. Model Interpretation and Application:
+   - Interpret the model to identify important features and insights into drug-target interactions.
+   - Apply the model to predict novel drug-target interactions, prioritize potential drug candidates, and understand the mechanisms underlying drug efficacy and safety.
+Overall, building a chemogenomics model involves a multidisciplinary approach that combines computational biology, bioinformatics, chemoinformatics, and machine learning to uncover the complex relationships between drugs and their molecular targets.</t>
+  </si>
+  <si>
+    <t>Computational models can be used to predict off-target effects of potential drug candidates through a variety of methods. One common approach is to utilize structure-based modeling, where the three-dimensional structures of both the drug candidate and potential off-target proteins are analyzed to predict potential interactions. This can be achieved through molecular docking simulations, where the drug candidate is computationally docked into the binding site of the off-target protein to assess the likelihood of binding and potential off-target effects.
+Another approach is ligand-based modeling, which involves analyzing the chemical and physical properties of the drug candidate and comparing them with known ligands of off-target proteins to predict potential interactions. This can be done using techniques such as quantitative structure-activity relationship (QSAR) modeling, where relationships between chemical structure and biological activity are examined to predict off-target effects.
+Additionally, network-based approaches can be used to predict off-target effects by analyzing protein-protein interaction networks and identifying potential interactions between the drug candidate and off-target proteins based on network connectivity and functional relationships.
+Furthermore, machine learning and data mining techniques can be applied to large-scale omics data to predict off-target effects by identifying patterns and associations between drug candidates and potential off-target proteins.
+By leveraging these computational methods, researchers can systematically assess the likelihood of off-target effects for potential drug candidates, enabling early identification and mitigation of safety concerns in the drug discovery process.</t>
+  </si>
+  <si>
+    <t>When selecting a delivery method for a new drug, several considerations are taken into account, including:
+1. Target Tissue or Organ: The delivery method should be optimized to ensure that the drug reaches the specific tissue or organ where it is needed. Different delivery methods may be required for systemic delivery, localized delivery, or targeting specific cells or tissues.
+2. Pharmacokinetics and Pharmacodynamics: The drug's properties, such as solubility, stability, and half-life, influence the choice of delivery method. For example, for drugs with poor oral bioavailability, alternative routes of administration such as intravenous, transdermal, or inhalation may be considered.
+3. Patient Acceptance and Compliance: The ease of administration and patient preferences play a critical role in selecting the delivery method. For example, oral administration is generally preferred over injections for chronic treatments due to better patient acceptance and compliance.
+4. Drug Properties: The physicochemical properties of the drug, such as molecular weight, hydrophobicity, and chemical stability, influence the selection of delivery methods. For instance, large molecules may require alternative delivery methods such as nanoparticles or lipid-based carriers for effective delivery.
+5. Safety and Tolerability: The delivery method should be safe and well-tolerated by patients. Considerations related to potential adverse effects, local tissue irritation, and systemic toxicity are important in the selection of delivery methods.
+6. Regulatory Considerations: Regulatory requirements and guidelines may influence the choice of delivery method, especially in terms of approval process, manufacturing, and quality control.
+7. Cost and Scalability: The cost of production, scalability of the delivery method, and potential for commercialization are important considerations in selecting the optimal delivery method for a new drug.
+Overall, the selection of a delivery method for a new drug requires a comprehensive assessment of biological, chemical, pharmaceutical, and clinical factors to ensure effective and safe delivery to the target site.</t>
+  </si>
+  <si>
+    <t>One approach for screening for synergistic effects between drug candidates is to use a combination screening assay. This involves testing multiple combinations of drug candidates in various concentrations to determine if their combined effects are greater than the sum of their individual effects.
+To carry out this strategy, you might consider the following steps:
+1. Selection of Drug Candidates: Choose the drug candidates that are known to target different pathways or mechanisms of action. This increases the likelihood of identifying synergistic effects, as drugs acting on different targets are more likely to have complementary effects.
+2. Dose-response Curves: Generate dose-response curves for each drug candidate individually to determine their individual efficacies and establish the range of concentrations where they exhibit their effects.
+3. Combination Screening: Test combinations of the drug candidates at different concentrations using an appropriate screening assay, such as a cell viability assay or a reporter gene assay. This will allow you to assess the combined effects of the drugs and identify potential synergistic interactions.
+4. Data Analysis: Analyze the data to identify combinations that exhibit synergistic effects. Synergy can be assessed using various mathematical models, such as the Loewe additivity model or the Bliss independence model. These models allow for quantification of synergy and can help identify the most promising drug combinations.
+5. Mechanistic Studies: Once potential synergistic combinations are identified, further studies can be conducted to elucidate the mechanistic basis of the synergistic effects. This may involve understanding the interactions between the drugs at a molecular level, as well as their impact on cellular pathways.
+By employing these steps, you can systematically screen for synergistic effects between drug candidates and identify promising combinations for further development in the drug discovery process.</t>
+  </si>
+  <si>
+    <t>Identifying specific mutations in the PAS domain of a target protein that exhibit high selectivity for prostate cancer cell lines would require a detailed analysis of the protein's structure and function, as well as comprehensive experimental validation. This is a complex and highly specialized research question that would typically involve techniques such as computational modeling, molecular dynamics simulations, mutagenesis studies, and high-throughput screening.
+To address this question, a comprehensive understanding of the protein's interaction with cellular pathways and signaling networks specific to prostate cancer would be essential. Additionally, a thorough review of existing literature on the PAS domain mutations and their effects on cancer cell lines, particularly prostate cancer, would be crucial.
+It's important to note that this type of investigation would likely involve a multidisciplinary approach, integrating computational biology, structural biology, cancer biology, and drug discovery expertise. Such a study would require significant resources and expertise to execute effectively.</t>
+  </si>
+  <si>
+    <t>Several structural variants in the BRCA1 and BRCA2 genes have been found to affect their interaction with paralogs. For example, in BRCA1, certain missense mutations within the BRCT domain have been shown to disrupt the interaction with the BRCA1-associated RING domain 1 (BARD1) protein, which is a paralog of BRCA1. Additionally, certain large deletions or duplications within the BRCA1 and BRCA2 genes can also disrupt their interaction with paralogs, leading to functional consequences in DNA repair and cell cycle regulation. These structural variants can have implications for cancer risk and response to targeted therapies. Understanding the impact of these variants on protein-protein interactions is crucial for predicting their functional consequences and developing precision medicine approaches for patients with these variants.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I do not have direct access to specific databases such as NCBI GEO to retrieve data based on a specific GEO ID. However, in general, gene set enrichment analysis (GSEA) can be used to compare the gene expression profiles in different tissues or conditions. If you have specific gene expression data from GSE249645, you can use GSEA tools to analyze the data and identify tissues or conditions with similar gene set enrichment profiles. Tools such as GSEA software, Enrichr, or other bioinformatics platforms can help in this analysis.</t>
+  </si>
+  <si>
+    <t>The enrichment of pathogenic mutations in specific protein domains of a target gene in breast cancer patients can be identified through various approaches in computational biology and genomics.
+One approach involves analyzing publicly available databases such as the Catalog of Somatic Mutations in Cancer (COSMIC), The Cancer Genome Atlas (TCGA), or the International Cancer Genome Consortium (ICGC) to identify the distribution and frequency of mutations within different protein domains of the target gene in breast cancer patients.
+Additionally, bioinformatics tools and databases such as Pfam, InterPro, or PROSITE can be used to annotate protein domains in the target gene and to analyze the enrichment of pathogenic mutations within these domains.
+Furthermore, leveraging machine learning algorithms and statistical methods can provide insights into the prediction of pathogenic mutations within specific protein domains based on the genetic and clinical data of breast cancer patients.
+By integrating these approaches, computational biologists can identify the protein domains of the target gene that are enriched for pathogenic mutations in breast cancer patients, potentially leading to the discovery of novel therapeutic targets and the development of precision medicine approaches.</t>
+  </si>
+  <si>
+    <t>Which cell lines have high dependency for the target of interest for the gene POLR3E?
+Response: The dependency of a specific gene, like POLR3E, can vary across different cell lines. To identify cell lines with high dependency on POLR3E, you can analyze data from large-scale CRISPR knockout or RNA interference (RNAi) screens, such as those from the Cancer Dependency Map (DepMap) project.
+These databases provide information on gene essentiality across hundreds of cell lines, allowing you to identify cell lines with high dependency on POLR3E. You can use tools such as the DepMap portal to access these data and search for cell lines with significant dependency on POLR3E.
+Consider consulting with bioinformatics specialists or computational biologists who have experience in analyzing large-scale genomic datasets to perform this analysis effectively.
+Change in circumstances: Consistency Verification - Due to inconsistencies found in integrated datasets
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which indications are the dependent cell lines for the gene POLR3E enriched in? Are there lineages with high selectivity?
+Response: The gene POLR3E encodes for one of the subunits of RNA polymerase III, which is involved in the transcription of various small noncoding RNAs. The expression and function of POLR3E may vary across different cell lines and tissues. While there is no direct information available on the dependent cell lines for POLR3E, its enriched expression can provide insights into potential indications and lineages with high selectivity.
+To determine the indications and lineages with high selectivity for POLR3E, you may want to examine gene expression data from diverse cell lines and tissues using resources such as the Genotype-Tissue Expression (GTEx) project, Cancer Cell Line Encyclopedia (CCLE), Human Protein Atlas, and other publicly available databases.
+By analyzing the expression profiles of POLR3E across different cell types and conditions, you can identify specific indications and lineages where this gene is significantly enriched. This information can be valuable for understanding the potential roles of POLR3E in specific biological processes, disease conditions, and drug targeting strategies. Additionally, combining this analysis with functional studies and pathway analysis can provide further insights into the implications of POLR3E enrichment in particular cell types and disease contexts.
+Change in circumstances: Equipment Downtime - Considering the impact of equipment downtime
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Is there a concordance in the variant profile seen in cell lines with that of patients for the gene POLR3E?
+Response: There is evidence demonstrating a concordance in the variant profile of cell lines and patient samples for the gene POLR3E. POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of small non-coding RNAs. Variants in this gene have been associated with different diseases, including hypomyelinating leukodystrophy and other neurological disorders. Studies have shown that certain variants identified in patient samples are also present in corresponding cell line models, which supports their utility for investigating disease mechanisms and testing potential drug treatments. This concordance can be valuable for drug discovery efforts, as it allows for the validation of potential therapeutic targets and the screening of drug candidates using relevant cell line models.
+Change in circumstances: Budget Cuts - In the context of reduced funding availability
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Describe associations between expression and variant profiles for the gene POLR3E.
+Response: The gene POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of various small non-coding RNAs. To study the associations between expression and variant profiles for the POLR3E gene, we can leverage various genomic and bioinformatic tools and databases.
+1. Expression Profiles:
+We can first analyze the expression profiles of POLR3E in different tissues and cell types using RNA sequencing data from large-scale projects such as the Genotype-Tissue Expression (GTEx) project or the Human Protein Atlas. This can help us understand the baseline expression levels of POLR3E and identify any tissue-specific expression patterns.
+2. Variant Profiles:
+Next, we can investigate the variant profiles of POLR3E by examining genetic variation data from population-level studies such as the 1000 Genomes Project or the Exome Aggregation Consortium (ExAC). This can involve identifying single nucleotide polymorphisms (SNPs), insertions/deletions, and other genetic variants within and around the POLR3E gene.
+3. Integrative Analysis:
+To explore the associations between expression and variant profiles, we can perform integrative analysis by correlating the genetic variants with gene expression levels. This can be achieved using expression quantitative trait loci (eQTL) analysis, where we identify genetic variants that are significantly associated with the expression levels of POLR3E. Tools such as the GTEx portal or QTLtools can be utilized for this purpose.
+4. Functional Impact Assessment:
+Furthermore, we can predict the potential functional impact of genetic variants on POLR3E using bioinformatics tools such as SIFT, PolyPhen, or MutationTaster. This can help us prioritize genetic variants that are likely to influence the expression or function of POLR3E.
+By integrating expression and variant profiles, we can gain insights into the regulatory mechanisms and genetic determinants that influence the expression of the POLR3E gene. This knowledge is valuable for understanding the role of POLR3E in health and disease, and for identifying potential therapeutic targets or biomarkers.
+Change in circumstances: Trend Adaptation - Due to shifting market trends
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Have cell lines been used in other studies for the target of interest of the gene POLR3E? If experimental data is available on NCBI GEO, provide those links or analysis within the platform.
+Response: I'm sorry, but I currently do not have direct access to the latest experimental data available on NCBI GEO or other specific databases. However, I would suggest searching for the gene POLR3E in the NCBI GEO database website. You can use the gene symbol "POLR3E" as a keyword for searching, and you may find relevant studies that have used cell lines for the target of interest. If you need any assistance in interpreting the data or performing any specific analysis, feel free to ask for guidance.
+Change in circumstances: Team Rebuild - Considering the team structure post-key personnel changes
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>For the gene POLR3E, identify indications with significant differential expression in cancer vs normal tissue. Is it overexpressed or underexpressed in tumor tissue?
+Response: The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing small non-coding RNAs. To identify indications with significant differential expression in cancer vs normal tissue for the POLR3E gene, we can utilize bioinformatics tools and databases such as TCGA, GTEx, Oncomine, and GEO to analyze gene expression data across different cancer types.
+After conducting a thorough analysis, I have found that POLR3E is overexpressed in various types of cancer compared to normal tissue. Specifically, significant differential expression of POLR3E has been observed in multiple cancer types including breast cancer, lung cancer, ovarian cancer, and others.
+As for indications associated with differential expression, POLR3E overexpression has been implicated in cancer progression, metastasis, and drug resistance. Additionally, studies have linked POLR3E overexpression with poor patient prognosis in certain cancer types.
+It is important to note that gene expression patterns can vary across different cancer types and subtypes, so further investigation into specific indications of interest is recommended.
+Change in circumstances: New Directives - Due to top-down changes in strategic goals
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Describe the variant profile of tissues where there is significant differential expression for the gene POLR3E. Include details on copy number variations, mutations, etc.
+Response: The variant profile of tissues with significant differential expression for the gene POLR3E typically involves diverse alterations such as copy number variations (CNVs), mutations, and other genetic changes. 
+1. Copy Number Variations (CNVs): Tissues with differential expression of POLR3E may exhibit CNVs in the form of amplifications or deletions of the gene. These CNVs can lead to changes in the expression levels of POLR3E. For instance, amplifications can result in increased expression, while deletions can lead to reduced expression.
+2. Mutations: The variant profile may also include various types of mutations in the POLR3E gene, such as single nucleotide variants (SNVs), insertions, deletions, and structural variants. These mutations can affect the function of POLR3E and its expression levels. Additionally, mutations in regulatory regions or epigenetic changes can also impact the expression of POLR3E.
+3. Epigenetic Modifications: Differential expression of POLR3E can also be influenced by epigenetic modifications, such as DNA methylation or histone modifications, which can alter the accessibility of the gene to the transcriptional machinery.
+4. Regulatory Variants: Variants in the regulatory elements, such as promoters and enhancers, can also contribute to the differential expression of POLR3E across different tissues.
+Overall, the variant profile of tissues with significant differential expression for the gene POLR3E is likely to encompass a combination of CNVs, mutations, regulatory variants, and epigenetic modifications that collectively influence the expression levels of this gene in a tissue-specific manner. Understanding these variant profiles can provide insights into the regulatory mechanisms and potential therapeutic targets related to POLR3E expression in different tissues.
+Change in circumstances: New Directives - Due to top-down changes in strategic goals
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Are there specific regions of the protein of the gene POLR3E where mutations occur at a higher frequency?
+Response: POLR3E is a gene that codes for an RNA polymerase subunit. Mutations in this gene can lead to POLR3-related leukodystrophy, a rare genetic disorder affecting the white matter of the brain. 
+In terms of mutation hotspots within the POLR3E protein, there is no widely reported specific region with a significantly higher frequency of mutations. However, mutations can be distributed across the entire protein. To identify specific regions of increased mutation frequency, one would need to analyze large-scale genomic sequencing data from patients with POLR3E-related disorders. This type of analysis could help identify potential functional domains or critical amino acid residues within the protein that are more prone to mutation and might be important for its function.
+Understanding the specific locations and types of mutations in POLR3E can provide insights into the molecular mechanisms of the associated disease and potentially guide the development of targeted therapies.
+Change in circumstances: Risk Containment - Due to predictive model warnings of elevated risk
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>For the gene POLR3E, determine how many of the mutations are pathogenic.
+Response: I don't have access to specific databases or the ability to retrieve real-time data on the pathogenic mutations for the gene POLR3E. However, you can consult publicly available resources such as ClinVar, COSMIC, or the Human Gene Mutation Database (HGMD) to obtain information about known mutations in POLR3E and their pathogenicity. Additionally, you may consider reaching out to a genetic counselor or a professional with expertise in clinical genetics for assistance with interpreting the pathogenicity of mutations in this gene.
+Change in circumstances: Supply Chain Resilience - Due to supply chain disruptions
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Are pathogenicity scores of mutations or copy number profiles associated with cancer progression and survival for the gene POLR3E?
+Response: In-depth information about the specific association of pathogenicity scores of mutations or copy number profiles with cancer progression and survival for the gene POLR3E requires a detailed analysis of available genomic and clinical data. However, as a computational biologist and genomics expert, I can guide you through the process of investigating this. 
+1. Mutation Pathogenicity Scores: You can start by using bioinformatics tools and databases such as SIFT, PolyPhen, and CADD to assess the pathogenicity scores of mutations in the POLR3E gene. These tools predict the potential impact of mutations on protein function and can provide insights into their potential relevance to cancer progression.
+2. Copy Number Profiles: Analyzing copy number profiles associated with the POLR3E gene in cancer datasets (such as TCGA) can be valuable. This involves examining copy number alterations, amplifications, or deletions in relation to clinical outcomes and survival data for different types of cancer.
+3. Integrative Analysis: Integrating mutation pathogenicity scores and copy number profiles with clinical data, such as patient survival and disease progression, could provide a comprehensive understanding of the potential role of POLR3E in cancer.
+It's essential to use bioinformatics and statistical tools to perform these analyses and interpret the results. Additionally, consulting the relevant literature and collaborating with experts in the field can enhance the understanding of the clinical implications of these genomic alterations in cancer.
+Change in circumstances: Process Refinement - In the context of operational efficiency
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Identify any therapeutic areas or platforms in focus for the gene POLR3E.
+Response: The gene POLR3E encodes an essential subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs such as transfer RNAs (tRNAs) and 5S ribosomal RNA. Mutations in POLR3E have been associated with a rare genetic disorder called hypomyelinating leukodystrophy, and POLR3E dysfunction has also been linked to neurodegenerative disorders.
+Therapeutic areas and platforms in focus for targeting POLR3E-related conditions may include:
+1. Gene therapy: Developing gene therapy approaches to correct or replace the mutated POLR3E gene in patients with hypomyelinating leukodystrophy or other related conditions.
+2. Small molecule modulation: Investigating small molecule compounds that can modulate the activity of POLR3E to potentially restore normal function or mitigate the effects of dysfunctional POLR3E.
+3. RNA-targeted therapies: Exploring RNA-targeted therapies, such as antisense oligonucleotides or RNA interference, to regulate the expression or function of POLR3E and related transcripts.
+4. Neuroprotective strategies: Developing neuroprotective agents that can support myelination and protect against neurodegeneration in conditions associated with POLR3E dysfunction.
+These are just a few examples of the therapeutic areas and platforms that may be of interest for targeting the gene POLR3E. As research in this field continues to advance, new opportunities for therapeutic intervention may emerge.
+Change in circumstances: Skill Gap Bridge - In the context of bridging the skill gap
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>List molecules in clinical trials for the gene POLR3E, detailing the pharmaceutical companies involved and the latest status of these trials.
+Response: I'm afraid I cannot provide the latest clinical trial data or specific details on pharmaceutical companies related to POLR3E gene and its associated drug trials. Access to such information is highly regulated and constantly updated, making it difficult to guarantee accuracy. I recommend reaching out to trusted medical databases, clinical trial registries, or speaking with a qualified medical professional for the most recent and reliable information on clinical trials and drug development for POLR3E gene.
+Change in circumstances: Funding Adaptability - In the context of adjusted funding levels
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which indications have drugs already in the market for the gene POLR3E?
+Response: As of my last knowledge update, there are no drugs explicitly indicated for the gene POLR3E. POLR3E is a subunit of RNA polymerase III, an enzyme involved in the transcription of various small nuclear RNAs and some small nucleolar RNAs. Research on drugs targeting POLR3E-related conditions may still be ongoing, and it's always good to consult with a healthcare professional or a current database for the most up-to-date information on drug indications.
+Change in circumstances: Supply Chain Resilience - Due to supply chain disruptions
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Are there any first in class opportunities for the gene POLR3E?
+Response: The gene POLR3E encodes for the RPC5 subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs. As of now, there are no known first-in-class drugs targeting POLR3E specifically. However, targeting RNA polymerase machinery is an active area of research in the development of new therapeutic agents for various diseases, including cancers and genetic disorders. Given the critical role of RNA polymerase III in cellular processes, there may be opportunities for drug discovery targeting this gene in the future. Understanding the genetic and molecular pathways associated with POLR3E may uncover potential targets for drug development.
+Change in circumstances: Compliance Recheck - In the context of the latest compliance guidelines
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>How do you determine which genes or proteins to target for a new therapeutic?
+Response: Identifying which genes or proteins to target for a new therapeutic typically involves a combination of approaches, including understanding the underlying biology of the disease, conducting high-throughput screening assays, utilizing bioinformatics and computational biology techniques, and leveraging existing knowledge of pathways and networks involved in the disease.
+First, the biology of the disease must be thoroughly understood. This involves studying the molecular and cellular mechanisms underlying the disease, as well as identifying key genes, proteins, and pathways involved in its development and progression.
+Next, high-throughput screening assays can be used to identify potential drug targets. These assays can involve testing large libraries of compounds or molecules to see if they have an effect on the activity of specific proteins or pathways associated with the disease.
+Bioinformatics and computational biology techniques can also be employed to analyze large-scale genomic, transcriptomic, and proteomic data to identify potential drug targets. This can involve identifying genes or proteins that are differentially expressed in diseased versus healthy tissues, or using network-based approaches to identify key nodes in disease-associated pathways.
+Additionally, existing knowledge of pathways and networks involved in the disease can be leveraged to identify potential drug targets. This may involve targeting proteins known to be involved in disease-associated pathways, or identifying key nodes in protein-protein interaction networks associated with the disease.
+Overall, a combination of experimental and computational approaches is typically used to identify potential genes or proteins to target for a new therapeutic, with the goal of modulating the underlying disease biology in a way that leads to therapeutic benefit.
+Change in circumstances: Data Reliability Check - In the context of data integrity verification
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>What methods can be used to validate a potential biomarker for a specific disease?
+Response: There are several methods that can be used to validate a potential biomarker for a specific disease. These may include:
+1. Clinical studies: Conducting various types of clinical studies, such as case-control studies, cohort studies, or randomized controlled trials, to assess the association of the biomarker with the disease of interest.
+2. Assay development and validation: Developing and validating a robust and reliable assay for the detection and quantification of the biomarker in biological samples, such as blood, urine, or tissue.
+3. Replication studies: Replicating the findings from initial discovery studies in independent cohorts or populations to determine the consistency and reproducibility of the biomarker's association with the disease.
+4. Functional validation: Investigating the biological function of the biomarker and its role in disease pathogenesis using in vitro or in vivo experimental models.
+5. Longitudinal studies: Conducting longitudinal studies to evaluate the predictive value of the biomarker for disease progression, prognosis, or treatment response over time.
+6. Meta-analysis: Pooling and analyzing data from multiple studies to provide a more comprehensive assessment of the biomarker's performance across different populations and study designs.
+7. Regulatory approval: Obtaining regulatory approval for the biomarker as a diagnostic, prognostic, or predictive tool for the specific disease, which may involve submission to regulatory agencies such as the FDA or EMA.
+By employing these methods, researchers can systematically evaluate and validate the utility of a potential biomarker for a specific disease, paving the way for its clinical application in patient care and drug development.
+Change in circumstances: Safety Reassessment - In the context of project safety reassessment
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Explain how pathway analysis can be integrated into drug discovery.
+Response: Pathway analysis plays a crucial role in drug discovery by providing insights into the underlying biological mechanisms and pathways involved in disease processes. By integrating pathway analysis into the drug discovery process, researchers can identify potential drug targets, understand the molecular pathways affected by disease, and prioritize candidate drugs for further development. Here are some ways in which pathway analysis can be integrated into drug discovery:
+1. Target Identification: Pathway analysis can help identify key molecular pathways that are dysregulated in a specific disease. By analyzing gene expression data or omics data (such as genomics, proteomics, or metabolomics), researchers can pinpoint potential drug targets within these pathways.
+2. Mechanism of Action: Understanding the molecular pathways involved in disease can provide insights into the mechanisms driving the pathology. Pathway analysis can help elucidate how drugs may modulate these pathways and provide a rationale for their therapeutic effects.
+3. Drug Repurposing: Pathway analysis can uncover potential connections between drugs and specific pathways, allowing researchers to identify existing drugs that may have unexplored therapeutic potential for different diseases.
+4. Biomarker Discovery: Pathway analysis can aid in the identification of biomarkers associated with disease progression or drug response. These biomarkers can be used for patient stratification in clinical trials or for monitoring treatment efficacy.
+5. Prioritization of Drug Candidates: Integrating pathway analysis with drug discovery efforts can help prioritize potential drug candidates based on their ability to modulate relevant pathways implicated in the disease.
+In summary, pathway analysis provides a powerful framework for understanding the complex molecular interactions underlying diseases and for informing drug discovery efforts. By leveraging this approach, researchers can make more informed decisions in prioritizing targets, identifying potential drug candidates, and understanding the mechanisms of action of novel therapies.
+Change in circumstances: Software Reliability - In the context of maintaining software reliability
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>How does phenotypic screening complement genotypic screening in drug discovery?
+Response: Phenotypic screening and genotypic screening are two complementary approaches in drug discovery and development. Genotypic screening involves identifying potential drug targets based on genetic or genomic information, such as gene mutations or overexpression in disease-related pathways. On the other hand, phenotypic screening involves testing a large number of compounds for their ability to elicit a specific cellular or tissue response, without necessarily knowing the target or mechanism of action.
+Here's how they complement each other:
+1. Target identification and validation: Genotypic screening can help identify potential drug targets, but phenotypic screening can help validate these targets by identifying compounds that modulate the desired cellular phenotype, providing evidence of the relevance of the target in the disease process.
+2. Broad applicability: Phenotypic screening can lead to the identification of new drug targets or pathways that may not have been predicted based on genotypic information alone, providing a broader and more unbiased approach to drug discovery.
+3. Mechanism of action elucidation: Phenotypic screening can lead to the identification of compounds with desired effects, and subsequent genotypic screening can help elucidate their mechanisms of action by identifying their molecular targets or pathways.
+4. Addressing complex diseases: Phenotypic screening can be particularly useful in identifying compounds for complex diseases where the underlying genetic and molecular mechanisms are not fully understood, or where multiple pathways may be involved.
+In conclusion, while genotypic screening provides valuable insights into potential drug targets, phenotypic screening allows for the identification of compounds with desirable effects on cellular or tissue function, and the two approaches can be used in conjunction to enhance the drug discovery process.
+Change in circumstances: Regulation Update - Considering the need to meet new regulatory standards
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>What are the main challenges in translating in vitro findings to in vivo models?
+Response: Translating in vitro findings to in vivo models presents several challenges in drug discovery and development:
+1. Complexity of biological systems: In vivo models are more complex than in vitro systems, as they involve interactions between multiple cell types, tissues, and organs. Therefore, the effects observed in an in vitro model may not fully represent what happens in a living organism.
+2. Pharmacokinetics and pharmacodynamics: In vivo models need to consider the absorption, distribution, metabolism, and excretion of the drug (pharmacokinetics) as well as the drug's effects on the body (pharmacodynamics). In vitro models may not capture these aspects accurately.
+3. Species differences: In vitro models are often based on human cells, while in vivo models may involve animal models. Species differences can impact drug metabolism, toxicity, and efficacy, making it challenging to directly translate findings from in vitro studies to in vivo settings.
+4. Experimental variability: In vitro experiments can be tightly controlled, but in vivo experiments are subject to greater variability due to factors such as genetics, environment, and individual variation among the test subjects.
+5. Ethical and practical considerations: In vivo studies raise ethical considerations related to the use of animal models, and these models may also be more costly and time-consuming to work with compared to in vitro systems.
+To address these challenges, researchers may employ a range of techniques, including utilizing multiple complementary in vitro models, incorporating human-relevant cell types and 3D culture systems into in vitro studies, optimizing experimental designs, and leveraging computational models to bridge the gap between in vitro and in vivo findings. Similarly, advancements in technologies such as microfluidics and organ-on-a-chip systems are helping to better mimic in vivo conditions in vitro, thereby improving the translatability of findings.
+Change in circumstances: Team Rebuild - Considering the team structure post-key personnel changes
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Discuss how structural biology can aid in the design of a new drug.
+Response: Structural biology plays a crucial role in the design of new drugs by providing detailed insights into the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids. Here's how it aids in the drug design process:
+1. Understanding the Target: Structural biology techniques, such as X-ray crystallography, nuclear magnetic resonance (NMR) spectroscopy, and cryo-electron microscopy, can be used to determine the three-dimensional structure of a target protein involved in a disease, such as an enzyme or receptor. This information helps in understanding the target's function, active site, and binding pockets, which are essential for designing drugs that can modulate its activity.
+2. Rational Drug Design: Once the structure of the target protein is known, computational methods can be used to design small molecule drug candidates that specifically interact with the target protein, either by inhibiting or enhancing its activity. Structure-based drug design (SBDD) involves using the structural information to rationally design molecules that fit into the binding site of the target protein, leading to the development of more potent and selective drugs.
+3. Virtual Screening: Structural information can guide virtual screening efforts, where large libraries of chemical compounds are computationally screened to identify potential drug candidates that can bind to the target protein. By considering the structural features of the target protein, virtual screening can narrow down the search space for potential drug candidates, saving time and resources in the drug discovery process.
+4. Understanding Drug-Target Interactions: Structural biology also helps in understanding the molecular interactions between drug candidates and their target proteins at an atomic level. This knowledge is crucial for optimizing the drug's potency, selectivity, and pharmacokinetic properties, leading to the development of more effective and safer drugs.
+5. Overcoming Drug Resistance: By elucidating the structural basis of drug resistance in pathogens or cancer cells, structural biology can aid in the design of new drugs or drug combinations that can overcome resistance mechanisms, improving the efficacy of treatments.
+In summary, structural biology is integral to the drug discovery process, providing valuable insights into the molecular basis of disease and enabling the rational design of new drugs with improved potency, selectivity, and therapeutic potential.
+Change in circumstances: Misinformation Correction - Considering the detected data inaccuracies
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Provide a summary of the gene POLR3E, including its functions, mechanisms, and classifications. 
+Response: The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing a variety of small non-coding RNAs. These include transfer RNAs (tRNAs), small ribosomal RNAs (sRNAs), and other small regulatory RNAs. The POLR3E protein is a part of the RNA polymerase III complex and is involved in the initiation and termination of RNA transcription.
+Functionally, POLR3E plays a crucial role in the accurate transcription of these small RNAs, which are essential for protein synthesis and other cellular processes. Defects in POLR3E can lead to disruption of normal RNA transcription, which can contribute to various developmental and neurological disorders.
+POLR3E is classified as a protein-coding gene, specifically as a subunit of RNA polymerase III, and its dysfunction can lead to a range of molecular and cellular consequences. Studying POLR3E and its associated pathways is important for understanding gene expression regulation and for potential therapeutic interventions, particularly in the context of developmental disorders and neurodegenerative diseases.
+Change in circumstances: Data Reliability Check - In the context of data integrity verification
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Summarize the direct or indirect role of the gene POLR3E in cancer, detailing its mechanisms and interactions with other genes.
+Response: POLR3E encodes a subunit of RNA polymerase III, which transcribes small non-coding RNAs. In cancer, dysregulation of POLR3E has been linked to various pathways. Some studies suggest that POLR3E mutations can lead to impaired transcription of non-coding RNAs, contributing to cancer progression. Additionally, POLR3E mutations have been associated with altered expression of genes involved in cell growth, differentiation, and apoptosis, thereby influencing cancer development. Interactions between POLR3E and other genes are likely in pathways related to RNA transcription and regulation. Further research is needed to fully understand the specific mechanisms and interactions involved in POLR3E's role in cancer.
+Change in circumstances: Safety Reassessment - In the context of project safety reassessment
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Determine if the gene POLR3E is an oncogene
+Response: POLR3E is a subunit of RNA polymerase III, which is an enzyme involved in the transcription of small non-coding RNAs. To determine if the gene POLR3E is an oncogene, we typically look at experimental evidence from cell and animal models, as well as clinical data from cancer patients.
+Currently, there is limited evidence to suggest that POLR3E is an oncogene. Based on existing studies and databases such as COSMIC and TCGA, POLR3E mutations or dysregulation are not commonly associated with cancer development.
+However, it's important to note that our understanding of oncogenes is constantly evolving, and new research may uncover previously unknown roles for genes in cancer. Therefore, ongoing research in the field of cancer genomics and functional studies will continue to provide more insights into the potential oncogenic properties of POLR3E.
+Change in circumstances: Emergency Response - Considering the initiation of emergency protocols
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Identify the cancer indications or types that the gene POLR3E has been associated with.
+Response: The gene POLR3E, which encodes a subunit of RNA polymerase III, has been associated with several cancer indications or types. Research has linked POLR3E to various cancers, including but not limited to breast cancer, ovarian cancer, and colorectal cancer. Aberrant expression or mutations in POLR3E may contribute to the development and progression of these cancers. Additionally, POLR3E has been implicated in other cancer types, and ongoing research may continue to uncover its role in different cancer indications.
+Change in circumstances: Funding Adaptability - In the context of adjusted funding levels
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Provide relevant networks from any relevant database for the known mechanism and interactions of the gene POLR3E.
+Response: There are multiple databases where you can obtain relevant networks for the gene POLR3E. Some of the popular databases include STRING, GeneMANIA, and BioGRID. These databases provide protein-protein interaction networks, gene co-expression networks, and other functional association networks that can help you understand the mechanism and interactions of the POLR3E gene.
+In these networks, POLR3E would be connected to other genes or proteins based on experimental evidence, computational predictions, co-expression patterns, and other types of functional associations. These networks can provide valuable insights into the roles and interactions of POLR3E within cellular pathways and biological processes.
+I can also help you in analyzing and interpreting the networks obtained from these databases if you need assistance in understanding the biological implications of the interactions of POLR3E.
+Change in circumstances: Workflow Optimization - Due to the opportunity for workflow optimization
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>List key publications related to the gene POLR3E, providing links where available.
+Response: Here are a few key publications related to the gene POLR3E:
+1. "Mutations in POLR3A and POLR3B are a major cause of hypomyelinating leukodystrophies with or without dental abnormalities and/or hypogonadotropic hypogonadism." Huang Y et al. J Med Genet. 2019. [PubMed](https://pubmed.ncbi.nlm.nih.gov/30796115/)
+2. "Hypomyelinating leukodystrophy-associated POLR3A and POLR3B mutations reduce RNA polymerase III activity." Saitsu H et al. Human mutation. 2011. [PubMed](https://pubmed.ncbi.nlm.nih.gov/21896127/)
+3. "RNA polymerase III and its associated factors." Dumay-Odelot H et al. BAG J. 2010. [PubMed](https://pubmed.ncbi.nlm.nih.gov/20844618/)
+These publications provide valuable insights into the role of POLR3E gene mutations in hypomyelinating leukodystrophies and related conditions.
+Change in circumstances: Legal Shift - Due to new legal precedents affecting our procedures
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Give me a list of pseudokinase genes 
+Response: Here are some well-known pseudokinase genes:
+1. Pseudoephedrine Kinase (PSEK)
+2. Serine/Threonine-Protein Pseudo Kinase (STPK)
+3. Pseudokinase 3 (PSDK3)
+4. Mitogen-activated Pseudo Kinase 1 (MAPK1)
+5. Pseudokinase Kinase 2 (PSKK2)
+Pseudokinases are proteins that structurally resemble kinases but lack catalytic activity. They have important functions in signaling pathways and cellular processes despite their lack of kinase activity. If you need further details about specific pseudokinases or additional pseudokinase genes, feel free to ask!
+Change in circumstances: Emergency Response - Considering the initiation of emergency protocols
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Propose a strategy to use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease
+Response: To use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease, the first step would be to identify the specific gene or genes associated with the disease. One of the genes frequently implicated in Alzheimer's disease is the gene encoding the amyloid precursor protein (APP).
+Once the target gene has been identified, the next step would be to design a guide RNA (gRNA) that is complementary to the DNA sequence within the gene that we want to modify. The gRNA will guide the Cas9 enzyme to the correct location in the genome.
+The delivery of CRISPR-Cas9 components to the targeted cells is a crucial aspect. Depending on the context, this could involve using viral vectors, nanoparticles, or other delivery methods to ensure that the CRISPR-Cas9 components reach the desired brain cells efficiently and effectively.
+After the CRISPR-Cas9 components have been delivered to the cells, the Cas9 enzyme will create a double-strand break at the targeted location within the gene. This break will activate the cell's natural DNA repair mechanisms, which can be harnessed to introduce specific changes to the gene.
+In the context of Alzheimer's disease, potential strategies for gene editing could include:
+1. Inhibiting the production of amyloid beta peptides by disrupting the cleavage sites within the APP gene.
+2. Correcting disease-associated mutations within the APP gene using CRISPR-Cas9 gene editing to restore normal protein function.
+3. Modifying genes related to neuroinflammation, oxidative stress, or other aspects of Alzheimer's pathology to mitigate disease progression.
+Finally, it is essential to rigorously assess the specificity and off-target effects of CRISPR-Cas9 editing to ensure minimal unintended genetic alterations. This can be achieved through advanced genome sequencing and off-target analysis techniques.
+In summary, using CRISPR-Cas9 for editing genes implicated in Alzheimer's disease holds great potential for developing targeted therapies. However, extensive preclinical and clinical research is necessary to validate the safety and efficacy of this approach before it can be applied in the clinical setting.
+Change in circumstances: Emergency Response - Considering the initiation of emergency protocols
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Develop a series of siRNA sequences to target and knock down a specific oncogene
+Response: Designing siRNA sequences to target and knock down a specific oncogene requires careful consideration of the target gene's mRNA sequence to ensure specific and effective knockdown. Additionally, it's important to consider potential off-target effects and ensure the siRNA sequences are designed for optimal knockdown efficiency.
+Here's a general outline for developing siRNA sequences to target a specific oncogene:
+1. Target Identification: Identify the specific oncogene that you want to target for knockdown. Obtain the mRNA sequence of the oncogene from a reliable sequence database such as NCBI or Ensembl.
+2. Sequence Selection: Use bioinformatics tools or siRNA design software to identify potential siRNA sequences that target the mRNA sequence of the oncogene. Ensure that the selected siRNA sequences have high target specificity and minimal off-target effects. Criteria for selection may include GC content, off-target predictions, and secondary structure analysis.
+3. Off-Target Analysis: Perform off-target analysis to check for potential binding sites of the selected siRNA sequences in other genes. Avoid selecting sequences with significant homology to non-target genes to minimize off-target effects.
+4. siRNA Design: Design the siRNA sequences with the following characteristics:
+   - 19-21 nucleotide length with a 2-nucleotide overhang on the 3' end for improved stability and efficacy.
+   - GC content around 50-55% to optimize duplex stability.
+   - Avoidance of sequences with significant self-complementarity or secondary structure to prevent unintended interactions.
+5. In Silico Validation: Validate the selected siRNA sequences in silico to ensure that they specifically target the oncogene mRNA and do not have significant off-target effects.
+6. Experimental Validation: Once the siRNA sequences are designed and validated in silico, experimental validation should be performed using cell culture models or animal models to confirm their efficacy in knocking down the target oncogene.
+It's important to note that experimental validation is crucial to ensure the effectiveness of the designed siRNA sequences in knocking down the specific oncogene. Additionally, optimizing siRNA delivery methods and assessing potential off-target effects in cellular or animal models is essential for successful knockdown of the oncogene.
+Change in circumstances: Funding Adaptability - In the context of adjusted funding levels
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Design a high-throughput screening (HTS) assay to identify small molecule inhibitors of a novel protein target believed to be involved in cancer cell proliferation
+Response: To design a high-throughput screening (HTS) assay, several steps need to be considered:
+1. Assay Selection: Choose an appropriate assay type based on the target and available resources. For a novel protein target involved in cancer cell proliferation, a biochemical or cell-based assay could be suitable.
+2. Assay Development: Develop the assay by optimizing conditions that ensure robust and reproducible results. For example, for a biochemical assay, it may involve determining the optimal substrate concentration, enzyme concentration, and assay buffer conditions. For a cell-based assay, it may involve optimizing cell density, reagent concentrations, and incubation times.
+3. Library Selection: Choose a diverse and representative compound library for screening. This could include small molecule libraries, natural product libraries, or even fragment libraries.
+4. Screening Conditions: Set up the appropriate screening conditions, including reaction volumes, incubation times, and detection methods. For a biochemical assay, this could involve setting up microplate formats for screening using a spectrophotometric or fluorometric readout. For a cell-based assay, this could involve assay miniaturization and optimization of incubation times to increase throughput.
+5. Data Analysis: Establish a robust data analysis pipeline to effectively process and analyze screening results. This may involve setting up appropriate data analysis software and statistical methods to identify hits.
+Given the complex nature of cancer cell proliferation, a cell-based assay is likely to be more relevant for identifying potential small molecule inhibitors. This assay would involve culturing cancer cells in multi-well plates, treating them with test compounds, and then quantifying cell viability or proliferation using a readout such as a metabolic assay (e.g., MTS or ATP assay) or a high-content imaging system.
+Once the assay is established, it can be used to screen large compound libraries to identify potential small molecule inhibitors of the novel protein target. Hits from the primary screening can then be validated through secondary assays to confirm specificity and activity.
+As an exceptional computational biologist and genomics expert, you have the expertise to design, optimize, and implement high-throughput screening assays to identify small molecule inhibitors for novel cancer targets.
+Change in circumstances: Funding Adaptability - In the context of adjusted funding levels
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Propose a strategy for developing an antibody-drug conjugate targeting a specific antigen overexpressed in a type of breast cancer
+Response: Developing an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer requires a comprehensive approach that includes target selection, antibody development, linker-payload design, and preclinical/clinical validation. Here's a proposed strategy for this:
+1. Target Selection:
+   - Identify the specific antigen that is overexpressed in the type of breast cancer of interest. This can be done through genomic, transcriptomic, and proteomic analysis of patient samples. Candidate antigens should be associated with cancer cell proliferation, survival, and metastasis.
+   - Validate the therapeutic potential of the selected antigen using in vitro and in vivo models to ensure that targeting this antigen will lead to a meaningful therapeutic effect.
+2. Antibody Development:
+   - Generate monoclonal antibodies against the selected antigen using hybridoma technology, phage display, or other antibody discovery platforms.
+   - Screen and characterize candidate antibodies for specificity, binding affinity, internalization, and minimal off-target effects.
+   - Optimize the lead antibody's properties for ADC development, including humanization to reduce immunogenicity and engineering for stable conjugation with a linker-payload.
+3. Linker-Payload Design:
+   - Select an appropriate linker-payload system that allows for efficient conjugation to the antibody, stability in circulation, and release of the cytotoxic payload in the target cancer cells.
+   - Consider the payload's mechanism of action, potency, and selectivity to ensure its efficacy against the antigen-expressing cancer cells.
+4. Preclinical Validation:
+   - Assess the in vitro cytotoxicity and specificity of the ADC against breast cancer cell lines overexpressing the target antigen.
+   - Evaluate the in vivo efficacy of the ADC in xenograft models using patient-derived tumor xenografts (PDX) or genetically engineered mouse models (GEMM) that recapitulate the relevant features of the disease.
+5. Clinical Translation:
+   - Initiate clinical trials to evaluate the safety, pharmacokinetics, pharmacodynamics, and efficacy of the ADC in patients with the specific type of breast cancer.
+   - Stratify patient populations based on the level of antigen expression to identify subgroups most likely to benefit from the treatment.
+   - Consider combination therapy with standard-of-care treatments to enhance the therapeutic outcome.
+Throughout the development process, it's crucial to continually assess the pharmacokinetic properties, conjugation stability, and safety profile of the ADC while optimizing its efficacy against the target antigen-expressing breast cancer cells. Additionally, leveraging cutting-edge genomics and computational tools can aid in patient stratification, biomarker discovery, and rational design for improved clinical outcomes.
+Change in circumstances: Tech Adaptation - Due to breakthrough technology integration
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Outline a pharmacokinetic study design for a new oral antidiabetic drug
+Response: Sure, a pharmacokinetic study for a new oral antidiabetic drug would aim to assess how the drug is absorbed, distributed, metabolized, and excreted by the body. The study design would typically involve the following key elements:
+1. Study Population: It's important to include a representative sample of the target population for the antidiabetic drug, such as individuals with type 2 diabetes. The study may exclude individuals with significant comorbidities or those taking medications that could interfere with the drug's pharmacokinetics.
+2. Dose Selection: Determine the dose levels to be tested based on preclinical data and safety considerations. Typically, multiple dose levels are evaluated to establish the drug's pharmacokinetic profile across a range of concentrations.
+3. Study Design: A randomized, crossover study design may be used, where each participant receives all dose levels of the drug in a randomized sequence, with a washout period between doses to eliminate any residual effects of the previous dose. Alternatively, a parallel-group design may be considered for practical or ethical reasons.
+4. Sample Collection: Blood samples should be collected at specific time points following drug administration to capture the drug's concentration over time. Additional samples for assessing metabolites or other pharmacokinetic parameters may also be collected.
+5. Analytical Methods: Ensure that sensitive and specific analytical methods are in place to accurately measure the drug and its metabolites in biological samples. This may involve the use of techniques such as liquid chromatography-mass spectrometry (LC-MS) or enzyme-linked immunosorbent assays (ELISA).
+6. Pharmacokinetic Parameters: The following parameters should be calculated from the drug concentration-time data, including but not limited to, maximum concentration (Cmax), time to reach Cmax (Tmax), area under the concentration-time curve (AUC), half-life, and clearance.
+7. Statistical Analysis: Statistical analysis of the pharmacokinetic data will be essential to compare the pharmacokinetic parameters between different dose levels and assess factors influencing drug absorption, distribution, metabolism, and excretion.
+8. Safety Monitoring: Monitor participants for adverse events and assess safety parameters such as vital signs, ECG, and laboratory tests to ensure the drug is well-tolerated.
+9. Data Interpretation: The pharmacokinetic data should be interpreted in the context of the drug's therapeutic target and efficacy. Understanding how the drug's pharmacokinetic profile relates to its pharmacodynamic effects is crucial for dose optimization and clinical use.
+Overall, a well-designed pharmacokinetic study will provide valuable insights into the behavior of the oral antidiabetic drug in humans and guide subsequent clinical development and dosing strategies.
+Change in circumstances: Data Reliability Check - In the context of data integrity verification
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Describe the process of building a chemogenomics model to predict drug-target interactions.
+Response: Building a chemogenomics model to predict drug-target interactions involves several steps, utilizing both biological and computational techniques. Here's an outline of the general process:
+1. Data Collection:
+   - Gather comprehensive datasets of chemical compounds (drugs) and their corresponding target proteins, including binding affinities or activity measurements.
+   - Collect genomic and proteomic data, such as gene expression profiles, protein sequences, and structural information of target proteins.
+2. Data Preprocessing:
+   - Standardize and curate the chemical and biological data to ensure quality and consistency.
+   - Perform feature engineering to extract relevant molecular descriptors from chemical structures and identify genomic features that influence target interactions.
+3. Designing the Model:
+   - Choose appropriate machine learning algorithms, such as random forest, support vector machines, or deep learning models, to build the predictive model.
+   - Integrate chemical and genomic features into a unified framework to capture the complex relationships between drugs and targets.
+4. Training the Model:
+   - Split the data into training and validation sets.
+   - Train the model on the training dataset, optimizing parameters and hyperparameters using cross-validation techniques.
+   - Evaluate the model's performance using metrics like accuracy, precision, recall, and area under the receiver operating characteristic curve (AUC-ROC).
+5. Model Validation and Evaluation:
+   - Validate the model on an independent test set to assess its generalizability.
+   - Assess the model's predictive power through cross-validation and benchmarking against known drug-target interactions.
+6. Model Interpretation and Application:
+   - Interpret the model to identify important features and insights into drug-target interactions.
+   - Apply the model to predict novel drug-target interactions, prioritize potential drug candidates, and understand the mechanisms underlying drug efficacy and safety.
+Overall, building a chemogenomics model involves a multidisciplinary approach that combines computational biology, bioinformatics, chemoinformatics, and machine learning to uncover the complex relationships between drugs and their molecular targets.
+Change in circumstances: Risk Containment - Due to predictive model warnings of elevated risk
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>How can computational models predict off-target effects of potential drug candidates?
+Response: Computational models can be used to predict off-target effects of potential drug candidates through a variety of methods. One common approach is to utilize structure-based modeling, where the three-dimensional structures of both the drug candidate and potential off-target proteins are analyzed to predict potential interactions. This can be achieved through molecular docking simulations, where the drug candidate is computationally docked into the binding site of the off-target protein to assess the likelihood of binding and potential off-target effects.
+Another approach is ligand-based modeling, which involves analyzing the chemical and physical properties of the drug candidate and comparing them with known ligands of off-target proteins to predict potential interactions. This can be done using techniques such as quantitative structure-activity relationship (QSAR) modeling, where relationships between chemical structure and biological activity are examined to predict off-target effects.
+Additionally, network-based approaches can be used to predict off-target effects by analyzing protein-protein interaction networks and identifying potential interactions between the drug candidate and off-target proteins based on network connectivity and functional relationships.
+Furthermore, machine learning and data mining techniques can be applied to large-scale omics data to predict off-target effects by identifying patterns and associations between drug candidates and potential off-target proteins.
+By leveraging these computational methods, researchers can systematically assess the likelihood of off-target effects for potential drug candidates, enabling early identification and mitigation of safety concerns in the drug discovery process.
+Change in circumstances: Funding Adaptability - In the context of adjusted funding levels
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>What considerations are taken into account when selecting a delivery method for a new drug?
+Response: When selecting a delivery method for a new drug, several considerations are taken into account, including:
+1. Target Tissue or Organ: The delivery method should be optimized to ensure that the drug reaches the specific tissue or organ where it is needed. Different delivery methods may be required for systemic delivery, localized delivery, or targeting specific cells or tissues.
+2. Pharmacokinetics and Pharmacodynamics: The drug's properties, such as solubility, stability, and half-life, influence the choice of delivery method. For example, for drugs with poor oral bioavailability, alternative routes of administration such as intravenous, transdermal, or inhalation may be considered.
+3. Patient Acceptance and Compliance: The ease of administration and patient preferences play a critical role in selecting the delivery method. For example, oral administration is generally preferred over injections for chronic treatments due to better patient acceptance and compliance.
+4. Drug Properties: The physicochemical properties of the drug, such as molecular weight, hydrophobicity, and chemical stability, influence the selection of delivery methods. For instance, large molecules may require alternative delivery methods such as nanoparticles or lipid-based carriers for effective delivery.
+5. Safety and Tolerability: The delivery method should be safe and well-tolerated by patients. Considerations related to potential adverse effects, local tissue irritation, and systemic toxicity are important in the selection of delivery methods.
+6. Regulatory Considerations: Regulatory requirements and guidelines may influence the choice of delivery method, especially in terms of approval process, manufacturing, and quality control.
+7. Cost and Scalability: The cost of production, scalability of the delivery method, and potential for commercialization are important considerations in selecting the optimal delivery method for a new drug.
+Overall, the selection of a delivery method for a new drug requires a comprehensive assessment of biological, chemical, pharmaceutical, and clinical factors to ensure effective and safe delivery to the target site.
+Change in circumstances: Rerouted Focus - Considering the realigned research targets post-management review
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Describe a strategy to screen for synergistic effects between drug candidates.
+Response: One approach for screening for synergistic effects between drug candidates is to use a combination screening assay. This involves testing multiple combinations of drug candidates in various concentrations to determine if their combined effects are greater than the sum of their individual effects.
+To carry out this strategy, you might consider the following steps:
+1. Selection of Drug Candidates: Choose the drug candidates that are known to target different pathways or mechanisms of action. This increases the likelihood of identifying synergistic effects, as drugs acting on different targets are more likely to have complementary effects.
+2. Dose-response Curves: Generate dose-response curves for each drug candidate individually to determine their individual efficacies and establish the range of concentrations where they exhibit their effects.
+3. Combination Screening: Test combinations of the drug candidates at different concentrations using an appropriate screening assay, such as a cell viability assay or a reporter gene assay. This will allow you to assess the combined effects of the drugs and identify potential synergistic interactions.
+4. Data Analysis: Analyze the data to identify combinations that exhibit synergistic effects. Synergy can be assessed using various mathematical models, such as the Loewe additivity model or the Bliss independence model. These models allow for quantification of synergy and can help identify the most promising drug combinations.
+5. Mechanistic Studies: Once potential synergistic combinations are identified, further studies can be conducted to elucidate the mechanistic basis of the synergistic effects. This may involve understanding the interactions between the drugs at a molecular level, as well as their impact on cellular pathways.
+By employing these steps, you can systematically screen for synergistic effects between drug candidates and identify promising combinations for further development in the drug discovery process.
+Change in circumstances: Workflow Optimization - Due to the opportunity for workflow optimization
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which mutations in PAS domain for the target protein exhibit high selectivity for the prostate cancer cell lines?
+Response: Identifying specific mutations in the PAS domain of a target protein that exhibit high selectivity for prostate cancer cell lines would require a detailed analysis of the protein's structure and function, as well as comprehensive experimental validation. This is a complex and highly specialized research question that would typically involve techniques such as computational modeling, molecular dynamics simulations, mutagenesis studies, and high-throughput screening.
+To address this question, a comprehensive understanding of the protein's interaction with cellular pathways and signaling networks specific to prostate cancer would be essential. Additionally, a thorough review of existing literature on the PAS domain mutations and their effects on cancer cell lines, particularly prostate cancer, would be crucial.
+It's important to note that this type of investigation would likely involve a multidisciplinary approach, integrating computational biology, structural biology, cancer biology, and drug discovery expertise. Such a study would require significant resources and expertise to execute effectively.
+Change in circumstances: Equipment Downtime - Considering the impact of equipment downtime
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which BRCA gene structural variants in the ordered region affect its interaction with the paralogs?
+Response: Several structural variants in the BRCA1 and BRCA2 genes have been found to affect their interaction with paralogs. For example, in BRCA1, certain missense mutations within the BRCT domain have been shown to disrupt the interaction with the BRCA1-associated RING domain 1 (BARD1) protein, which is a paralog of BRCA1. Additionally, certain large deletions or duplications within the BRCA1 and BRCA2 genes can also disrupt their interaction with paralogs, leading to functional consequences in DNA repair and cell cycle regulation. These structural variants can have implications for cancer risk and response to targeted therapies. Understanding the impact of these variants on protein-protein interactions is crucial for predicting their functional consequences and developing precision medicine approaches for patients with these variants.
+Change in circumstances: Data Reliability Check - In the context of data integrity verification
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which tissues in patients have gene set enrichment profile similar to experiment in NCBI GEO ID GSE249645?
+Response: I'm sorry, but I do not have direct access to specific databases such as NCBI GEO to retrieve data based on a specific GEO ID. However, in general, gene set enrichment analysis (GSEA) can be used to compare the gene expression profiles in different tissues or conditions. If you have specific gene expression data from GSE249645, you can use GSEA tools to analyze the data and identify tissues or conditions with similar gene set enrichment profiles. Tools such as GSEA software, Enrichr, or other bioinformatics platforms can help in this analysis.
+Change in circumstances: Software Reliability - In the context of maintaining software reliability
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Which protein domains of the target are enriched for pathogenic mutations in the breast cancer patients?
+Response: The enrichment of pathogenic mutations in specific protein domains of a target gene in breast cancer patients can be identified through various approaches in computational biology and genomics.
+One approach involves analyzing publicly available databases such as the Catalog of Somatic Mutations in Cancer (COSMIC), The Cancer Genome Atlas (TCGA), or the International Cancer Genome Consortium (ICGC) to identify the distribution and frequency of mutations within different protein domains of the target gene in breast cancer patients.
+Additionally, bioinformatics tools and databases such as Pfam, InterPro, or PROSITE can be used to annotate protein domains in the target gene and to analyze the enrichment of pathogenic mutations within these domains.
+Furthermore, leveraging machine learning algorithms and statistical methods can provide insights into the prediction of pathogenic mutations within specific protein domains based on the genetic and clinical data of breast cancer patients.
+By integrating these approaches, computational biologists can identify the protein domains of the target gene that are enriched for pathogenic mutations in breast cancer patients, potentially leading to the discovery of novel therapeutic targets and the development of precision medicine approaches.
+Change in circumstances: Resource Allocation - Considering the reallocation of resources
+ What should change in the response?</t>
+  </si>
+  <si>
+    <t>Given the consistency issues found in integrated datasets, it's important to note that the available data on cell line dependency for the gene POLR3E may not be reliable. It may be necessary to verify the gene dependency in individual experimental settings using targeted knockout or knockdown experiments in specific cell lines. Experimental validation in relevant models is crucial to accurately determine the cell lines with high dependency on POLR3E. Additionally, it's advisable to consult with experienced experimental biologists or geneticists to design and conduct these experiments effectively.</t>
+  </si>
+  <si>
+    <t>In the event of equipment downtime impacting the ability to directly access gene expression data from cell lines and tissues, alternative strategies can be considered. One approach is to leverage existing literature and public repositories containing pre-existing gene expression profiles for POLR3E in various cell lines and tissues. Additionally, collaborating with colleagues or research partners who may have access to complementary datasets can help in obtaining the necessary information. It's also important to ensure that when the equipment is operational again, any delayed analyses or data collection are prioritized to minimize any potential impacts on project timelines.</t>
+  </si>
+  <si>
+    <t>In the context of reduced funding availability due to budget cuts, it may be necessary to prioritize the use of more cost-effective methods for studying the variant profile of cell lines and patient samples for the gene POLR3E. This could include leveraging existing public databases, such as the NCBI's ClinVar or the Genome Aggregation Database (gnomAD), to access variant information. Additionally, collaborating with other research groups or institutions to share resources and data could help mitigate the impact of budget cuts on this type of research. It's important to creatively adapt the research approach while maintaining scientific rigor despite the budget constraints.</t>
+  </si>
+  <si>
+    <t>Given the current market trends, it's important to highlight the potential applications of the associations between expression and variant profiles for the gene POLR3E in drug discovery and development. Specifically, we can discuss how understanding these associations can aid in identifying potential drug targets related to POLR3E, as well as in the development of personalized medicine approaches by considering genetic variation in the context of POLR3E expression. Additionally, we can emphasize the relevance of this information for pharmaceutical companies and researchers involved in precision medicine and therapeutic development.</t>
+  </si>
+  <si>
+    <t>Given the changes in the team structure, I can adapt the response to reflect the expertise and responsibilities of the new team. Here's an amended response:
+As a computational biologist and genomics expert, I have access to extensive databases and tools for analyzing experimental data. I can search for studies related to the gene POLR3E in the NCBI GEO database and provide you with relevant links or analysis within the platform. If you have specific questions or require further assistance in interpreting the data, please feel free to reach out.</t>
+  </si>
+  <si>
+    <t>In light of the new directives, the response should highlight the potential of POLR3E as a target for drug discovery and development, focusing on the implications of its overexpression in cancer. Here's the revised response:
+The POLR3E gene, which encodes a subunit of RNA polymerase III, has been shown to be overexpressed in various types of cancer compared to normal tissue. This differential expression pattern suggests that POLR3E may play a crucial role in cancer progression, metastasis, and drug resistance.
+Given its association with poor patient prognosis in certain cancer types, POLR3E represents a potential target for drug discovery efforts. Inhibition of POLR3E activity or expression could be explored as a strategy to inhibit cancer cell growth and survival.
+Further investigation into the specific indications associated with POLR3E overexpression in different cancer types is warranted to determine its potential as a druggable target. Additionally, leveraging computational biology and genomics approaches can aid in identifying and validating potential therapeutic modalities targeting POLR3E in the context of cancer.</t>
+  </si>
+  <si>
+    <t>In light of the new directives and changes in strategic goals, the response should be updated to focus on the specific aspects of the variant profile of tissues with significant differential expression for the gene POLR3E that align with the revised strategic goals. This may include emphasizing certain types of genetic alterations or prioritizing specific regulatory mechanisms that are more relevant to the updated objectives.</t>
+  </si>
+  <si>
+    <t>In light of the predictive model warnings of elevated risk, it's important to reassess my previous response. While the initial response provided general information about POLR3E and the potential impact of mutations, the elevated risk suggests a need for caution and proactive risk management in discussing specific mutation frequencies without access to validated sources of information. It's important to emphasize that accurate and validated data from reputable sources should be consulted when discussing mutation hotspots within the POLR3E protein, and any analysis should be conducted with a rigorous scientific approach. If you have specific concerns about mutations in POLR3E, I would recommend consulting with a qualified geneticist or genomic expert who can provide accurate and up-to-date information.</t>
+  </si>
+  <si>
+    <t>Due to supply chain disruptions, accessing real-time data or consulting external databases may be more challenging. Despite this, I recommend seeking guidance from genetic counselors or professionals with expertise in clinical genetics to assess the pathogenicity of mutations in the POLR3E gene.</t>
+  </si>
+  <si>
+    <t>In the context of operational efficiency, the response should include information on utilizing high-throughput data analysis tools and platforms to streamline the investigation process. Additionally, incorporating machine learning algorithms and automated data integration methods can enhance the efficiency of analyzing mutation pathogenicity scores and copy number profiles in relation to cancer progression and survival for the gene POLR3E. Furthermore, leveraging cloud-based computing resources and scalable data processing infrastructure can expedite the analysis of large-scale genomic and clinical datasets, thereby improving overall operational efficiency.</t>
+  </si>
+  <si>
+    <t>In the context of bridging the skill gap, the response can be tailored to provide more basic information and educational resources for individuals looking to enhance their understanding of therapeutic areas and platforms related to the gene POLR3E. This could include explaining the significance of the gene in simple terms and offering recommendations for training courses, webinars, or educational materials focused on gene therapy, small molecule modulation, RNA-targeted therapies, and neuroprotective strategies in the context of drug discovery for genetic disorders.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, it's important to note that changes in funding can impact the progress and status of clinical trials. Therefore, it's even more crucial to consult trusted medical databases, clinical trial registries, or qualified medical professionals for the most up-to-date and reliable information on clinical trials and drug development for the gene POLR3E. Additionally, it may be beneficial to seek out information from reputable sources on funding changes and their potential impact on specific drug trials.</t>
+  </si>
+  <si>
+    <t>Given the current supply chain disruptions, it's important to note that drug availability may be affected. In the context of searching for drugs indicated for the gene POLR3E, it's advisable to consider the potential impact of supply chain issues on drug availability and to consult with relevant healthcare professionals or institutions for the latest information on drug supplies and alternatives.</t>
+  </si>
+  <si>
+    <t>In the context of the latest compliance guidelines, it's important to clarify that any drug discovery efforts targeting POLR3E must adhere to regulatory and ethical standards. Additionally, the response should emphasize the importance of conducting thorough preclinical and clinical evaluations to ensure the safety and efficacy of any potential first-in-class drugs targeting POLR3E. Furthermore, the response should highlight the need for rigorous compliance with data integrity and transparency requirements throughout the drug discovery process.</t>
+  </si>
+  <si>
+    <t>In the context of data integrity verification, it's important to emphasize the significance of ensuring the reliability and quality of the data used in determining potential drug targets for a new therapeutic. This involves implementing robust data verification processes, conducting quality control checks, and utilizing validated and reproducible experimental techniques to ensure the integrity of the data used in the identification of genes or proteins to target. Furthermore, it's crucial to maintain transparency regarding the provenance and validation of the data sources, as well as adhering to best practices in data management and analysis to uphold the integrity of the findings.</t>
+  </si>
+  <si>
+    <t>In the context of a safety reassessment for a potential biomarker, it is important to consider additional factors related to the safety and reliability of the biomarker. The following modifications can be made to the response to address safety reassessment:
+1. Clinical studies: In addition to assessing the association of the biomarker with the disease, specific attention should be given to any potential adverse effects or safety concerns associated with the use of the biomarker in clinical studies.
+2. Assay development and validation: Safety considerations should be integrated into the validation process, ensuring that the biomarker assay is not only robust and reliable but also safe for use in clinical and research settings.
+3. Replication studies: Safety aspects of the biomarker's association with the disease should be thoroughly evaluated and replicated in independent cohorts to confirm the absence of any unforeseen safety issues.
+4. Functional validation: In addition to investigating the biological function of the biomarker, particular emphasis should be placed on assessing any potential off-target effects or unintended consequences of targeting or modulating the biomarker.
+5. Longitudinal studies: Safety endpoints and potential adverse events related to the biomarker's use should be actively monitored and evaluated over the course of longitudinal studies.
+6. Regulatory approval: From a safety reassessment perspective, obtaining regulatory approval for the biomarker should involve thorough documentation and evaluation of its safety profile, as well as adherence to regulatory guidelines for safety assessments.
+By incorporating these considerations into the validation process, researchers can ensure that the potential biomarker not only demonstrates utility for the specific disease but also meets rigorous safety standards for its intended applications in clinical and research settings.</t>
+  </si>
+  <si>
+    <t>In the context of maintaining software reliability, the focus of the response would need to shift to how pathway analysis can be integrated into ensuring the reliability and accuracy of the software used for drug discovery. This may involve discussing how pathway analysis tools and algorithms can be validated and verified to ensure their reliability in analyzing complex biological pathways, as well as emphasizing the importance of data integrity and reproducibility in pathway analysis to maintain the reliability of the software. Additionally, considerations for version control, testing procedures, and quality assurance measures specific to the software used for pathway analysis in drug discovery would be pertinent to address.</t>
+  </si>
+  <si>
+    <t>Given the new regulatory standards, it's essential to highlight the importance of ensuring that both phenotypic and genotypic screening methods comply with the updated regulations. This may involve incorporating additional validation steps, ensuring data integrity, and adhering to the latest guidelines for drug discovery and development. Additionally, it's important to emphasize the need for transparency and reproducibility in both screening approaches to meet the regulatory requirements.</t>
+  </si>
+  <si>
+    <t>Given the change in circumstances for "Team Rebuild" and its focus on post-key personnel changes, the response should be adjusted to reflect the importance of ensuring that the expertise and knowledge of the remaining team members are effectively leveraged in addressing the challenges of translating in vitro findings to in vivo models. Additionally, the response may highlight the need for effective communication and collaboration within the team to ensure a smooth transition and continuity in drug discovery efforts.</t>
+  </si>
+  <si>
+    <t>Upon reviewing the detected data inaccuracies, I would like to correct the previous response. While it accurately describes the role of structural biology in the drug design process, I will revise the information for accuracy.
+Structural biology involves various techniques, such as X-ray crystallography, cryo-electron microscopy, and nuclear magnetic resonance (NMR) spectroscopy, to determine the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids. The accurate depiction of these techniques and their applications will provide the most reliable and informative insights into drug design and discovery.
+Additionally, it's important to emphasize that structural biology enables not only the understanding of the target and rational drug design but also the exploration of protein-ligand interactions, virtual screening, and overcoming drug resistance. By utilizing structural biology to its full potential, researchers can obtain crucial details that significantly impact the development of new drugs and the improvement of existing treatments.</t>
+  </si>
+  <si>
+    <t>In the context of data reliability verification, it's important to note that the information provided about the POLR3E gene is based on current understanding and scientific evidence. If there are specific data integrity checks or updates required for the gene's functions, mechanisms, or classifications, it would be necessary to perform a thorough review of the latest literature and genomic databases to ensure the accuracy and reliability of the information provided. Additionally, consulting with domain experts and referencing authoritative genomic resources would be essential to validate the details about POLR3E.</t>
+  </si>
+  <si>
+    <t>In the context of project safety reassessment, the response should focus on the potential implications of POLR3E dysregulation in cancer in terms of drug discovery and therapeutic interventions, as well as any safety considerations related to targeting POLR3E for cancer treatment. It is important to assess the impact of targeting POLR3E on normal cellular functions and to consider potential off-target effects of any therapeutic interventions. It may also be relevant to explore safety parameters and potential biomarkers for monitoring the safety and efficacy of any drug targeting POLR3E.</t>
+  </si>
+  <si>
+    <t>In the context of an emergency response, it's crucial to expedite the assessment of POLR3E as an oncogene to potentially expedite drug discovery or treatment options. Given the urgency, it would be important to leverage advanced computational and data-driven approaches to rapidly analyze large-scale cancer genomics datasets, including identifying any potential associations between POLR3E and cancer. Additionally, collaboration with domain experts and leveraging advanced AI and machine learning algorithms may help uncover any previously unknown roles of POLR3E in cancer development. This expedited approach would align with emergency protocols by providing a rapid and comprehensive analysis of the potential oncogenic properties of POLR3E.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, it's important to note that research on the gene POLR3E and its associations with cancer indications may be affected. The response should now incorporate the potential impact of funding changes on the availability of research resources and the pace of scientific discoveries related to POLR3E's role in cancer. It's crucial to highlight the potential need for prioritization and allocation of resources to ensure continued advancements in understanding the link between POLR3E and various cancer types despite funding adjustments.</t>
+  </si>
+  <si>
+    <t>In the context of workflow optimization, you may be interested in using computational tools and algorithms to streamline the retrieval and analysis of relevant networks for the gene POLR3E. In this case, I can provide guidance on utilizing automated scripts or pipelines to access the desired databases, extract the relevant network data, and perform initial analysis or visualization of the resulting networks. This approach can help optimize your process for obtaining and interpreting the gene interaction networks efficiently.</t>
+  </si>
+  <si>
+    <t>Due to the legal shift affecting procedures, it is necessary to refrain from providing direct links to the publications. Instead, I recommend stating the titles and authors of the publications, and encouraging the individual to search for them using appropriate databases or platforms. Let me know if you need further assistance.</t>
+  </si>
+  <si>
+    <t>In an emergency response situation, providing a list of pseudokinase genes may not be directly relevant. Instead, it would be more important to focus on specific information related to the emergency, such as emergency protocols, safety measures, evacuation procedures, or any other relevant information to ensure the safety and well-being of individuals involved in the emergency. If there are specific questions related to emergency response or safety protocols, feel free to ask, and I can provide appropriate information.</t>
+  </si>
+  <si>
+    <t>In the context of an emergency response, speed and efficiency become critical factors. Therefore, the strategy for using CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease should prioritize rapid deployment and the potential for immediate impact.
+Delivery of CRISPR-Cas9 components should be optimized for quick and targeted delivery to the affected brain cells. This may involve leveraging the most effective and expedient delivery methods, such as viral vectors or nanoparticles with proven ability to cross the blood-brain barrier.
+Additionally, given the urgency of the situation, the focus might shift to targeting the most critical and well-established gene targets, such as those directly involved in the production of amyloid beta peptides or other key pathological mechanisms in Alzheimer's disease.
+Furthermore, in the emergency context, it may be important to prioritize gene editing strategies that are most likely to have direct therapeutic implications, such as those that can immediately reduce the production of harmful proteins or restore normal protein function.
+The assessment of specificity and off-target effects should still be considered, but in an emergency, the balance between speed and safety must be carefully managed, and the risk-benefit analysis should emphasize the potential for therapeutic benefit in the immediate term.
+In summary, adapting the strategy for using CRISPR-Cas9 in an emergency response requires a focus on rapid delivery, targeting well-established gene targets, and prioritizing gene editing approaches with the most immediate therapeutic potential while still considering safety implications.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, it's important to consider cost-effective approaches to siRNA design and experimental validation. Here are some potential adjustments to the response:
+1. Target Identification: Prioritize the selection of a specific oncogene that is well-established in the literature and has strong evidence supporting its significance in cancer. This can minimize the need for extensive preliminary experimental studies, thus reducing costs.
+2. Off-Target Analysis: Utilize publicly available bioinformatics tools for off-target analysis to minimize the need for expensive commercial software or services.
+3. siRNA Design: Opt for simpler design approaches that do not require costly licensing or proprietary algorithms. Open-source or freely available siRNA design tools can be utilized to design effective siRNA sequences.
+4. In Silico Validation: Rely on open-access databases and software for in silico validation of siRNA sequences, avoiding costs associated with proprietary software or services.
+5. Experimental Validation: Consider utilizing cost-effective in vitro cell culture models for initial experimental validation, and if possible, collaborate with academic or research institutions for shared resources and reduced experimental costs.
+In the face of adjusted funding levels, collaboration with other research groups, universities, or industry partners can also be explored to share resources, expertise, and costs associated with experimental validation.
+Adapting to lower funding levels may require creative solutions, such as strategic collaborations, leaner experimental designs, and the use of open-access resources to optimize the design and validation of siRNA sequences for targeting and knocking down a specific oncogene.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, it's essential to adapt the high-throughput screening (HTS) assay design to optimize resources and maximize efficiency. Here are some considerations for the response:
+1. Assay Selection: Consider using existing assay platforms or collaborations with research institutions or pharmaceutical companies to access established assay technologies, which can minimize the cost of assay development.
+2. Library Selection: Prioritize the use of in-house compound libraries or open-access compound collections to reduce costs associated with purchasing commercial compound libraries. Collaborations with other research groups may also provide access to compound libraries at a lower cost.
+3. Screening Conditions: Optimize and miniaturize the screening conditions to reduce reagent consumption and increase throughput. This may involve using smaller reaction volumes, microplate formats, and automation wherever possible.
+4. Data Analysis: Leverage open-source or freely available data analysis tools and platforms to minimize software licensing costs. Also, consider collaborations with bioinformatics groups for data analysis support.
+In the context of adjusted funding levels, resourcefulness and collaboration will be key in designing a cost-effective HTS assay to identify small molecule inhibitors of the novel protein target involved in cancer cell proliferation.</t>
+  </si>
+  <si>
+    <t>Incorporate breakthrough technology such as machine learning, artificial intelligence, and high-throughput screening into various stages of the ADC development process. Utilize these technologies for antigen selection, antibody development, linker-payload design, and preclinical validation to accelerate the identification of promising candidates and enhance the efficiency of the overall process. This can involve utilizing AI algorithms to analyze large datasets for antigen selection, predicting antibody-antigen binding affinity and specificity, and optimizing linker-payload interactions for improved stability and efficacy. Additionally, high-throughput screening technologies can be leveraged to rapidly assess the cytotoxicity, specificity, and pharmacokinetic properties of potential ADC candidates, accelerating the preclinical validation process. Integrating these cutting-edge technologies will expedite the development of a highly targeted and efficacious ADC for the specific type of breast cancer in question.</t>
+  </si>
+  <si>
+    <t>In the context of data reliability verification, the pharmacokinetic study design for a new oral antidiabetic drug would need to incorporate additional measures to ensure the integrity and reliability of the data generated. This may include the following considerations:
+1. Quality Assurance Plan: Clearly outline the quality assurance measures that will be implemented throughout the study, including standard operating procedures for sample collection, handling, storage, and analysis. The plan should ensure traceability and minimize the risk of errors or contamination.
+2. Data Monitoring and Auditing: Implement systems for ongoing data monitoring and auditing to detect any anomalies or inconsistencies in the pharmacokinetic data. Independent audits of study procedures and data collection processes may also be warranted to provide an extra layer of assurance.
+3. Analytical Validation: Validate the analytical methods used for drug quantification to ensure accuracy, precision, specificity, and sensitivity. This may involve conducting validation studies using quality control samples and reference standards to verify the reliability of the analytical measurements.
+4. Data Integrity Checks: Incorporate checks for data integrity, such as ensuring the completeness, consistency, and accuracy of the collected pharmacokinetic data. Use of electronic data capture systems with built-in validation checks can help minimize data entry errors.
+5. Documentation and Record-Keeping: Maintain comprehensive documentation of all study procedures, including data collection forms, analytical results, and any deviations from the protocol. Good documentation practices are critical for data reliability and traceability.
+6. Adherence to Regulatory Guidelines: Ensure that the pharmacokinetic study adheres to relevant regulatory guidelines for data integrity and reliability, such as Good Laboratory Practice (GLP) or Good Clinical Practice (GCP) standards.
+By incorporating these additional measures, the pharmacokinetic study can bolster the reliability and integrity of the data generated, enhancing confidence in the pharmacokinetic profile of the new oral antidiabetic drug.</t>
+  </si>
+  <si>
+    <t>In the event of predictive model warnings of elevated risk, the focus of the response should shift towards the importance of rigorous validation, comprehensive risk assessment, and potential mitigation strategies. This may include discussing the need for extensive validation and further testing to ensure the accuracy and reliability of the model's predictions. Additionally, there should be a focus on identifying potential mechanisms underlying the elevated risk and developing strategies to address and mitigate these concerns, such as conducting additional experiments, refining the model, or exploring alternative approaches to drug-target interaction prediction.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, there may be a need to prioritize computational modeling approaches that are more cost-effective and efficient. This could involve focusing on using existing data and computational tools, as well as leveraging open-source software and databases to minimize costs. Additionally, there may be a greater emphasis on collaborative efforts and data sharing within the scientific community to make the most of limited resources.
+Furthermore, the use of high-performance computing resources and cloud-based solutions may need to be reconsidered to ensure that computational modeling for predicting off-target effects remains feasible within the constraints of the adjusted funding levels. Balancing cost-effectiveness with scientific rigor and accuracy will be essential to adapt to the changing funding landscape.</t>
+  </si>
+  <si>
+    <t>The response remains relevant to considerations for selecting a delivery method for a new drug, regardless of any realigned research targets post-management review. However, if there are specific changes or updates to the considerations in the context of the realigned research targets, those can be incorporated into the response as necessary.</t>
+  </si>
+  <si>
+    <t>To optimize the workflow for screening synergistic effects between drug candidates, you could consider implementing high-throughput screening (HTS) techniques. HTS allows for the rapid screening of a large number of drug combinations, thus expediting the identification of synergistic interactions. Additionally, automation and robotics can be employed to streamline the experimental process, increasing throughput and efficiency. Furthermore, the integration of data analysis software can facilitate the rapid interpretation of results and the identification of promising synergistic drug combinations.</t>
+  </si>
+  <si>
+    <t>Given the impact of equipment downtime, it's important to consider alternative approaches to studying mutations in the PAS domain for the target protein's selectivity for prostate cancer cell lines. In light of this, leveraging alternative computational methods, such as in silico modeling and virtual screening, offers a cost-effective and efficient means to explore potential mutations and their impact on cancer cell selectivity. Additionally, utilizing available databases and bioinformatics tools for mutation analysis and pathway mapping can provide valuable insights despite equipment limitations. While experimental validation remains crucial, optimizing computational strategies can help mitigate the impact of equipment downtime on research progress.</t>
+  </si>
+  <si>
+    <t>In the context of data integrity verification, it's important to note that the specific structural variants affecting the interaction of BRCA genes with paralogs may vary based on the precise genetic context and the availability of experimental evidence. Therefore, it's essential to rely on robust experimental data and validated sources to ascertain the impact of structural variants on protein interactions. Additionally, integrating data from high-quality genomic databases and functional studies is crucial for accurately determining the effects of genetic variants on gene functions and their interactions with paralogs.</t>
+  </si>
+  <si>
+    <t>In the context of maintaining software reliability, the response should highlight the importance of using reliable and validated bioinformatics tools, such as GSEA software, Enrichr, or other reputable bioinformatics platforms, to analyze the gene expression data from GSE249645. It's crucial to ensure that the tools used for gene set enrichment analysis are trustworthy and provide accurate results for meaningful interpretation. Additionally, considering the reproducibility of the analysis and the potential impact of technical variability in gene expression data is essential for reliable results.</t>
+  </si>
+  <si>
+    <t>In the context of resource allocation, it's important to prioritize the most efficient and impactful approaches for identifying protein domains enriched for pathogenic mutations in breast cancer patients. Therefore, the response should focus on leveraging publicly available databases and bioinformatics tools to analyze the distribution and frequency of mutations within different protein domains of the target gene in breast cancer patients. This approach can provide valuable insights without requiring extensive resources for experimental validation or complex computational analyses. Additionally, it's important to emphasize the potential impact of identifying enriched protein domains in guiding drug discovery efforts and precision medicine approaches for breast cancer treatment.</t>
+  </si>
+  <si>
+    <t>Original Question: Which cell lines have high dependency for the target of interest for the gene POLR3E?
+Orig Response: The dependency of a specific gene, like POLR3E, can vary across different cell lines. To identify cell lines with high dependency on POLR3E, you can analyze data from large-scale CRISPR knockout or RNA interference (RNAi) screens, such as those from the Cancer Dependency Map (DepMap) project.
+These databases provide information on gene essentiality across hundreds of cell lines, allowing you to identify cell lines with high dependency on POLR3E. You can use tools such as the DepMap portal to access these data and search for cell lines with significant dependency on POLR3E.
+Consider consulting with bioinformatics specialists or computational biologists who have experience in analyzing large-scale genomic datasets to perform this analysis effectively. 
+Perturbation (Data Quality and Integrity): Consistency Verification - Due to inconsistencies found in integrated datasets
+ Given the consistency issues found in integrated datasets, it's important to note that the available data on cell line dependency for the gene POLR3E may not be reliable. It may be necessary to verify the gene dependency in individual experimental settings using targeted knockout or knockdown experiments in specific cell lines. Experimental validation in relevant models is crucial to accurately determine the cell lines with high dependency on POLR3E. Additionally, it's advisable to consult with experienced experimental biologists or geneticists to design and conduct these experiments effectively.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which indications are the dependent cell lines for the gene POLR3E enriched in? Are there lineages with high selectivity?
+Orig Response: The gene POLR3E encodes for one of the subunits of RNA polymerase III, which is involved in the transcription of various small noncoding RNAs. The expression and function of POLR3E may vary across different cell lines and tissues. While there is no direct information available on the dependent cell lines for POLR3E, its enriched expression can provide insights into potential indications and lineages with high selectivity.
+To determine the indications and lineages with high selectivity for POLR3E, you may want to examine gene expression data from diverse cell lines and tissues using resources such as the Genotype-Tissue Expression (GTEx) project, Cancer Cell Line Encyclopedia (CCLE), Human Protein Atlas, and other publicly available databases.
+By analyzing the expression profiles of POLR3E across different cell types and conditions, you can identify specific indications and lineages where this gene is significantly enriched. This information can be valuable for understanding the potential roles of POLR3E in specific biological processes, disease conditions, and drug targeting strategies. Additionally, combining this analysis with functional studies and pathway analysis can provide further insights into the implications of POLR3E enrichment in particular cell types and disease contexts. 
+Perturbation (Technical Setbacks): Equipment Downtime - Considering the impact of equipment downtime
+ In the event of equipment downtime impacting the ability to directly access gene expression data from cell lines and tissues, alternative strategies can be considered. One approach is to leverage existing literature and public repositories containing pre-existing gene expression profiles for POLR3E in various cell lines and tissues. Additionally, collaborating with colleagues or research partners who may have access to complementary datasets can help in obtaining the necessary information. It's also important to ensure that when the equipment is operational again, any delayed analyses or data collection are prioritized to minimize any potential impacts on project timelines.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Is there a concordance in the variant profile seen in cell lines with that of patients for the gene POLR3E?
+Orig Response: There is evidence demonstrating a concordance in the variant profile of cell lines and patient samples for the gene POLR3E. POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of small non-coding RNAs. Variants in this gene have been associated with different diseases, including hypomyelinating leukodystrophy and other neurological disorders. Studies have shown that certain variants identified in patient samples are also present in corresponding cell line models, which supports their utility for investigating disease mechanisms and testing potential drug treatments. This concordance can be valuable for drug discovery efforts, as it allows for the validation of potential therapeutic targets and the screening of drug candidates using relevant cell line models. 
+Perturbation (Strategy Shifts): Budget Cuts - In the context of reduced funding availability
+ In the context of reduced funding availability due to budget cuts, it may be necessary to prioritize the use of more cost-effective methods for studying the variant profile of cell lines and patient samples for the gene POLR3E. This could include leveraging existing public databases, such as the NCBI's ClinVar or the Genome Aggregation Database (gnomAD), to access variant information. Additionally, collaborating with other research groups or institutions to share resources and data could help mitigate the impact of budget cuts on this type of research. It's important to creatively adapt the research approach while maintaining scientific rigor despite the budget constraints.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Describe associations between expression and variant profiles for the gene POLR3E.
+Orig Response: The gene POLR3E encodes a subunit of RNA polymerase III, which is involved in the transcription of various small non-coding RNAs. To study the associations between expression and variant profiles for the POLR3E gene, we can leverage various genomic and bioinformatic tools and databases.
+1. Expression Profiles:
+We can first analyze the expression profiles of POLR3E in different tissues and cell types using RNA sequencing data from large-scale projects such as the Genotype-Tissue Expression (GTEx) project or the Human Protein Atlas. This can help us understand the baseline expression levels of POLR3E and identify any tissue-specific expression patterns.
+2. Variant Profiles:
+Next, we can investigate the variant profiles of POLR3E by examining genetic variation data from population-level studies such as the 1000 Genomes Project or the Exome Aggregation Consortium (ExAC). This can involve identifying single nucleotide polymorphisms (SNPs), insertions/deletions, and other genetic variants within and around the POLR3E gene.
+3. Integrative Analysis:
+To explore the associations between expression and variant profiles, we can perform integrative analysis by correlating the genetic variants with gene expression levels. This can be achieved using expression quantitative trait loci (eQTL) analysis, where we identify genetic variants that are significantly associated with the expression levels of POLR3E. Tools such as the GTEx portal or QTLtools can be utilized for this purpose.
+4. Functional Impact Assessment:
+Furthermore, we can predict the potential functional impact of genetic variants on POLR3E using bioinformatics tools such as SIFT, PolyPhen, or MutationTaster. This can help us prioritize genetic variants that are likely to influence the expression or function of POLR3E.
+By integrating expression and variant profiles, we can gain insights into the regulatory mechanisms and genetic determinants that influence the expression of the POLR3E gene. This knowledge is valuable for understanding the role of POLR3E in health and disease, and for identifying potential therapeutic targets or biomarkers. 
+Perturbation (Market and Economic Factors): Trend Adaptation - Due to shifting market trends
+ Given the current market trends, it's important to highlight the potential applications of the associations between expression and variant profiles for the gene POLR3E in drug discovery and development. Specifically, we can discuss how understanding these associations can aid in identifying potential drug targets related to POLR3E, as well as in the development of personalized medicine approaches by considering genetic variation in the context of POLR3E expression. Additionally, we can emphasize the relevance of this information for pharmaceutical companies and researchers involved in precision medicine and therapeutic development.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Have cell lines been used in other studies for the target of interest of the gene POLR3E? If experimental data is available on NCBI GEO, provide those links or analysis within the platform.
+Orig Response: I'm sorry, but I currently do not have direct access to the latest experimental data available on NCBI GEO or other specific databases. However, I would suggest searching for the gene POLR3E in the NCBI GEO database website. You can use the gene symbol "POLR3E" as a keyword for searching, and you may find relevant studies that have used cell lines for the target of interest. If you need any assistance in interpreting the data or performing any specific analysis, feel free to ask for guidance. 
+Perturbation (Human Resources): Team Rebuild - Considering the team structure post-key personnel changes
+ Given the changes in the team structure, I can adapt the response to reflect the expertise and responsibilities of the new team. Here's an amended response:
+As a computational biologist and genomics expert, I have access to extensive databases and tools for analyzing experimental data. I can search for studies related to the gene POLR3E in the NCBI GEO database and provide you with relevant links or analysis within the platform. If you have specific questions or require further assistance in interpreting the data, please feel free to reach out.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: For the gene POLR3E, identify indications with significant differential expression in cancer vs normal tissue. Is it overexpressed or underexpressed in tumor tissue?
+Orig Response: The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing small non-coding RNAs. To identify indications with significant differential expression in cancer vs normal tissue for the POLR3E gene, we can utilize bioinformatics tools and databases such as TCGA, GTEx, Oncomine, and GEO to analyze gene expression data across different cancer types.
+After conducting a thorough analysis, I have found that POLR3E is overexpressed in various types of cancer compared to normal tissue. Specifically, significant differential expression of POLR3E has been observed in multiple cancer types including breast cancer, lung cancer, ovarian cancer, and others.
+As for indications associated with differential expression, POLR3E overexpression has been implicated in cancer progression, metastasis, and drug resistance. Additionally, studies have linked POLR3E overexpression with poor patient prognosis in certain cancer types.
+It is important to note that gene expression patterns can vary across different cancer types and subtypes, so further investigation into specific indications of interest is recommended. 
+Perturbation (Strategy Shifts): New Directives - Due to top-down changes in strategic goals
+ In light of the new directives, the response should highlight the potential of POLR3E as a target for drug discovery and development, focusing on the implications of its overexpression in cancer. Here's the revised response:
+The POLR3E gene, which encodes a subunit of RNA polymerase III, has been shown to be overexpressed in various types of cancer compared to normal tissue. This differential expression pattern suggests that POLR3E may play a crucial role in cancer progression, metastasis, and drug resistance.
+Given its association with poor patient prognosis in certain cancer types, POLR3E represents a potential target for drug discovery efforts. Inhibition of POLR3E activity or expression could be explored as a strategy to inhibit cancer cell growth and survival.
+Further investigation into the specific indications associated with POLR3E overexpression in different cancer types is warranted to determine its potential as a druggable target. Additionally, leveraging computational biology and genomics approaches can aid in identifying and validating potential therapeutic modalities targeting POLR3E in the context of cancer.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Describe the variant profile of tissues where there is significant differential expression for the gene POLR3E. Include details on copy number variations, mutations, etc.
+Orig Response: The variant profile of tissues with significant differential expression for the gene POLR3E typically involves diverse alterations such as copy number variations (CNVs), mutations, and other genetic changes. 
+1. Copy Number Variations (CNVs): Tissues with differential expression of POLR3E may exhibit CNVs in the form of amplifications or deletions of the gene. These CNVs can lead to changes in the expression levels of POLR3E. For instance, amplifications can result in increased expression, while deletions can lead to reduced expression.
+2. Mutations: The variant profile may also include various types of mutations in the POLR3E gene, such as single nucleotide variants (SNVs), insertions, deletions, and structural variants. These mutations can affect the function of POLR3E and its expression levels. Additionally, mutations in regulatory regions or epigenetic changes can also impact the expression of POLR3E.
+3. Epigenetic Modifications: Differential expression of POLR3E can also be influenced by epigenetic modifications, such as DNA methylation or histone modifications, which can alter the accessibility of the gene to the transcriptional machinery.
+4. Regulatory Variants: Variants in the regulatory elements, such as promoters and enhancers, can also contribute to the differential expression of POLR3E across different tissues.
+Overall, the variant profile of tissues with significant differential expression for the gene POLR3E is likely to encompass a combination of CNVs, mutations, regulatory variants, and epigenetic modifications that collectively influence the expression levels of this gene in a tissue-specific manner. Understanding these variant profiles can provide insights into the regulatory mechanisms and potential therapeutic targets related to POLR3E expression in different tissues. 
+Perturbation (Strategy Shifts): New Directives - Due to top-down changes in strategic goals
+ In light of the new directives and changes in strategic goals, the response should be updated to focus on the specific aspects of the variant profile of tissues with significant differential expression for the gene POLR3E that align with the revised strategic goals. This may include emphasizing certain types of genetic alterations or prioritizing specific regulatory mechanisms that are more relevant to the updated objectives.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Are there specific regions of the protein of the gene POLR3E where mutations occur at a higher frequency?
+Orig Response: POLR3E is a gene that codes for an RNA polymerase subunit. Mutations in this gene can lead to POLR3-related leukodystrophy, a rare genetic disorder affecting the white matter of the brain. 
+In terms of mutation hotspots within the POLR3E protein, there is no widely reported specific region with a significantly higher frequency of mutations. However, mutations can be distributed across the entire protein. To identify specific regions of increased mutation frequency, one would need to analyze large-scale genomic sequencing data from patients with POLR3E-related disorders. This type of analysis could help identify potential functional domains or critical amino acid residues within the protein that are more prone to mutation and might be important for its function.
+Understanding the specific locations and types of mutations in POLR3E can provide insights into the molecular mechanisms of the associated disease and potentially guide the development of targeted therapies. 
+Perturbation (Crisis and Risk Management): Risk Containment - Due to predictive model warnings of elevated risk
+ In light of the predictive model warnings of elevated risk, it's important to reassess my previous response. While the initial response provided general information about POLR3E and the potential impact of mutations, the elevated risk suggests a need for caution and proactive risk management in discussing specific mutation frequencies without access to validated sources of information. It's important to emphasize that accurate and validated data from reputable sources should be consulted when discussing mutation hotspots within the POLR3E protein, and any analysis should be conducted with a rigorous scientific approach. If you have specific concerns about mutations in POLR3E, I would recommend consulting with a qualified geneticist or genomic expert who can provide accurate and up-to-date information.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: For the gene POLR3E, determine how many of the mutations are pathogenic.
+Orig Response: I don't have access to specific databases or the ability to retrieve real-time data on the pathogenic mutations for the gene POLR3E. However, you can consult publicly available resources such as ClinVar, COSMIC, or the Human Gene Mutation Database (HGMD) to obtain information about known mutations in POLR3E and their pathogenicity. Additionally, you may consider reaching out to a genetic counselor or a professional with expertise in clinical genetics for assistance with interpreting the pathogenicity of mutations in this gene. 
+Perturbation (Resource Availability): Supply Chain Resilience - Due to supply chain disruptions
+ Due to supply chain disruptions, accessing real-time data or consulting external databases may be more challenging. Despite this, I recommend seeking guidance from genetic counselors or professionals with expertise in clinical genetics to assess the pathogenicity of mutations in the POLR3E gene.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Are pathogenicity scores of mutations or copy number profiles associated with cancer progression and survival for the gene POLR3E?
+Orig Response: In-depth information about the specific association of pathogenicity scores of mutations or copy number profiles with cancer progression and survival for the gene POLR3E requires a detailed analysis of available genomic and clinical data. However, as a computational biologist and genomics expert, I can guide you through the process of investigating this. 
+1. Mutation Pathogenicity Scores: You can start by using bioinformatics tools and databases such as SIFT, PolyPhen, and CADD to assess the pathogenicity scores of mutations in the POLR3E gene. These tools predict the potential impact of mutations on protein function and can provide insights into their potential relevance to cancer progression.
+2. Copy Number Profiles: Analyzing copy number profiles associated with the POLR3E gene in cancer datasets (such as TCGA) can be valuable. This involves examining copy number alterations, amplifications, or deletions in relation to clinical outcomes and survival data for different types of cancer.
+3. Integrative Analysis: Integrating mutation pathogenicity scores and copy number profiles with clinical data, such as patient survival and disease progression, could provide a comprehensive understanding of the potential role of POLR3E in cancer.
+It's essential to use bioinformatics and statistical tools to perform these analyses and interpret the results. Additionally, consulting the relevant literature and collaborating with experts in the field can enhance the understanding of the clinical implications of these genomic alterations in cancer. 
+Perturbation (Operational Efficiency): Process Refinement - In the context of operational efficiency
+ In the context of operational efficiency, the response should include information on utilizing high-throughput data analysis tools and platforms to streamline the investigation process. Additionally, incorporating machine learning algorithms and automated data integration methods can enhance the efficiency of analyzing mutation pathogenicity scores and copy number profiles in relation to cancer progression and survival for the gene POLR3E. Furthermore, leveraging cloud-based computing resources and scalable data processing infrastructure can expedite the analysis of large-scale genomic and clinical datasets, thereby improving overall operational efficiency.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Identify any therapeutic areas or platforms in focus for the gene POLR3E.
+Orig Response: The gene POLR3E encodes an essential subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs such as transfer RNAs (tRNAs) and 5S ribosomal RNA. Mutations in POLR3E have been associated with a rare genetic disorder called hypomyelinating leukodystrophy, and POLR3E dysfunction has also been linked to neurodegenerative disorders.
+Therapeutic areas and platforms in focus for targeting POLR3E-related conditions may include:
+1. Gene therapy: Developing gene therapy approaches to correct or replace the mutated POLR3E gene in patients with hypomyelinating leukodystrophy or other related conditions.
+2. Small molecule modulation: Investigating small molecule compounds that can modulate the activity of POLR3E to potentially restore normal function or mitigate the effects of dysfunctional POLR3E.
+3. RNA-targeted therapies: Exploring RNA-targeted therapies, such as antisense oligonucleotides or RNA interference, to regulate the expression or function of POLR3E and related transcripts.
+4. Neuroprotective strategies: Developing neuroprotective agents that can support myelination and protect against neurodegeneration in conditions associated with POLR3E dysfunction.
+These are just a few examples of the therapeutic areas and platforms that may be of interest for targeting the gene POLR3E. As research in this field continues to advance, new opportunities for therapeutic intervention may emerge. 
+Perturbation (Human Resources): Skill Gap Bridge - In the context of bridging the skill gap
+ In the context of bridging the skill gap, the response can be tailored to provide more basic information and educational resources for individuals looking to enhance their understanding of therapeutic areas and platforms related to the gene POLR3E. This could include explaining the significance of the gene in simple terms and offering recommendations for training courses, webinars, or educational materials focused on gene therapy, small molecule modulation, RNA-targeted therapies, and neuroprotective strategies in the context of drug discovery for genetic disorders.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: List molecules in clinical trials for the gene POLR3E, detailing the pharmaceutical companies involved and the latest status of these trials.
+Orig Response: I'm afraid I cannot provide the latest clinical trial data or specific details on pharmaceutical companies related to POLR3E gene and its associated drug trials. Access to such information is highly regulated and constantly updated, making it difficult to guarantee accuracy. I recommend reaching out to trusted medical databases, clinical trial registries, or speaking with a qualified medical professional for the most recent and reliable information on clinical trials and drug development for POLR3E gene. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+ In the context of adjusted funding levels, it's important to note that changes in funding can impact the progress and status of clinical trials. Therefore, it's even more crucial to consult trusted medical databases, clinical trial registries, or qualified medical professionals for the most up-to-date and reliable information on clinical trials and drug development for the gene POLR3E. Additionally, it may be beneficial to seek out information from reputable sources on funding changes and their potential impact on specific drug trials.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which indications have drugs already in the market for the gene POLR3E?
+Orig Response: As of my last knowledge update, there are no drugs explicitly indicated for the gene POLR3E. POLR3E is a subunit of RNA polymerase III, an enzyme involved in the transcription of various small nuclear RNAs and some small nucleolar RNAs. Research on drugs targeting POLR3E-related conditions may still be ongoing, and it's always good to consult with a healthcare professional or a current database for the most up-to-date information on drug indications. 
+Perturbation (Resource Availability): Supply Chain Resilience - Due to supply chain disruptions
+ Given the current supply chain disruptions, it's important to note that drug availability may be affected. In the context of searching for drugs indicated for the gene POLR3E, it's advisable to consider the potential impact of supply chain issues on drug availability and to consult with relevant healthcare professionals or institutions for the latest information on drug supplies and alternatives.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Are there any first in class opportunities for the gene POLR3E?
+Orig Response: The gene POLR3E encodes for the RPC5 subunit of RNA polymerase III, which is involved in the transcription of small, non-coding RNAs. As of now, there are no known first-in-class drugs targeting POLR3E specifically. However, targeting RNA polymerase machinery is an active area of research in the development of new therapeutic agents for various diseases, including cancers and genetic disorders. Given the critical role of RNA polymerase III in cellular processes, there may be opportunities for drug discovery targeting this gene in the future. Understanding the genetic and molecular pathways associated with POLR3E may uncover potential targets for drug development. 
+Perturbation (Regulatory and Compliance): Compliance Recheck - In the context of the latest compliance guidelines
+ In the context of the latest compliance guidelines, it's important to clarify that any drug discovery efforts targeting POLR3E must adhere to regulatory and ethical standards. Additionally, the response should emphasize the importance of conducting thorough preclinical and clinical evaluations to ensure the safety and efficacy of any potential first-in-class drugs targeting POLR3E. Furthermore, the response should highlight the need for rigorous compliance with data integrity and transparency requirements throughout the drug discovery process.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: How do you determine which genes or proteins to target for a new therapeutic?
+Orig Response: Identifying which genes or proteins to target for a new therapeutic typically involves a combination of approaches, including understanding the underlying biology of the disease, conducting high-throughput screening assays, utilizing bioinformatics and computational biology techniques, and leveraging existing knowledge of pathways and networks involved in the disease.
+First, the biology of the disease must be thoroughly understood. This involves studying the molecular and cellular mechanisms underlying the disease, as well as identifying key genes, proteins, and pathways involved in its development and progression.
+Next, high-throughput screening assays can be used to identify potential drug targets. These assays can involve testing large libraries of compounds or molecules to see if they have an effect on the activity of specific proteins or pathways associated with the disease.
+Bioinformatics and computational biology techniques can also be employed to analyze large-scale genomic, transcriptomic, and proteomic data to identify potential drug targets. This can involve identifying genes or proteins that are differentially expressed in diseased versus healthy tissues, or using network-based approaches to identify key nodes in disease-associated pathways.
+Additionally, existing knowledge of pathways and networks involved in the disease can be leveraged to identify potential drug targets. This may involve targeting proteins known to be involved in disease-associated pathways, or identifying key nodes in protein-protein interaction networks associated with the disease.
+Overall, a combination of experimental and computational approaches is typically used to identify potential genes or proteins to target for a new therapeutic, with the goal of modulating the underlying disease biology in a way that leads to therapeutic benefit. 
+Perturbation (Data Quality and Integrity): Data Reliability Check - In the context of data integrity verification
+ In the context of data integrity verification, it's important to emphasize the significance of ensuring the reliability and quality of the data used in determining potential drug targets for a new therapeutic. This involves implementing robust data verification processes, conducting quality control checks, and utilizing validated and reproducible experimental techniques to ensure the integrity of the data used in the identification of genes or proteins to target. Furthermore, it's crucial to maintain transparency regarding the provenance and validation of the data sources, as well as adhering to best practices in data management and analysis to uphold the integrity of the findings.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: What methods can be used to validate a potential biomarker for a specific disease?
+Orig Response: There are several methods that can be used to validate a potential biomarker for a specific disease. These may include:
+1. Clinical studies: Conducting various types of clinical studies, such as case-control studies, cohort studies, or randomized controlled trials, to assess the association of the biomarker with the disease of interest.
+2. Assay development and validation: Developing and validating a robust and reliable assay for the detection and quantification of the biomarker in biological samples, such as blood, urine, or tissue.
+3. Replication studies: Replicating the findings from initial discovery studies in independent cohorts or populations to determine the consistency and reproducibility of the biomarker's association with the disease.
+4. Functional validation: Investigating the biological function of the biomarker and its role in disease pathogenesis using in vitro or in vivo experimental models.
+5. Longitudinal studies: Conducting longitudinal studies to evaluate the predictive value of the biomarker for disease progression, prognosis, or treatment response over time.
+6. Meta-analysis: Pooling and analyzing data from multiple studies to provide a more comprehensive assessment of the biomarker's performance across different populations and study designs.
+7. Regulatory approval: Obtaining regulatory approval for the biomarker as a diagnostic, prognostic, or predictive tool for the specific disease, which may involve submission to regulatory agencies such as the FDA or EMA.
+By employing these methods, researchers can systematically evaluate and validate the utility of a potential biomarker for a specific disease, paving the way for its clinical application in patient care and drug development. 
+Perturbation (Crisis and Risk Management): Safety Reassessment - In the context of project safety reassessment
+ In the context of a safety reassessment for a potential biomarker, it is important to consider additional factors related to the safety and reliability of the biomarker. The following modifications can be made to the response to address safety reassessment:
+1. Clinical studies: In addition to assessing the association of the biomarker with the disease, specific attention should be given to any potential adverse effects or safety concerns associated with the use of the biomarker in clinical studies.
+2. Assay development and validation: Safety considerations should be integrated into the validation process, ensuring that the biomarker assay is not only robust and reliable but also safe for use in clinical and research settings.
+3. Replication studies: Safety aspects of the biomarker's association with the disease should be thoroughly evaluated and replicated in independent cohorts to confirm the absence of any unforeseen safety issues.
+4. Functional validation: In addition to investigating the biological function of the biomarker, particular emphasis should be placed on assessing any potential off-target effects or unintended consequences of targeting or modulating the biomarker.
+5. Longitudinal studies: Safety endpoints and potential adverse events related to the biomarker's use should be actively monitored and evaluated over the course of longitudinal studies.
+6. Regulatory approval: From a safety reassessment perspective, obtaining regulatory approval for the biomarker should involve thorough documentation and evaluation of its safety profile, as well as adherence to regulatory guidelines for safety assessments.
+By incorporating these considerations into the validation process, researchers can ensure that the potential biomarker not only demonstrates utility for the specific disease but also meets rigorous safety standards for its intended applications in clinical and research settings.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Explain how pathway analysis can be integrated into drug discovery.
+Orig Response: Pathway analysis plays a crucial role in drug discovery by providing insights into the underlying biological mechanisms and pathways involved in disease processes. By integrating pathway analysis into the drug discovery process, researchers can identify potential drug targets, understand the molecular pathways affected by disease, and prioritize candidate drugs for further development. Here are some ways in which pathway analysis can be integrated into drug discovery:
+1. Target Identification: Pathway analysis can help identify key molecular pathways that are dysregulated in a specific disease. By analyzing gene expression data or omics data (such as genomics, proteomics, or metabolomics), researchers can pinpoint potential drug targets within these pathways.
+2. Mechanism of Action: Understanding the molecular pathways involved in disease can provide insights into the mechanisms driving the pathology. Pathway analysis can help elucidate how drugs may modulate these pathways and provide a rationale for their therapeutic effects.
+3. Drug Repurposing: Pathway analysis can uncover potential connections between drugs and specific pathways, allowing researchers to identify existing drugs that may have unexplored therapeutic potential for different diseases.
+4. Biomarker Discovery: Pathway analysis can aid in the identification of biomarkers associated with disease progression or drug response. These biomarkers can be used for patient stratification in clinical trials or for monitoring treatment efficacy.
+5. Prioritization of Drug Candidates: Integrating pathway analysis with drug discovery efforts can help prioritize potential drug candidates based on their ability to modulate relevant pathways implicated in the disease.
+In summary, pathway analysis provides a powerful framework for understanding the complex molecular interactions underlying diseases and for informing drug discovery efforts. By leveraging this approach, researchers can make more informed decisions in prioritizing targets, identifying potential drug candidates, and understanding the mechanisms of action of novel therapies. 
+Perturbation (Technical Setbacks): Software Reliability - In the context of maintaining software reliability
+ In the context of maintaining software reliability, the focus of the response would need to shift to how pathway analysis can be integrated into ensuring the reliability and accuracy of the software used for drug discovery. This may involve discussing how pathway analysis tools and algorithms can be validated and verified to ensure their reliability in analyzing complex biological pathways, as well as emphasizing the importance of data integrity and reproducibility in pathway analysis to maintain the reliability of the software. Additionally, considerations for version control, testing procedures, and quality assurance measures specific to the software used for pathway analysis in drug discovery would be pertinent to address.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: How does phenotypic screening complement genotypic screening in drug discovery?
+Orig Response: Phenotypic screening and genotypic screening are two complementary approaches in drug discovery and development. Genotypic screening involves identifying potential drug targets based on genetic or genomic information, such as gene mutations or overexpression in disease-related pathways. On the other hand, phenotypic screening involves testing a large number of compounds for their ability to elicit a specific cellular or tissue response, without necessarily knowing the target or mechanism of action.
+Here's how they complement each other:
+1. Target identification and validation: Genotypic screening can help identify potential drug targets, but phenotypic screening can help validate these targets by identifying compounds that modulate the desired cellular phenotype, providing evidence of the relevance of the target in the disease process.
+2. Broad applicability: Phenotypic screening can lead to the identification of new drug targets or pathways that may not have been predicted based on genotypic information alone, providing a broader and more unbiased approach to drug discovery.
+3. Mechanism of action elucidation: Phenotypic screening can lead to the identification of compounds with desired effects, and subsequent genotypic screening can help elucidate their mechanisms of action by identifying their molecular targets or pathways.
+4. Addressing complex diseases: Phenotypic screening can be particularly useful in identifying compounds for complex diseases where the underlying genetic and molecular mechanisms are not fully understood, or where multiple pathways may be involved.
+In conclusion, while genotypic screening provides valuable insights into potential drug targets, phenotypic screening allows for the identification of compounds with desirable effects on cellular or tissue function, and the two approaches can be used in conjunction to enhance the drug discovery process. 
+Perturbation (Regulatory and Compliance): Regulation Update - Considering the need to meet new regulatory standards
+ Given the new regulatory standards, it's essential to highlight the importance of ensuring that both phenotypic and genotypic screening methods comply with the updated regulations. This may involve incorporating additional validation steps, ensuring data integrity, and adhering to the latest guidelines for drug discovery and development. Additionally, it's important to emphasize the need for transparency and reproducibility in both screening approaches to meet the regulatory requirements.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: What are the main challenges in translating in vitro findings to in vivo models?
+Orig Response: Translating in vitro findings to in vivo models presents several challenges in drug discovery and development:
+1. Complexity of biological systems: In vivo models are more complex than in vitro systems, as they involve interactions between multiple cell types, tissues, and organs. Therefore, the effects observed in an in vitro model may not fully represent what happens in a living organism.
+2. Pharmacokinetics and pharmacodynamics: In vivo models need to consider the absorption, distribution, metabolism, and excretion of the drug (pharmacokinetics) as well as the drug's effects on the body (pharmacodynamics). In vitro models may not capture these aspects accurately.
+3. Species differences: In vitro models are often based on human cells, while in vivo models may involve animal models. Species differences can impact drug metabolism, toxicity, and efficacy, making it challenging to directly translate findings from in vitro studies to in vivo settings.
+4. Experimental variability: In vitro experiments can be tightly controlled, but in vivo experiments are subject to greater variability due to factors such as genetics, environment, and individual variation among the test subjects.
+5. Ethical and practical considerations: In vivo studies raise ethical considerations related to the use of animal models, and these models may also be more costly and time-consuming to work with compared to in vitro systems.
+To address these challenges, researchers may employ a range of techniques, including utilizing multiple complementary in vitro models, incorporating human-relevant cell types and 3D culture systems into in vitro studies, optimizing experimental designs, and leveraging computational models to bridge the gap between in vitro and in vivo findings. Similarly, advancements in technologies such as microfluidics and organ-on-a-chip systems are helping to better mimic in vivo conditions in vitro, thereby improving the translatability of findings. 
+Perturbation (Human Resources): Team Rebuild - Considering the team structure post-key personnel changes
+ Given the change in circumstances for "Team Rebuild" and its focus on post-key personnel changes, the response should be adjusted to reflect the importance of ensuring that the expertise and knowledge of the remaining team members are effectively leveraged in addressing the challenges of translating in vitro findings to in vivo models. Additionally, the response may highlight the need for effective communication and collaboration within the team to ensure a smooth transition and continuity in drug discovery efforts.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Discuss how structural biology can aid in the design of a new drug.
+Orig Response: Structural biology plays a crucial role in the design of new drugs by providing detailed insights into the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids. Here's how it aids in the drug design process:
+1. Understanding the Target: Structural biology techniques, such as X-ray crystallography, nuclear magnetic resonance (NMR) spectroscopy, and cryo-electron microscopy, can be used to determine the three-dimensional structure of a target protein involved in a disease, such as an enzyme or receptor. This information helps in understanding the target's function, active site, and binding pockets, which are essential for designing drugs that can modulate its activity.
+2. Rational Drug Design: Once the structure of the target protein is known, computational methods can be used to design small molecule drug candidates that specifically interact with the target protein, either by inhibiting or enhancing its activity. Structure-based drug design (SBDD) involves using the structural information to rationally design molecules that fit into the binding site of the target protein, leading to the development of more potent and selective drugs.
+3. Virtual Screening: Structural information can guide virtual screening efforts, where large libraries of chemical compounds are computationally screened to identify potential drug candidates that can bind to the target protein. By considering the structural features of the target protein, virtual screening can narrow down the search space for potential drug candidates, saving time and resources in the drug discovery process.
+4. Understanding Drug-Target Interactions: Structural biology also helps in understanding the molecular interactions between drug candidates and their target proteins at an atomic level. This knowledge is crucial for optimizing the drug's potency, selectivity, and pharmacokinetic properties, leading to the development of more effective and safer drugs.
+5. Overcoming Drug Resistance: By elucidating the structural basis of drug resistance in pathogens or cancer cells, structural biology can aid in the design of new drugs or drug combinations that can overcome resistance mechanisms, improving the efficacy of treatments.
+In summary, structural biology is integral to the drug discovery process, providing valuable insights into the molecular basis of disease and enabling the rational design of new drugs with improved potency, selectivity, and therapeutic potential. 
+Perturbation (Data Quality and Integrity): Misinformation Correction - Considering the detected data inaccuracies
+ Upon reviewing the detected data inaccuracies, I would like to correct the previous response. While it accurately describes the role of structural biology in the drug design process, I will revise the information for accuracy.
+Structural biology involves various techniques, such as X-ray crystallography, cryo-electron microscopy, and nuclear magnetic resonance (NMR) spectroscopy, to determine the three-dimensional structures of biological macromolecules, such as proteins and nucleic acids. The accurate depiction of these techniques and their applications will provide the most reliable and informative insights into drug design and discovery.
+Additionally, it's important to emphasize that structural biology enables not only the understanding of the target and rational drug design but also the exploration of protein-ligand interactions, virtual screening, and overcoming drug resistance. By utilizing structural biology to its full potential, researchers can obtain crucial details that significantly impact the development of new drugs and the improvement of existing treatments.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Provide a summary of the gene POLR3E, including its functions, mechanisms, and classifications. 
+Orig Response: The POLR3E gene encodes a subunit of RNA polymerase III, which is responsible for transcribing a variety of small non-coding RNAs. These include transfer RNAs (tRNAs), small ribosomal RNAs (sRNAs), and other small regulatory RNAs. The POLR3E protein is a part of the RNA polymerase III complex and is involved in the initiation and termination of RNA transcription.
+Functionally, POLR3E plays a crucial role in the accurate transcription of these small RNAs, which are essential for protein synthesis and other cellular processes. Defects in POLR3E can lead to disruption of normal RNA transcription, which can contribute to various developmental and neurological disorders.
+POLR3E is classified as a protein-coding gene, specifically as a subunit of RNA polymerase III, and its dysfunction can lead to a range of molecular and cellular consequences. Studying POLR3E and its associated pathways is important for understanding gene expression regulation and for potential therapeutic interventions, particularly in the context of developmental disorders and neurodegenerative diseases. 
+Perturbation (Data Quality and Integrity): Data Reliability Check - In the context of data integrity verification
+ In the context of data reliability verification, it's important to note that the information provided about the POLR3E gene is based on current understanding and scientific evidence. If there are specific data integrity checks or updates required for the gene's functions, mechanisms, or classifications, it would be necessary to perform a thorough review of the latest literature and genomic databases to ensure the accuracy and reliability of the information provided. Additionally, consulting with domain experts and referencing authoritative genomic resources would be essential to validate the details about POLR3E.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Summarize the direct or indirect role of the gene POLR3E in cancer, detailing its mechanisms and interactions with other genes.
+Orig Response: POLR3E encodes a subunit of RNA polymerase III, which transcribes small non-coding RNAs. In cancer, dysregulation of POLR3E has been linked to various pathways. Some studies suggest that POLR3E mutations can lead to impaired transcription of non-coding RNAs, contributing to cancer progression. Additionally, POLR3E mutations have been associated with altered expression of genes involved in cell growth, differentiation, and apoptosis, thereby influencing cancer development. Interactions between POLR3E and other genes are likely in pathways related to RNA transcription and regulation. Further research is needed to fully understand the specific mechanisms and interactions involved in POLR3E's role in cancer. 
+Perturbation (Crisis and Risk Management): Safety Reassessment - In the context of project safety reassessment
+ In the context of project safety reassessment, the response should focus on the potential implications of POLR3E dysregulation in cancer in terms of drug discovery and therapeutic interventions, as well as any safety considerations related to targeting POLR3E for cancer treatment. It is important to assess the impact of targeting POLR3E on normal cellular functions and to consider potential off-target effects of any therapeutic interventions. It may also be relevant to explore safety parameters and potential biomarkers for monitoring the safety and efficacy of any drug targeting POLR3E.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Determine if the gene POLR3E is an oncogene
+Orig Response: POLR3E is a subunit of RNA polymerase III, which is an enzyme involved in the transcription of small non-coding RNAs. To determine if the gene POLR3E is an oncogene, we typically look at experimental evidence from cell and animal models, as well as clinical data from cancer patients.
+Currently, there is limited evidence to suggest that POLR3E is an oncogene. Based on existing studies and databases such as COSMIC and TCGA, POLR3E mutations or dysregulation are not commonly associated with cancer development.
+However, it's important to note that our understanding of oncogenes is constantly evolving, and new research may uncover previously unknown roles for genes in cancer. Therefore, ongoing research in the field of cancer genomics and functional studies will continue to provide more insights into the potential oncogenic properties of POLR3E. 
+Perturbation (Crisis and Risk Management): Emergency Response - Considering the initiation of emergency protocols
+ In the context of an emergency response, it's crucial to expedite the assessment of POLR3E as an oncogene to potentially expedite drug discovery or treatment options. Given the urgency, it would be important to leverage advanced computational and data-driven approaches to rapidly analyze large-scale cancer genomics datasets, including identifying any potential associations between POLR3E and cancer. Additionally, collaboration with domain experts and leveraging advanced AI and machine learning algorithms may help uncover any previously unknown roles of POLR3E in cancer development. This expedited approach would align with emergency protocols by providing a rapid and comprehensive analysis of the potential oncogenic properties of POLR3E.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Identify the cancer indications or types that the gene POLR3E has been associated with.
+Orig Response: The gene POLR3E, which encodes a subunit of RNA polymerase III, has been associated with several cancer indications or types. Research has linked POLR3E to various cancers, including but not limited to breast cancer, ovarian cancer, and colorectal cancer. Aberrant expression or mutations in POLR3E may contribute to the development and progression of these cancers. Additionally, POLR3E has been implicated in other cancer types, and ongoing research may continue to uncover its role in different cancer indications. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+ In the context of adjusted funding levels, it's important to note that research on the gene POLR3E and its associations with cancer indications may be affected. The response should now incorporate the potential impact of funding changes on the availability of research resources and the pace of scientific discoveries related to POLR3E's role in cancer. It's crucial to highlight the potential need for prioritization and allocation of resources to ensure continued advancements in understanding the link between POLR3E and various cancer types despite funding adjustments.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Provide relevant networks from any relevant database for the known mechanism and interactions of the gene POLR3E.
+Orig Response: There are multiple databases where you can obtain relevant networks for the gene POLR3E. Some of the popular databases include STRING, GeneMANIA, and BioGRID. These databases provide protein-protein interaction networks, gene co-expression networks, and other functional association networks that can help you understand the mechanism and interactions of the POLR3E gene.
+In these networks, POLR3E would be connected to other genes or proteins based on experimental evidence, computational predictions, co-expression patterns, and other types of functional associations. These networks can provide valuable insights into the roles and interactions of POLR3E within cellular pathways and biological processes.
+I can also help you in analyzing and interpreting the networks obtained from these databases if you need assistance in understanding the biological implications of the interactions of POLR3E. 
+Perturbation (Operational Efficiency): Workflow Optimization - Due to the opportunity for workflow optimization
+ In the context of workflow optimization, you may be interested in using computational tools and algorithms to streamline the retrieval and analysis of relevant networks for the gene POLR3E. In this case, I can provide guidance on utilizing automated scripts or pipelines to access the desired databases, extract the relevant network data, and perform initial analysis or visualization of the resulting networks. This approach can help optimize your process for obtaining and interpreting the gene interaction networks efficiently.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: List key publications related to the gene POLR3E, providing links where available.
+Orig Response: Here are a few key publications related to the gene POLR3E:
+1. "Mutations in POLR3A and POLR3B are a major cause of hypomyelinating leukodystrophies with or without dental abnormalities and/or hypogonadotropic hypogonadism." Huang Y et al. J Med Genet. 2019. [PubMed](https://pubmed.ncbi.nlm.nih.gov/30796115/)
+2. "Hypomyelinating leukodystrophy-associated POLR3A and POLR3B mutations reduce RNA polymerase III activity." Saitsu H et al. Human mutation. 2011. [PubMed](https://pubmed.ncbi.nlm.nih.gov/21896127/)
+3. "RNA polymerase III and its associated factors." Dumay-Odelot H et al. BAG J. 2010. [PubMed](https://pubmed.ncbi.nlm.nih.gov/20844618/)
+These publications provide valuable insights into the role of POLR3E gene mutations in hypomyelinating leukodystrophies and related conditions. 
+Perturbation (Regulatory and Compliance): Legal Shift - Due to new legal precedents affecting our procedures
+ Due to the legal shift affecting procedures, it is necessary to refrain from providing direct links to the publications. Instead, I recommend stating the titles and authors of the publications, and encouraging the individual to search for them using appropriate databases or platforms. Let me know if you need further assistance.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Give me a list of pseudokinase genes 
+Orig Response: Here are some well-known pseudokinase genes:
+1. Pseudoephedrine Kinase (PSEK)
+2. Serine/Threonine-Protein Pseudo Kinase (STPK)
+3. Pseudokinase 3 (PSDK3)
+4. Mitogen-activated Pseudo Kinase 1 (MAPK1)
+5. Pseudokinase Kinase 2 (PSKK2)
+Pseudokinases are proteins that structurally resemble kinases but lack catalytic activity. They have important functions in signaling pathways and cellular processes despite their lack of kinase activity. If you need further details about specific pseudokinases or additional pseudokinase genes, feel free to ask! 
+Perturbation (Crisis and Risk Management): Emergency Response - Considering the initiation of emergency protocols
+ In an emergency response situation, providing a list of pseudokinase genes may not be directly relevant. Instead, it would be more important to focus on specific information related to the emergency, such as emergency protocols, safety measures, evacuation procedures, or any other relevant information to ensure the safety and well-being of individuals involved in the emergency. If there are specific questions related to emergency response or safety protocols, feel free to ask, and I can provide appropriate information.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Propose a strategy to use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease
+Orig Response: To use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease, the first step would be to identify the specific gene or genes associated with the disease. One of the genes frequently implicated in Alzheimer's disease is the gene encoding the amyloid precursor protein (APP).
+Once the target gene has been identified, the next step would be to design a guide RNA (gRNA) that is complementary to the DNA sequence within the gene that we want to modify. The gRNA will guide the Cas9 enzyme to the correct location in the genome.
+The delivery of CRISPR-Cas9 components to the targeted cells is a crucial aspect. Depending on the context, this could involve using viral vectors, nanoparticles, or other delivery methods to ensure that the CRISPR-Cas9 components reach the desired brain cells efficiently and effectively.
+After the CRISPR-Cas9 components have been delivered to the cells, the Cas9 enzyme will create a double-strand break at the targeted location within the gene. This break will activate the cell's natural DNA repair mechanisms, which can be harnessed to introduce specific changes to the gene.
+In the context of Alzheimer's disease, potential strategies for gene editing could include:
+1. Inhibiting the production of amyloid beta peptides by disrupting the cleavage sites within the APP gene.
+2. Correcting disease-associated mutations within the APP gene using CRISPR-Cas9 gene editing to restore normal protein function.
+3. Modifying genes related to neuroinflammation, oxidative stress, or other aspects of Alzheimer's pathology to mitigate disease progression.
+Finally, it is essential to rigorously assess the specificity and off-target effects of CRISPR-Cas9 editing to ensure minimal unintended genetic alterations. This can be achieved through advanced genome sequencing and off-target analysis techniques.
+In summary, using CRISPR-Cas9 for editing genes implicated in Alzheimer's disease holds great potential for developing targeted therapies. However, extensive preclinical and clinical research is necessary to validate the safety and efficacy of this approach before it can be applied in the clinical setting. 
+Perturbation (Crisis and Risk Management): Emergency Response - Considering the initiation of emergency protocols
+ In the context of an emergency response, speed and efficiency become critical factors. Therefore, the strategy for using CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease should prioritize rapid deployment and the potential for immediate impact.
+Delivery of CRISPR-Cas9 components should be optimized for quick and targeted delivery to the affected brain cells. This may involve leveraging the most effective and expedient delivery methods, such as viral vectors or nanoparticles with proven ability to cross the blood-brain barrier.
+Additionally, given the urgency of the situation, the focus might shift to targeting the most critical and well-established gene targets, such as those directly involved in the production of amyloid beta peptides or other key pathological mechanisms in Alzheimer's disease.
+Furthermore, in the emergency context, it may be important to prioritize gene editing strategies that are most likely to have direct therapeutic implications, such as those that can immediately reduce the production of harmful proteins or restore normal protein function.
+The assessment of specificity and off-target effects should still be considered, but in an emergency, the balance between speed and safety must be carefully managed, and the risk-benefit analysis should emphasize the potential for therapeutic benefit in the immediate term.
+In summary, adapting the strategy for using CRISPR-Cas9 in an emergency response requires a focus on rapid delivery, targeting well-established gene targets, and prioritizing gene editing approaches with the most immediate therapeutic potential while still considering safety implications.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Develop a series of siRNA sequences to target and knock down a specific oncogene
+Orig Response: Designing siRNA sequences to target and knock down a specific oncogene requires careful consideration of the target gene's mRNA sequence to ensure specific and effective knockdown. Additionally, it's important to consider potential off-target effects and ensure the siRNA sequences are designed for optimal knockdown efficiency.
+Here's a general outline for developing siRNA sequences to target a specific oncogene:
+1. Target Identification: Identify the specific oncogene that you want to target for knockdown. Obtain the mRNA sequence of the oncogene from a reliable sequence database such as NCBI or Ensembl.
+2. Sequence Selection: Use bioinformatics tools or siRNA design software to identify potential siRNA sequences that target the mRNA sequence of the oncogene. Ensure that the selected siRNA sequences have high target specificity and minimal off-target effects. Criteria for selection may include GC content, off-target predictions, and secondary structure analysis.
+3. Off-Target Analysis: Perform off-target analysis to check for potential binding sites of the selected siRNA sequences in other genes. Avoid selecting sequences with significant homology to non-target genes to minimize off-target effects.
+4. siRNA Design: Design the siRNA sequences with the following characteristics:
+   - 19-21 nucleotide length with a 2-nucleotide overhang on the 3' end for improved stability and efficacy.
+   - GC content around 50-55% to optimize duplex stability.
+   - Avoidance of sequences with significant self-complementarity or secondary structure to prevent unintended interactions.
+5. In Silico Validation: Validate the selected siRNA sequences in silico to ensure that they specifically target the oncogene mRNA and do not have significant off-target effects.
+6. Experimental Validation: Once the siRNA sequences are designed and validated in silico, experimental validation should be performed using cell culture models or animal models to confirm their efficacy in knocking down the target oncogene.
+It's important to note that experimental validation is crucial to ensure the effectiveness of the designed siRNA sequences in knocking down the specific oncogene. Additionally, optimizing siRNA delivery methods and assessing potential off-target effects in cellular or animal models is essential for successful knockdown of the oncogene. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+ In the context of adjusted funding levels, it's important to consider cost-effective approaches to siRNA design and experimental validation. Here are some potential adjustments to the response:
+1. Target Identification: Prioritize the selection of a specific oncogene that is well-established in the literature and has strong evidence supporting its significance in cancer. This can minimize the need for extensive preliminary experimental studies, thus reducing costs.
+2. Off-Target Analysis: Utilize publicly available bioinformatics tools for off-target analysis to minimize the need for expensive commercial software or services.
+3. siRNA Design: Opt for simpler design approaches that do not require costly licensing or proprietary algorithms. Open-source or freely available siRNA design tools can be utilized to design effective siRNA sequences.
+4. In Silico Validation: Rely on open-access databases and software for in silico validation of siRNA sequences, avoiding costs associated with proprietary software or services.
+5. Experimental Validation: Consider utilizing cost-effective in vitro cell culture models for initial experimental validation, and if possible, collaborate with academic or research institutions for shared resources and reduced experimental costs.
+In the face of adjusted funding levels, collaboration with other research groups, universities, or industry partners can also be explored to share resources, expertise, and costs associated with experimental validation.
+Adapting to lower funding levels may require creative solutions, such as strategic collaborations, leaner experimental designs, and the use of open-access resources to optimize the design and validation of siRNA sequences for targeting and knocking down a specific oncogene.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Design a high-throughput screening (HTS) assay to identify small molecule inhibitors of a novel protein target believed to be involved in cancer cell proliferation
+Orig Response: To design a high-throughput screening (HTS) assay, several steps need to be considered:
+1. Assay Selection: Choose an appropriate assay type based on the target and available resources. For a novel protein target involved in cancer cell proliferation, a biochemical or cell-based assay could be suitable.
+2. Assay Development: Develop the assay by optimizing conditions that ensure robust and reproducible results. For example, for a biochemical assay, it may involve determining the optimal substrate concentration, enzyme concentration, and assay buffer conditions. For a cell-based assay, it may involve optimizing cell density, reagent concentrations, and incubation times.
+3. Library Selection: Choose a diverse and representative compound library for screening. This could include small molecule libraries, natural product libraries, or even fragment libraries.
+4. Screening Conditions: Set up the appropriate screening conditions, including reaction volumes, incubation times, and detection methods. For a biochemical assay, this could involve setting up microplate formats for screening using a spectrophotometric or fluorometric readout. For a cell-based assay, this could involve assay miniaturization and optimization of incubation times to increase throughput.
+5. Data Analysis: Establish a robust data analysis pipeline to effectively process and analyze screening results. This may involve setting up appropriate data analysis software and statistical methods to identify hits.
+Given the complex nature of cancer cell proliferation, a cell-based assay is likely to be more relevant for identifying potential small molecule inhibitors. This assay would involve culturing cancer cells in multi-well plates, treating them with test compounds, and then quantifying cell viability or proliferation using a readout such as a metabolic assay (e.g., MTS or ATP assay) or a high-content imaging system.
+Once the assay is established, it can be used to screen large compound libraries to identify potential small molecule inhibitors of the novel protein target. Hits from the primary screening can then be validated through secondary assays to confirm specificity and activity.
+As an exceptional computational biologist and genomics expert, you have the expertise to design, optimize, and implement high-throughput screening assays to identify small molecule inhibitors for novel cancer targets. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+ In the context of adjusted funding levels, it's essential to adapt the high-throughput screening (HTS) assay design to optimize resources and maximize efficiency. Here are some considerations for the response:
+1. Assay Selection: Consider using existing assay platforms or collaborations with research institutions or pharmaceutical companies to access established assay technologies, which can minimize the cost of assay development.
+2. Library Selection: Prioritize the use of in-house compound libraries or open-access compound collections to reduce costs associated with purchasing commercial compound libraries. Collaborations with other research groups may also provide access to compound libraries at a lower cost.
+3. Screening Conditions: Optimize and miniaturize the screening conditions to reduce reagent consumption and increase throughput. This may involve using smaller reaction volumes, microplate formats, and automation wherever possible.
+4. Data Analysis: Leverage open-source or freely available data analysis tools and platforms to minimize software licensing costs. Also, consider collaborations with bioinformatics groups for data analysis support.
+In the context of adjusted funding levels, resourcefulness and collaboration will be key in designing a cost-effective HTS assay to identify small molecule inhibitors of the novel protein target involved in cancer cell proliferation.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Propose a strategy for developing an antibody-drug conjugate targeting a specific antigen overexpressed in a type of breast cancer
+Orig Response: Developing an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer requires a comprehensive approach that includes target selection, antibody development, linker-payload design, and preclinical/clinical validation. Here's a proposed strategy for this:
+1. Target Selection:
+   - Identify the specific antigen that is overexpressed in the type of breast cancer of interest. This can be done through genomic, transcriptomic, and proteomic analysis of patient samples. Candidate antigens should be associated with cancer cell proliferation, survival, and metastasis.
+   - Validate the therapeutic potential of the selected antigen using in vitro and in vivo models to ensure that targeting this antigen will lead to a meaningful therapeutic effect.
+2. Antibody Development:
+   - Generate monoclonal antibodies against the selected antigen using hybridoma technology, phage display, or other antibody discovery platforms.
+   - Screen and characterize candidate antibodies for specificity, binding affinity, internalization, and minimal off-target effects.
+   - Optimize the lead antibody's properties for ADC development, including humanization to reduce immunogenicity and engineering for stable conjugation with a linker-payload.
+3. Linker-Payload Design:
+   - Select an appropriate linker-payload system that allows for efficient conjugation to the antibody, stability in circulation, and release of the cytotoxic payload in the target cancer cells.
+   - Consider the payload's mechanism of action, potency, and selectivity to ensure its efficacy against the antigen-expressing cancer cells.
+4. Preclinical Validation:
+   - Assess the in vitro cytotoxicity and specificity of the ADC against breast cancer cell lines overexpressing the target antigen.
+   - Evaluate the in vivo efficacy of the ADC in xenograft models using patient-derived tumor xenografts (PDX) or genetically engineered mouse models (GEMM) that recapitulate the relevant features of the disease.
+5. Clinical Translation:
+   - Initiate clinical trials to evaluate the safety, pharmacokinetics, pharmacodynamics, and efficacy of the ADC in patients with the specific type of breast cancer.
+   - Stratify patient populations based on the level of antigen expression to identify subgroups most likely to benefit from the treatment.
+   - Consider combination therapy with standard-of-care treatments to enhance the therapeutic outcome.
+Throughout the development process, it's crucial to continually assess the pharmacokinetic properties, conjugation stability, and safety profile of the ADC while optimizing its efficacy against the target antigen-expressing breast cancer cells. Additionally, leveraging cutting-edge genomics and computational tools can aid in patient stratification, biomarker discovery, and rational design for improved clinical outcomes. 
+Perturbation (Technological Advances): Tech Adaptation - Due to breakthrough technology integration
+ Incorporate breakthrough technology such as machine learning, artificial intelligence, and high-throughput screening into various stages of the ADC development process. Utilize these technologies for antigen selection, antibody development, linker-payload design, and preclinical validation to accelerate the identification of promising candidates and enhance the efficiency of the overall process. This can involve utilizing AI algorithms to analyze large datasets for antigen selection, predicting antibody-antigen binding affinity and specificity, and optimizing linker-payload interactions for improved stability and efficacy. Additionally, high-throughput screening technologies can be leveraged to rapidly assess the cytotoxicity, specificity, and pharmacokinetic properties of potential ADC candidates, accelerating the preclinical validation process. Integrating these cutting-edge technologies will expedite the development of a highly targeted and efficacious ADC for the specific type of breast cancer in question.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Outline a pharmacokinetic study design for a new oral antidiabetic drug
+Orig Response: Sure, a pharmacokinetic study for a new oral antidiabetic drug would aim to assess how the drug is absorbed, distributed, metabolized, and excreted by the body. The study design would typically involve the following key elements:
+1. Study Population: It's important to include a representative sample of the target population for the antidiabetic drug, such as individuals with type 2 diabetes. The study may exclude individuals with significant comorbidities or those taking medications that could interfere with the drug's pharmacokinetics.
+2. Dose Selection: Determine the dose levels to be tested based on preclinical data and safety considerations. Typically, multiple dose levels are evaluated to establish the drug's pharmacokinetic profile across a range of concentrations.
+3. Study Design: A randomized, crossover study design may be used, where each participant receives all dose levels of the drug in a randomized sequence, with a washout period between doses to eliminate any residual effects of the previous dose. Alternatively, a parallel-group design may be considered for practical or ethical reasons.
+4. Sample Collection: Blood samples should be collected at specific time points following drug administration to capture the drug's concentration over time. Additional samples for assessing metabolites or other pharmacokinetic parameters may also be collected.
+5. Analytical Methods: Ensure that sensitive and specific analytical methods are in place to accurately measure the drug and its metabolites in biological samples. This may involve the use of techniques such as liquid chromatography-mass spectrometry (LC-MS) or enzyme-linked immunosorbent assays (ELISA).
+6. Pharmacokinetic Parameters: The following parameters should be calculated from the drug concentration-time data, including but not limited to, maximum concentration (Cmax), time to reach Cmax (Tmax), area under the concentration-time curve (AUC), half-life, and clearance.
+7. Statistical Analysis: Statistical analysis of the pharmacokinetic data will be essential to compare the pharmacokinetic parameters between different dose levels and assess factors influencing drug absorption, distribution, metabolism, and excretion.
+8. Safety Monitoring: Monitor participants for adverse events and assess safety parameters such as vital signs, ECG, and laboratory tests to ensure the drug is well-tolerated.
+9. Data Interpretation: The pharmacokinetic data should be interpreted in the context of the drug's therapeutic target and efficacy. Understanding how the drug's pharmacokinetic profile relates to its pharmacodynamic effects is crucial for dose optimization and clinical use.
+Overall, a well-designed pharmacokinetic study will provide valuable insights into the behavior of the oral antidiabetic drug in humans and guide subsequent clinical development and dosing strategies. 
+Perturbation (Data Quality and Integrity): Data Reliability Check - In the context of data integrity verification
+ In the context of data reliability verification, the pharmacokinetic study design for a new oral antidiabetic drug would need to incorporate additional measures to ensure the integrity and reliability of the data generated. This may include the following considerations:
+1. Quality Assurance Plan: Clearly outline the quality assurance measures that will be implemented throughout the study, including standard operating procedures for sample collection, handling, storage, and analysis. The plan should ensure traceability and minimize the risk of errors or contamination.
+2. Data Monitoring and Auditing: Implement systems for ongoing data monitoring and auditing to detect any anomalies or inconsistencies in the pharmacokinetic data. Independent audits of study procedures and data collection processes may also be warranted to provide an extra layer of assurance.
+3. Analytical Validation: Validate the analytical methods used for drug quantification to ensure accuracy, precision, specificity, and sensitivity. This may involve conducting validation studies using quality control samples and reference standards to verify the reliability of the analytical measurements.
+4. Data Integrity Checks: Incorporate checks for data integrity, such as ensuring the completeness, consistency, and accuracy of the collected pharmacokinetic data. Use of electronic data capture systems with built-in validation checks can help minimize data entry errors.
+5. Documentation and Record-Keeping: Maintain comprehensive documentation of all study procedures, including data collection forms, analytical results, and any deviations from the protocol. Good documentation practices are critical for data reliability and traceability.
+6. Adherence to Regulatory Guidelines: Ensure that the pharmacokinetic study adheres to relevant regulatory guidelines for data integrity and reliability, such as Good Laboratory Practice (GLP) or Good Clinical Practice (GCP) standards.
+By incorporating these additional measures, the pharmacokinetic study can bolster the reliability and integrity of the data generated, enhancing confidence in the pharmacokinetic profile of the new oral antidiabetic drug.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Describe the process of building a chemogenomics model to predict drug-target interactions.
+Orig Response: Building a chemogenomics model to predict drug-target interactions involves several steps, utilizing both biological and computational techniques. Here's an outline of the general process:
+1. Data Collection:
+   - Gather comprehensive datasets of chemical compounds (drugs) and their corresponding target proteins, including binding affinities or activity measurements.
+   - Collect genomic and proteomic data, such as gene expression profiles, protein sequences, and structural information of target proteins.
+2. Data Preprocessing:
+   - Standardize and curate the chemical and biological data to ensure quality and consistency.
+   - Perform feature engineering to extract relevant molecular descriptors from chemical structures and identify genomic features that influence target interactions.
+3. Designing the Model:
+   - Choose appropriate machine learning algorithms, such as random forest, support vector machines, or deep learning models, to build the predictive model.
+   - Integrate chemical and genomic features into a unified framework to capture the complex relationships between drugs and targets.
+4. Training the Model:
+   - Split the data into training and validation sets.
+   - Train the model on the training dataset, optimizing parameters and hyperparameters using cross-validation techniques.
+   - Evaluate the model's performance using metrics like accuracy, precision, recall, and area under the receiver operating characteristic curve (AUC-ROC).
+5. Model Validation and Evaluation:
+   - Validate the model on an independent test set to assess its generalizability.
+   - Assess the model's predictive power through cross-validation and benchmarking against known drug-target interactions.
+6. Model Interpretation and Application:
+   - Interpret the model to identify important features and insights into drug-target interactions.
+   - Apply the model to predict novel drug-target interactions, prioritize potential drug candidates, and understand the mechanisms underlying drug efficacy and safety.
+Overall, building a chemogenomics model involves a multidisciplinary approach that combines computational biology, bioinformatics, chemoinformatics, and machine learning to uncover the complex relationships between drugs and their molecular targets. 
+Perturbation (Crisis and Risk Management): Risk Containment - Due to predictive model warnings of elevated risk
+ In the event of predictive model warnings of elevated risk, the focus of the response should shift towards the importance of rigorous validation, comprehensive risk assessment, and potential mitigation strategies. This may include discussing the need for extensive validation and further testing to ensure the accuracy and reliability of the model's predictions. Additionally, there should be a focus on identifying potential mechanisms underlying the elevated risk and developing strategies to address and mitigate these concerns, such as conducting additional experiments, refining the model, or exploring alternative approaches to drug-target interaction prediction.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: How can computational models predict off-target effects of potential drug candidates?
+Orig Response: Computational models can be used to predict off-target effects of potential drug candidates through a variety of methods. One common approach is to utilize structure-based modeling, where the three-dimensional structures of both the drug candidate and potential off-target proteins are analyzed to predict potential interactions. This can be achieved through molecular docking simulations, where the drug candidate is computationally docked into the binding site of the off-target protein to assess the likelihood of binding and potential off-target effects.
+Another approach is ligand-based modeling, which involves analyzing the chemical and physical properties of the drug candidate and comparing them with known ligands of off-target proteins to predict potential interactions. This can be done using techniques such as quantitative structure-activity relationship (QSAR) modeling, where relationships between chemical structure and biological activity are examined to predict off-target effects.
+Additionally, network-based approaches can be used to predict off-target effects by analyzing protein-protein interaction networks and identifying potential interactions between the drug candidate and off-target proteins based on network connectivity and functional relationships.
+Furthermore, machine learning and data mining techniques can be applied to large-scale omics data to predict off-target effects by identifying patterns and associations between drug candidates and potential off-target proteins.
+By leveraging these computational methods, researchers can systematically assess the likelihood of off-target effects for potential drug candidates, enabling early identification and mitigation of safety concerns in the drug discovery process. 
+Perturbation (Resource Availability): Funding Adaptability - In the context of adjusted funding levels
+ In the context of adjusted funding levels, there may be a need to prioritize computational modeling approaches that are more cost-effective and efficient. This could involve focusing on using existing data and computational tools, as well as leveraging open-source software and databases to minimize costs. Additionally, there may be a greater emphasis on collaborative efforts and data sharing within the scientific community to make the most of limited resources.
+Furthermore, the use of high-performance computing resources and cloud-based solutions may need to be reconsidered to ensure that computational modeling for predicting off-target effects remains feasible within the constraints of the adjusted funding levels. Balancing cost-effectiveness with scientific rigor and accuracy will be essential to adapt to the changing funding landscape.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: What considerations are taken into account when selecting a delivery method for a new drug?
+Orig Response: When selecting a delivery method for a new drug, several considerations are taken into account, including:
+1. Target Tissue or Organ: The delivery method should be optimized to ensure that the drug reaches the specific tissue or organ where it is needed. Different delivery methods may be required for systemic delivery, localized delivery, or targeting specific cells or tissues.
+2. Pharmacokinetics and Pharmacodynamics: The drug's properties, such as solubility, stability, and half-life, influence the choice of delivery method. For example, for drugs with poor oral bioavailability, alternative routes of administration such as intravenous, transdermal, or inhalation may be considered.
+3. Patient Acceptance and Compliance: The ease of administration and patient preferences play a critical role in selecting the delivery method. For example, oral administration is generally preferred over injections for chronic treatments due to better patient acceptance and compliance.
+4. Drug Properties: The physicochemical properties of the drug, such as molecular weight, hydrophobicity, and chemical stability, influence the selection of delivery methods. For instance, large molecules may require alternative delivery methods such as nanoparticles or lipid-based carriers for effective delivery.
+5. Safety and Tolerability: The delivery method should be safe and well-tolerated by patients. Considerations related to potential adverse effects, local tissue irritation, and systemic toxicity are important in the selection of delivery methods.
+6. Regulatory Considerations: Regulatory requirements and guidelines may influence the choice of delivery method, especially in terms of approval process, manufacturing, and quality control.
+7. Cost and Scalability: The cost of production, scalability of the delivery method, and potential for commercialization are important considerations in selecting the optimal delivery method for a new drug.
+Overall, the selection of a delivery method for a new drug requires a comprehensive assessment of biological, chemical, pharmaceutical, and clinical factors to ensure effective and safe delivery to the target site. 
+Perturbation (Strategy Shifts): Rerouted Focus - Considering the realigned research targets post-management review
+ The response remains relevant to considerations for selecting a delivery method for a new drug, regardless of any realigned research targets post-management review. However, if there are specific changes or updates to the considerations in the context of the realigned research targets, those can be incorporated into the response as necessary.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Describe a strategy to screen for synergistic effects between drug candidates.
+Orig Response: One approach for screening for synergistic effects between drug candidates is to use a combination screening assay. This involves testing multiple combinations of drug candidates in various concentrations to determine if their combined effects are greater than the sum of their individual effects.
+To carry out this strategy, you might consider the following steps:
+1. Selection of Drug Candidates: Choose the drug candidates that are known to target different pathways or mechanisms of action. This increases the likelihood of identifying synergistic effects, as drugs acting on different targets are more likely to have complementary effects.
+2. Dose-response Curves: Generate dose-response curves for each drug candidate individually to determine their individual efficacies and establish the range of concentrations where they exhibit their effects.
+3. Combination Screening: Test combinations of the drug candidates at different concentrations using an appropriate screening assay, such as a cell viability assay or a reporter gene assay. This will allow you to assess the combined effects of the drugs and identify potential synergistic interactions.
+4. Data Analysis: Analyze the data to identify combinations that exhibit synergistic effects. Synergy can be assessed using various mathematical models, such as the Loewe additivity model or the Bliss independence model. These models allow for quantification of synergy and can help identify the most promising drug combinations.
+5. Mechanistic Studies: Once potential synergistic combinations are identified, further studies can be conducted to elucidate the mechanistic basis of the synergistic effects. This may involve understanding the interactions between the drugs at a molecular level, as well as their impact on cellular pathways.
+By employing these steps, you can systematically screen for synergistic effects between drug candidates and identify promising combinations for further development in the drug discovery process. 
+Perturbation (Operational Efficiency): Workflow Optimization - Due to the opportunity for workflow optimization
+ To optimize the workflow for screening synergistic effects between drug candidates, you could consider implementing high-throughput screening (HTS) techniques. HTS allows for the rapid screening of a large number of drug combinations, thus expediting the identification of synergistic interactions. Additionally, automation and robotics can be employed to streamline the experimental process, increasing throughput and efficiency. Furthermore, the integration of data analysis software can facilitate the rapid interpretation of results and the identification of promising synergistic drug combinations.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which mutations in PAS domain for the target protein exhibit high selectivity for the prostate cancer cell lines?
+Orig Response: Identifying specific mutations in the PAS domain of a target protein that exhibit high selectivity for prostate cancer cell lines would require a detailed analysis of the protein's structure and function, as well as comprehensive experimental validation. This is a complex and highly specialized research question that would typically involve techniques such as computational modeling, molecular dynamics simulations, mutagenesis studies, and high-throughput screening.
+To address this question, a comprehensive understanding of the protein's interaction with cellular pathways and signaling networks specific to prostate cancer would be essential. Additionally, a thorough review of existing literature on the PAS domain mutations and their effects on cancer cell lines, particularly prostate cancer, would be crucial.
+It's important to note that this type of investigation would likely involve a multidisciplinary approach, integrating computational biology, structural biology, cancer biology, and drug discovery expertise. Such a study would require significant resources and expertise to execute effectively. 
+Perturbation (Technical Setbacks): Equipment Downtime - Considering the impact of equipment downtime
+ Given the impact of equipment downtime, it's important to consider alternative approaches to studying mutations in the PAS domain for the target protein's selectivity for prostate cancer cell lines. In light of this, leveraging alternative computational methods, such as in silico modeling and virtual screening, offers a cost-effective and efficient means to explore potential mutations and their impact on cancer cell selectivity. Additionally, utilizing available databases and bioinformatics tools for mutation analysis and pathway mapping can provide valuable insights despite equipment limitations. While experimental validation remains crucial, optimizing computational strategies can help mitigate the impact of equipment downtime on research progress.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which BRCA gene structural variants in the ordered region affect its interaction with the paralogs?
+Orig Response: Several structural variants in the BRCA1 and BRCA2 genes have been found to affect their interaction with paralogs. For example, in BRCA1, certain missense mutations within the BRCT domain have been shown to disrupt the interaction with the BRCA1-associated RING domain 1 (BARD1) protein, which is a paralog of BRCA1. Additionally, certain large deletions or duplications within the BRCA1 and BRCA2 genes can also disrupt their interaction with paralogs, leading to functional consequences in DNA repair and cell cycle regulation. These structural variants can have implications for cancer risk and response to targeted therapies. Understanding the impact of these variants on protein-protein interactions is crucial for predicting their functional consequences and developing precision medicine approaches for patients with these variants. 
+Perturbation (Data Quality and Integrity): Data Reliability Check - In the context of data integrity verification
+ In the context of data integrity verification, it's important to note that the specific structural variants affecting the interaction of BRCA genes with paralogs may vary based on the precise genetic context and the availability of experimental evidence. Therefore, it's essential to rely on robust experimental data and validated sources to ascertain the impact of structural variants on protein interactions. Additionally, integrating data from high-quality genomic databases and functional studies is crucial for accurately determining the effects of genetic variants on gene functions and their interactions with paralogs.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which tissues in patients have gene set enrichment profile similar to experiment in NCBI GEO ID GSE249645?
+Orig Response: I'm sorry, but I do not have direct access to specific databases such as NCBI GEO to retrieve data based on a specific GEO ID. However, in general, gene set enrichment analysis (GSEA) can be used to compare the gene expression profiles in different tissues or conditions. If you have specific gene expression data from GSE249645, you can use GSEA tools to analyze the data and identify tissues or conditions with similar gene set enrichment profiles. Tools such as GSEA software, Enrichr, or other bioinformatics platforms can help in this analysis. 
+Perturbation (Technical Setbacks): Software Reliability - In the context of maintaining software reliability
+ In the context of maintaining software reliability, the response should highlight the importance of using reliable and validated bioinformatics tools, such as GSEA software, Enrichr, or other reputable bioinformatics platforms, to analyze the gene expression data from GSE249645. It's crucial to ensure that the tools used for gene set enrichment analysis are trustworthy and provide accurate results for meaningful interpretation. Additionally, considering the reproducibility of the analysis and the potential impact of technical variability in gene expression data is essential for reliable results.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Original Question: Which protein domains of the target are enriched for pathogenic mutations in the breast cancer patients?
+Orig Response: The enrichment of pathogenic mutations in specific protein domains of a target gene in breast cancer patients can be identified through various approaches in computational biology and genomics.
+One approach involves analyzing publicly available databases such as the Catalog of Somatic Mutations in Cancer (COSMIC), The Cancer Genome Atlas (TCGA), or the International Cancer Genome Consortium (ICGC) to identify the distribution and frequency of mutations within different protein domains of the target gene in breast cancer patients.
+Additionally, bioinformatics tools and databases such as Pfam, InterPro, or PROSITE can be used to annotate protein domains in the target gene and to analyze the enrichment of pathogenic mutations within these domains.
+Furthermore, leveraging machine learning algorithms and statistical methods can provide insights into the prediction of pathogenic mutations within specific protein domains based on the genetic and clinical data of breast cancer patients.
+By integrating these approaches, computational biologists can identify the protein domains of the target gene that are enriched for pathogenic mutations in breast cancer patients, potentially leading to the discovery of novel therapeutic targets and the development of precision medicine approaches. 
+Perturbation (Resource Availability): Resource Allocation - Considering the reallocation of resources
+ In the context of resource allocation, it's important to prioritize the most efficient and impactful approaches for identifying protein domains enriched for pathogenic mutations in breast cancer patients. Therefore, the response should focus on leveraging publicly available databases and bioinformatics tools to analyze the distribution and frequency of mutations within different protein domains of the target gene in breast cancer patients. This approach can provide valuable insights without requiring extensive resources for experimental validation or complex computational analyses. Additionally, it's important to emphasize the potential impact of identifying enriched protein domains in guiding drug discovery efforts and precision medicine approaches for breast cancer treatment.
+Knowledgebase Content: {'experts': [{'name': 'Dr. Jane Smith', 'specialization': 'Biomedical Researcher', 'background': 'Ph.D. in Biomedical Sciences, expertise in genetic markers for neurodegenerative diseases', 'experience': "Led project on identifying new targets for Alzheimer's treatment; Contributed to research on the genetic basis of Parkinson's disease", 'notes': 'Renowned for her work on molecular pathways involved in neurodegeneration', 'publications': ['Genetic Pathways in Age-Related Neurodegeneration', "Molecular Genetics of Parkinson's Disease"], 'projects': [{'title': 'Multi-Institutional Collaboration on Neurodegenerative Drug Targets', 'description': 'A project involving collaboration with several universities to identify novel drug targets for neurodegenerative diseases.', 'outcome': 'Identified three potential targets, currently in pre-clinical trials.'}]}, {'name': 'Dr. Aaron Lee', 'specialization': 'Bioinformatician', 'background': 'Ph.D. in Bioinformatics, specializes in genomic data analysis', 'experience': 'Developed algorithms for predicting drug efficacy based on genomic data; Worked on large-scale genomic databases for cancer research', 'notes': 'Pioneer in integrating AI with genomic data for personalized medicine', 'publications': ['Integrative Approaches in Genomic Data Analysis', 'AI in Genomic Medicine'], 'projects': [{'title': 'Genomic Data Analysis for Personalized Cancer Therapy', 'description': 'Developing personalized therapy protocols based on genomic data analysis in collaboration with a leading oncology research center.', 'outcome': 'Resulted in a 20% increase in treatment efficacy in early trials.'}]}], 'software_tools': [{'name': 'MolModelX', 'description': 'A molecular modeling tool for simulating drug-protein interactions', 'use_case': 'Identifying potential binding sites on target proteins', 'features': 'High-accuracy simulation, dynamic modeling of molecular interactions', 'limitations': 'Requires high computational power for complex simulations'}, {'name': 'GeneDataAnalyzer', 'description': 'Bioinformatics platform for analyzing gene expression data', 'use_case': 'Identifying gene expression changes in response to drug candidates', 'features': 'Advanced data visualization tools, support for multiple genomic data types', 'limitations': 'Limited to certain types of genomic data'}, {'name': 'DrugTargetPredictor', 'description': 'In-house AI-driven tool for predicting potential drug targets based on genetic data', 'use_case': 'Used in early-phase drug discovery to streamline target identification', 'features': 'Utilizes machine learning algorithms, integrates various genetic databases', 'limitations': 'Currently in experimental stage, limited external validation'}, {'name': 'ChemSynthAssist', 'description': 'Custom software for assisting in the chemical synthesis of drug compounds', 'use_case': 'Helps chemists in planning and optimizing synthetic routes', 'features': 'Automated synthesis pathway suggestions, real-time chemical reaction modeling', 'limitations': 'Requires detailed input data, limited to certain classes of compounds'}], 'case_studies': [{'title': "Phase I Clinical Trial of Alzheimer's Drug", 'description': "A trial to test a new drug targeting genetic markers identified for Alzheimer's disease.", 'results': 'Showed promising results in early-stage patients, with a significant reduction in cognitive decline rates.'}, {'title': 'Collaborative Study on AI-Powered Drug Efficacy Prediction', 'description': 'A study combining AI algorithms and genomic data to predict drug efficacy for personalized medicine.', 'results': 'Developed a predictive model with 85% accuracy in matching patients with effective treatments.'}]}
+ Now consider the knowlegebase, what else ought we to do?</t>
+  </si>
+  <si>
+    <t>Given the inconsistencies found in integrated datasets, it's important to consider additional steps to address the issue of data quality and integrity. Here are some actions to consider based on the available knowledgebase content:
+1. Consult with Dr. Jane Smith, a renowned Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases, including molecular pathways involved in neurodegeneration. Her experience in leading projects on identifying new drug targets for Alzheimer's treatment and contributing to research on the genetic basis of Parkinson's disease makes her a valuable resource. Discussing the cellular context of POLR3E dependency in neurodegenerative diseases with Dr. Smith could provide insights into potential relevant cell lines for studying POLR3E dependency.
+2. Additionally, consulting with Dr. Aaron Lee, a Bioinformatician who specializes in genomic data analysis, particularly in cancer research, may be beneficial. Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data and working on large-scale genomic databases for cancer research can provide valuable input on validating the gene dependency in cell lines.
+3. Access and analyze public datasets related to POLR3E and its potential relevance in neurodegenerative diseases. Dr. Jane Smith's expertise in genetic pathways for neurodegeneration and Dr. Aaron Lee's experience in integrating AI with genomic data for personalized medicine may provide valuable guidance in this analysis.
+4. Considering the limitations in integrated datasets, consulting with both experts and potentially using bioinformatics platforms such as GeneDataAnalyzer for analyzing gene expression data and identifying gene expression changes in response to potential drug candidates may provide additional perspective on POLR3E.
+5. Given the relevance of POLR3E in potential drug targeting for neurodegenerative diseases, it may be crucial to consider the cellular context and dependencies of POLR3E in disease-relevant cell lines, which could further inform drug discovery efforts.
+In summary, drawing upon the expertise of specialists in neurodegenerative diseases and genomic data analysis, as well as leveraging relevant bioinformatics platforms, will be essential for addressing the data quality and integrity issues associated with POLR3E dependency in cell lines. Additionally, continuously and rigorously assessing the relevance of POLR3E in the context of neurodegenerative diseases will be critical for advancing drug discovery efforts.</t>
+  </si>
+  <si>
+    <t>Given the technical setback of equipment downtime impacting the ability to access gene expression data, it would be beneficial to explore additional approaches to gather information on the dependent cell lines for the gene POLR3E and its enriched indications. One potential strategy is to utilize the expertise of Dr. Aaron Lee, the bioinformatician with experience in developing algorithms for predicting drug efficacy based on genomic data.
+Dr. Lee could provide valuable insights into alternative methods for analyzing existing gene expression data and leveraging genomic databases to identify specific cell lineages and indications with high selectivity for POLR3E. Collaborating with Dr. Lee could involve integrating AI-driven approaches with existing genomic data to uncover patterns of enrichment and potential associations with specific biological processes or disease conditions. Furthermore, Dr. Lee's experience in developing personalized therapy protocols based on genomic data analysis could inform a targeted approach for understanding the implications of POLR3E enrichment in different cell types.
+Additionally, the availability of software tools such as GeneDataAnalyzer, which offers advanced data visualization tools and support for multiple genomic data types, can be utilized to analyze pre-existing gene expression profiles and identify differential expression patterns for POLR3E across various cell lines and tissues. This approach would enable the identification of specific lineages with high selectivity for POLR3E, providing valuable insights into its potential roles in different biological contexts.
+Finally, the collaboration with Dr. Jane Smith, a renowned biomedical researcher with expertise in genetic markers for neurodegenerative diseases, could also be beneficial. Dr. Smith's extensive background in molecular pathways involved in neurodegeneration and her project experience in identifying new targets for neurodegenerative diseases could offer valuable perspectives on the potential implications of POLR3E enrichment in specific disease contexts.
+By leveraging the expertise of Dr. Aaron Lee and Dr. Jane Smith, along with advanced bioinformatics tools and existing genomic data, it is possible to overcome the technical setback and gain comprehensive insights into the dependent cell lines for POLR3E and its enriched indications, especially in the context of neurodegenerative diseases.</t>
+  </si>
+  <si>
+    <t>In the context of reduced funding availability due to budget cuts, it is important to adapt research strategies and utilize cost-effective methods for studying the variant profile of cell lines and patient samples for the gene POLR3E. To address this challenge, leveraging public databases such as the NCBI's ClinVar or the Genome Aggregation Database (gnomAD) can provide valuable access to variant information at minimal cost. Additionally, exploring collaborations with other research groups or institutions to share resources and data could help mitigate the impact of budget cuts on this type of research.
+In light of these budget constraints, maximizing the use of computational tools and bioinformatics platforms would also be beneficial. For instance, tools such as GeneDataAnalyzer could be utilized for analyzing gene expression data in response to drug candidates, providing valuable insights into the impact of variants on gene expression. Furthermore, given your expertise in drug discovery, exploring the use of AI-driven tools such as DrugTargetPredictor could aid in identifying potential drug targets based on genetic data, offering a cost-effective approach to target identification.
+In addition, considering potential collaborations with experts in the field, such as Dr. Jane Smith, who has experience in genetic markers for neurodegenerative diseases, and Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis, may provide invaluable insights and support for navigating through budget constraints while maintaining scientific rigor.
+Furthermore, while working within constrained budgets, it would be crucial to prioritize research efforts that align with the broader goals of drug discovery and personalized medicine. Leveraging case studies, such as the phase I clinical trial of an Alzheimer's drug and the collaborative study on AI-powered drug efficacy prediction, can offer valuable insights into successful approaches and outcomes in drug discovery research.
+Overall, adapting research strategies, maximizing the use of computational tools, leveraging public databases, and seeking collaboration with experts in the field can help overcome the challenges posed by reduced funding availability while advancing research on the variant profile of cell lines and patient samples for the gene POLR3E.</t>
+  </si>
+  <si>
+    <t>Based on the provided knowledgebase, we can further enhance our understanding of associations between expression and variant profiles for the gene POLR3E by seeking expert insights and leveraging advanced tools and case studies in the field of drug discovery and genomics. Here are some additional steps to consider:
+1. Expert Consultation:
+- Engage with Dr. Jane Smith, a renowned biomedical researcher specializing in genetic markers for neurodegenerative diseases. Her expertise in molecular pathways involved in neurodegeneration could provide valuable insights into the potential implications of POLR3E expression and variant profiles in the context of neurodegenerative diseases.
+- Consult with Dr. Aaron Lee, a bioinformatician with experience in genomic data analysis and the integration of AI with genomic data for personalized medicine. His expertise can shed light on the latest advancements in utilizing genomic data for drug discovery and development, including the relevance of POLR3E in personalized therapy protocols.
+2. Incorporate Advanced Software Tools:
+- Utilize "MolModelX," a molecular modeling tool, to simulate potential drug-protein interactions involving the POLR3E gene product. This can aid in identifying potential binding sites and interactions that may be relevant for drug targeting.
+- Leverage "DrugTargetPredictor," an in-house AI-driven tool, to predict potential drug targets based on genetic data specifically related to POLR3E. Despite its experimental stage, it can provide insights into potential drug targets associated with POLR3E variants and expression profiles.
+3. Analyze Relevant Case Studies:
+- Study the "Phase I Clinical Trial of Alzheimer's Drug" to understand how genetic markers for neurodegenerative diseases have been utilized in drug trials. This can provide context for considering POLR3E as a target in the context of neurodegenerative disorders.
+- Explore the "Collaborative Study on AI-Powered Drug Efficacy Prediction" to gain insights into the successful integration of AI algorithms and genomic data for personalized medicine. This may inspire innovative approaches for leveraging POLR3E expression and variant profiles in drug discovery and development.
+By incorporating expert insights, leveraging advanced software tools, and analyzing relevant case studies, we can further refine our understanding of the associations between expression and variant profiles for the gene POLR3E, with a specific focus on their potential implications for drug discovery and development.</t>
+  </si>
+  <si>
+    <t>Based on the expertise and resources available in the knowledgebase, we can further enhance our response to the original query as follows:
+1. We can utilize the expertise of Dr. Jane Smith, a renowned biomedical researcher specializing in genetic markers for neurodegenerative diseases. She has led a project on identifying new targets for Alzheimer's treatment and contributed to research on the genetic basis of Parkinson's disease. Dr. Smith's extensive experience and knowledge in molecular pathways involved in neurodegeneration make her an ideal resource to analyze and interpret data related to the gene POLR3E, particularly if it has potential implications in neurodegenerative disorders.
+2. We can leverage the expertise of Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis. He has developed algorithms for predicting drug efficacy based on genomic data and worked on large-scale genomic databases for cancer research. Dr. Lee's expertise in integrating AI with genomic data for personalized medicine can be instrumental in analyzing experimental data related to the gene POLR3E, especially if it involves genomic-based drug discovery or personalized therapy protocols.
+3. We can utilize the software tools available, such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for analyzing gene expression data, and DrugTargetPredictor for predicting potential drug targets based on genetic data. These tools can aid in analyzing and interpreting experimental data related to the gene POLR3E and its potential implications in drug discovery research.
+4. We can also consider the case studies available in the knowledgebase, such as the Phase I Clinical Trial of an Alzheimer's drug, to provide relevant examples of drug discovery research and how experimental data has been translated into promising clinical outcomes, potentially relating to the gene POLR3E and its impact on disease targets.
+By integrating the expertise of the team members, utilizing software tools, and referencing relevant case studies, we can provide a comprehensive and actionable response to the original query, fulfilling the need for analysis and interpretation of experimental data related to the gene POLR3E in drug discovery research.</t>
+  </si>
+  <si>
+    <t>In light of the new directives and the knowledge base, there are several actions that can be taken to further explore the potential of POLR3E as a target for drug discovery:
+1. Collaborate with Dr. Jane Smith: Given Dr. Smith's expertise in genetic markers for neurodegenerative diseases and her previous research on identifying new targets for Alzheimer's treatment, a collaboration with her could provide valuable insights into the potential role of POLR3E in neurodegenerative diseases, especially considering its overexpression in cancer.
+2. Leverage Dr. Aaron Lee's Experience: Dr. Lee's specialization in bioinformatics and experience in developing personalized therapy protocols based on genomic data analysis in cancer research is highly relevant. Engaging in discussions with Dr. Lee could offer valuable perspectives on the potential therapeutic implications of targeting POLR3E in cancer treatment.
+3. Utilize Computational Biology Tools: The software tools available, such as GeneDataAnalyzer and DrugTargetPredictor, can be leveraged to further analyze gene expression changes associated with POLR3E overexpression and predict potential drug targets based on genetic data. These tools can aid in identifying candidate compounds that may inhibit POLR3E activity or expression as a potential therapeutic strategy.
+4. Review Case Studies: The case study on the Phase I Clinical Trial of Alzheimer's Drug and the collaborative study on AI-Powered Drug Efficacy Prediction offer insights into successful approaches for developing and testing drugs targeting specific genetic markers. Analyzing these case studies may provide valuable lessons for designing preclinical trials targeting POLR3E.
+In conclusion, a collaborative approach involving experts in neurodegenerative diseases, bioinformatics, and drug discovery, coupled with the utilization of computational biology tools and insights from relevant case studies, can facilitate a comprehensive exploration of POLR3E as a potential drug target for cancer treatment. These actions would align with the strategic objectives and enhance the understanding of POLR3E's role in cancer and its implications for drug discovery.</t>
+  </si>
+  <si>
+    <t>Given the new strategic directives and the provided knowledgebase, we should tailor the response on the variant profile of tissues with significant differential expression for the gene POLR3E to align with the priorities and expertise available. For instance, we could focus on specific genetic alterations related to neurodegenerative diseases, such as Alzheimer's and Parkinson's, considering the expertise of Dr. Jane Smith in genetic markers for neurodegenerative diseases.
+Incorporating AI-driven genomic data analysis and personalized medicine approaches can further enhance the response, in line with Dr. Aaron Lee's expertise in integrating AI with genomic data for personalized medicine and his project on genomic data analysis for personalized cancer therapy.
+Additionally, utilizing the available software tools such as GeneDataAnalyzer for analyzing gene expression data and DrugTargetPredictor for predicting potential drug targets based on genetic data can strengthen the approach towards understanding the variant profile of POLR3E across different tissues and identifying potential therapeutic targets.
+We should also consider the case studies, such as the Phase I Clinical Trial of Alzheimer's Drug, to guide the response in a manner that aligns with the successful utilization of genetic markers for neurodegenerative diseases in drug development.
+Therefore, the response should emphasize the genetic markers and pathways relevant to neurodegenerative diseases, integrate AI-driven genomic data analysis, and consider the potential drug targets for personalized medicine, with a focus on the expertise and resources available in the knowledgebase.</t>
+  </si>
+  <si>
+    <t>Given the elevated risk indicated by the predictive model, it's crucial to consult with domain experts to ensure accurate and reliable information regarding mutation frequencies in the POLR3E gene. To further address the question, I'd recommend reaching out to Dr. Jane Smith, a renowned biomedical researcher with expertise in genetic markers for neurodegenerative diseases. Dr. Smith's background and experience in molecular pathways involved in neurodegeneration make her a valuable resource for understanding mutations in the POLR3E gene and their potential implications for associated diseases.
+In addition, leveraging the expertise of Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis, can provide insights into identifying specific regions of the POLR3E gene where mutations occur at a higher frequency. Dr. Lee's expertise in developing algorithms for predicting drug efficacy based on genomic data and working on large-scale genomic databases for cancer research positions him as a valuable resource to analyze mutation hotspots within the POLR3E gene.
+Furthermore, the expertise of these professionals can help in evaluating the use of specialized software tools such as "MolModelX" for simulating drug-protein interactions and identifying potential binding sites on target proteins, as well as "GeneDataAnalyzer" for analyzing gene expression changes in response to drug candidates. Understanding the limitations and capabilities of these tools is essential for robust analysis of mutation hotspots in the POLR3E gene.
+Considering the knowledgebase content, it is evident that exploring the expertise of Dr. Smith and Dr. Lee, along with utilizing relevant software tools, can provide a comprehensive and accurate understanding of mutation frequencies within the POLR3E gene. Furthermore, the case studies provided in the knowledgebase highlight successful applications of AI algorithms and genomic data in drug discovery, emphasizing the importance of integrating advanced technologies for precise analysis and prediction in drug development.</t>
+  </si>
+  <si>
+    <t>Given the constraints on real-time data access and the desire to determine the pathogenic mutations for the gene POLR3E, I recommend leveraging the expertise of Dr. Jane Smith and Dr. Aaron Lee from the knowledgebase. 
+Dr. Jane Smith is a Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases. Her experience in identifying new targets for Alzheimer's treatment and contributing to research on the genetic basis of Parkinson's disease make her a valuable resource for understanding the pathogenic mutations in a gene such as POLR3E.
+Dr. Aaron Lee, a Bioinformatician specializing in genomic data analysis, has developed algorithms for predicting drug efficacy based on genomic data and worked on large-scale genomic databases for cancer research. His pioneering work in integrating AI with genomic data for personalized medicine could provide unique insights into the pathogenic mutations of POLR3E.
+Additionally, considering the limited availability of real-time data, it would be beneficial to utilize computational tools and platforms from the knowledgebase. For instance, the "GeneDataAnalyzer" could be used to analyze gene expression changes in response to drug candidates, which might shed light on the impact of mutations in POLR3E. Furthermore, the "DrugTargetPredictor" tool, developed by Dr. Lee, could provide insights into potential drug targets based on genetic data.
+Moreover, based on the expertise and experience of Dr. Jane Smith and her previous projects, it might be beneficial to initiate a collaboration to identify potential drug targets or pathways related to the mutations in POLR3E.
+If feasible, it would also be advantageous to explore case studies such as the "Phase I Clinical Trial of Alzheimer's Drug" to understand successful strategies in targeting genetic markers for neurological conditions, and potentially apply similar approaches to studying the pathogenic mutations in POLR3E.
+Finally, given the concerns about supply chain disruptions, the use of in-house software tools such as "MolModelX" for simulating drug-protein interactions and "ChemSynthAssist" for assisting in the chemical synthesis of drug compounds would be beneficial for further drug discovery efforts related to the mutations in POLR3E.</t>
+  </si>
+  <si>
+    <t>In addition to the initial response, considering the knowledge base and the expertise available, I would recommend the following:
+1. Expert Consultation: Given the complexity of analyzing genomic and clinical data for cancer progression and survival, it would be beneficial to consult with Dr. Jane Smith, a renowned biomedical researcher specializing in genetic markers for neurodegenerative diseases. Her expertise can provide valuable insights into the potential connections between POLR3E and cancer progression, especially in the context of neurodegenerative aspects of cancer.
+2. High-Throughput Data Analysis: Leveraging the expertise of Dr. Aaron Lee, a bioinformatician with extensive experience in genomic data analysis and integrating AI for personalized medicine, would be advantageous. Dr. Lee's knowledge in developing algorithms and utilizing large-scale genomic databases for cancer research can contribute to the efficient analysis of mutation pathogenicity scores and copy number profiles related to POLR3E in cancer.
+3. Bioinformatics Tools: Utilizing the "GeneDataAnalyzer" for analyzing gene expression data and identifying gene expression changes in response to drug candidates can aid in understanding the impact of POLR3E alterations on cancer progression. Additionally, the "DrugTargetPredictor" can be employed to predict potential drug targets based on genetic data, potentially unveiling novel therapeutic avenues related to POLR3E in cancer treatment.
+4. Collaboration on Drug Targets: Exploring the collaborative project "Multi-Institutional Collaboration on Neurodegenerative Drug Targets" led by Dr. Jane Smith could offer an opportunity to investigate shared molecular pathways between neurodegeneration and cancer, potentially shedding light on the role of POLR3E in both disease contexts.
+5. Leveraging AI-driven Tools: Given Dr. Aaron Lee's expertise in integrating AI with genomic data for personalized medicine, utilizing AI-driven tools such as the "DrugTargetPredictor" and "MolModelX" for simulating drug-protein interactions could aid in the identification of potential therapeutic interventions targeting POLR3E-associated alterations in cancer.
+By utilizing the expertise and resources available in the knowledge base, a comprehensive and efficient approach can be formulated to delve into the association of POLR3E with cancer progression and survival, potentially unraveling novel insights for drug discovery and personalized medicine.</t>
+  </si>
+  <si>
+    <t>The knowledgebase content provides valuable information about experts in the field of biomedical research and bioinformatics, as well as software tools and case studies relevant to drug discovery and genomic medicine. To further enhance the knowledgebase, the following actions should be considered:
+1. Inclusion of additional experts: Identifying and including additional experts with diverse backgrounds in computational biology, drug discovery, and genomics could provide a broader range of expertise to address different aspects of therapeutic targeting for genes such as POLR3E.
+2. Expansion of software tools information: Adding more information about a variety of widely used software tools for drug discovery, genomic data analysis, and molecular modeling will enhance the knowledgebase and provide users with a comprehensive overview of available tools and their applications.
+3. Incorporation of additional case studies: Including more case studies related to successful drug discovery and therapeutic interventions based on genomic insights will provide practical examples of how genomic data analysis and personalized medicine approaches have led to significant advancements in patient care.
+4. Integration of educational resources: Curating and providing links to educational resources, such as online courses, webinars, and workshops focused on drug discovery, genomics, and personalized medicine, will support users in enhancing their knowledge and skills in these areas.
+By implementing these additional elements, the knowledgebase can offer a more comprehensive and informative resource for individuals seeking to deepen their understanding of drug discovery, genomic data analysis, and personalized medicine.</t>
+  </si>
+  <si>
+    <t>Considering the knowledge base and the expertise available, we can explore the following steps to gather more information about drug trials for the gene POLR3E:
+1. Collaborate with Dr. Jane Smith, a renowned Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases. Dr. Smith has led projects on identifying new targets for Alzheimer's treatment and contributed to research on the genetic basis of Parkinson's disease. Given her experience and contributions to genetic research, she might have insights into clinical trials related to POLR3E and could potentially provide valuable guidance.
+2. Leverage the expertise of Dr. Aaron Lee, a Bioinformatician who specializes in genomic data analysis. Dr. Lee has developed algorithms for predicting drug efficacy based on genomic data and has worked on large-scale genomic databases for cancer research. His expertise in integrating AI with genomic data for personalized medicine could offer valuable perspectives on drug trials associated with POLR3E.
+3. Utilize the software tool "DrugTargetPredictor," an AI-driven tool for predicting potential drug targets based on genetic data. While it is currently in the experimental stage and limited in external validation, it could aid in streamlining target identification for drug trials related to POLR3E.
+4. Explore the case study titled "Phase I Clinical Trial of Alzheimer's Drug," which tested a new drug targeting genetic markers identified for Alzheimer's disease. Although not directly related to POLR3E, this case study emphasizes the importance of identifying genetic markers for disease and conducting clinical trials for targeted treatments, which can provide valuable insights into similar trials for POLER3E.
+5. Leverage Dr. Jane Smith's project on "Multi-Institutional Collaboration on Neurodegenerative Drug Targets," which involved identifying novel drug targets for neurodegenerative diseases. Although not specific to POLR3E, the outcomes and approaches from this project could offer insights into potential drug targets and pre-clinical trials relevant to POLR3E.
+By engaging with experts, leveraging relevant software tools, and examining analogous case studies and projects, we can gain a comprehensive understanding of drug trials associated with the gene POLR3E and its related pharmaceutical companies and latest status.</t>
+  </si>
+  <si>
+    <t>Given the current supply chain disruptions impacting drug availability, and the absence of drugs explicitly indicated for the gene POLR3E, here are some additional steps that could be considered:
+1. Consult with Biomedical Researchers: Dr. Jane Smith, a renowned Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases, may provide insights into potential drug targets and ongoing research related to POLR3E. Her experience in identifying new targets for Alzheimer's treatment and research on the genetic basis of Parkinson's disease could be valuable.
+2. Collaborate with Bioinformaticians: Dr. Aaron Lee, a Bioinformatician specializing in genomic data analysis, could provide expertise in integrating genomic data with drug discovery. His work in developing algorithms for predicting drug efficacy based on genomic data, especially in the context of cancer research, may offer new perspectives on potential drug candidates for POLR3E-related conditions.
+3. Use Molecular Modeling Tools: MolModelX, a molecular modeling tool for simulating drug-protein interactions, could aid in identifying potential binding sites on target proteins. This tool's high-accuracy simulation and dynamic modeling features make it suitable for exploring potential drug interactions with POLR3E.
+4. Leverage Bioinformatics Platforms: GeneDataAnalyzer, a bioinformatics platform for analyzing gene expression data, may be valuable in uncovering gene expression changes in response to potential drug candidates for POLR3E-related conditions. Its advanced data visualization tools and support for multiple genomic data types could aid in understanding the molecular mechanisms involved.
+5. Consider AI-Driven Target Prediction: The in-house AI-driven tool, DrugTargetPredictor, can be used in early-phase drug discovery to streamline target identification. As it integrates various genetic databases and utilizes machine learning algorithms, it could assist in predicting potential drug targets based on POLR3E genetic data.
+6. Explore Chemical Synthesis Assistance: ChemSynthAssist, a custom software for assisting in the chemical synthesis of drug compounds, could be valuable for planning and optimizing synthetic routes of potential drug candidates targeting POLR3E-related conditions. Its automated synthesis pathway suggestions and real-time chemical reaction modeling features may aid in drug development.
+Additionally, it's important to stay updated with current research, clinical trials, and collaborative studies in the field of drug discovery, especially those related to neurodegenerative diseases and genomic medicine, to gather relevant insights and potential leads for drug discovery targeting POLR3E.</t>
+  </si>
+  <si>
+    <t>Based on the knowledgebase, there are several additional steps and considerations to be taken in the context of the response provided for targeting the gene POLR3E for drug discovery:
+1. Collaboration with Biomedical Researcher: Given the specialization and experience of Dr. Jane Smith in identifying new targets for Alzheimer's treatment and researching the genetic basis of Parkinson's disease, collaborating with her could provide valuable insights into potential drug targets for POLR3E, especially in the context of neurodegenerative diseases.
+2. Integration of Genomic Data Analysis: Dr. Aaron Lee's expertise in bioinformatics and genomic data analysis, particularly in cancer research, suggests that integrating genomic data analysis with drug discovery efforts for POLR3E could help in identifying potential drug targets and predicting their efficacy based on genetic data.
+3. Utilization of DrugTargetPredictor: The in-house AI-driven tool, DrugTargetPredictor, can be utilized in the early-phase drug discovery process to streamline target identification based on genetic data, although it's important to keep in mind its current experimental stage and limited external validation.
+4. Compliance and Ethical Considerations: It's important to uphold compliance with the latest regulatory guidelines and ethical standards in any drug discovery efforts targeting POLR3E, as well as ensuring data integrity and transparency throughout the process.
+5. Potential First-in-Class Opportunities: Exploring potential opportunities for first-in-class drugs targeting POLR3E could involve leveraging the knowledgebase to identify new therapeutic targets, such as those identified through Dr. Smith's multi-institutional collaboration on neurodegenerative drug targets.
+In summary, the response should emphasize the potential for collaboration with experts in relevant domains, integration of genomic data analysis, cautious use of AI-driven tools, adherence to compliance and ethical standards, and exploration of first-in-class opportunities with a focus on neurodegenerative diseases.</t>
+  </si>
+  <si>
+    <t>Considering the knowledgebase provided, there are several opportunities to further enhance the capabilities and expertise in identifying potential drug targets for new therapeutics. Here are some suggestions for leveraging the expertise and resources available:
+1. Collaboration with Dr. Jane Smith: Given Dr. Jane Smith's expertise in identifying new targets for Alzheimer's treatment and her renowned work on molecular pathways involved in neurodegeneration, there is an opportunity to collaborate on projects related to the identification of novel drug targets for neurodegenerative diseases. By leveraging her experience and insights, collaborative efforts can be directed towards exploring potential targets for therapeutic intervention in neurodegenerative conditions.
+2. Integration of AI with Genomic Data: Dr. Aaron Lee's pioneering work in integrating AI with genomic data for personalized medicine presents an opportunity to develop AI-driven methodologies for mining genomic data to predict potential drug targets. Collaboration with Dr. Lee can facilitate the development of advanced algorithms that can analyze large-scale genomic data to identify genes or proteins suitable for targeting in new therapeutic approaches.
+3. Utilization of Software Tools: The knowledgebase includes several software tools tailored for various aspects of drug discovery and development, such as molecular modeling, genomic data analysis, and AI-driven prediction of drug targets. Integrating these tools into the drug discovery pipeline and potentially developing new tools that address specific needs in target identification can enhance the computational capabilities in this domain.
+4. Case Studies: Learning from the successful outcomes of the case studies provided in the knowledgebase, such as the Phase I Clinical Trial of Alzheimer's Drug and the Collaborative Study on AI-Powered Drug Efficacy Prediction, can provide valuable insights into best practices and potential strategies for identifying and testing new therapeutic targets.
+By leveraging the expertise, software tools, and successful case studies within the knowledgebase, the computational biologist and genomics expert can further enhance the process of determining potential genes or proteins to target for new therapeutics, ultimately contributing to the advancement of drug discovery and development.</t>
+  </si>
+  <si>
+    <t>Given the information in the knowledge base, we can leverage the expertise of Dr. Jane Smith, a renowned biomedical researcher specializing in genetic markers for neurodegenerative diseases, to gain insights into potential genetic markers and biomarkers for specific diseases. Dr. Smith's expertise and experience make her a valuable resource for identifying and validating potential biomarkers, especially in the context of neurodegenerative diseases such as Alzheimer's and Parkinson's.
+Moreover, Dr. Aaron Lee's expertise as a bioinformatician, specializing in genomic data analysis, can be instrumental in analyzing genomic data to identify and validate potential biomarkers for specific diseases. Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data can be particularly valuable for leveraging AI and genomic data in the identification and validation of biomarkers.
+Additionally, the software tools available in the knowledge base, such as MolModelX for molecular modeling and DrugTargetPredictor for AI-driven target identification, can be utilized for in silico validation and identification of potential biomarkers.
+Furthermore, the case studies provided in the knowledge base, such as the Phase I Clinical Trial of Alzheimer's Drug, can offer valuable insights into the practical application of biomarkers in clinical trials and drug development.
+In leveraging these resources, we can further explore the specific biomarker validation processes relevant to neurodegenerative diseases and explore the potential for integrating AI-driven genomic data analysis with experimental validation to identify and validate potential biomarkers for drug discovery and development.</t>
+  </si>
+  <si>
+    <t>In addition to the initial response, considering the knowledge base, we could further enhance the response by incorporating insights from the experts and case studies provided. 
+Experts:
+1. Dr. Jane Smith's expertise in genetic markers for neurodegenerative diseases could be leveraged to emphasize the role of pathway analysis in identifying genetic pathways associated with neurodegeneration and how this knowledge can inform drug discovery for neurodegenerative diseases.
+2. Dr. Aaron Lee's experience in developing algorithms for predicting drug efficacy based on genomic data and the integration of AI with genomic data for personalized medicine could be used to highlight the potential of pathway analysis in personalized drug discovery and the importance of integrating genomic data analysis tools with pathway analysis for improved drug discovery outcomes.
+Software Tools:
+The limitations and use cases of various software tools provided in the knowledge base can be used to illustrate how pathway analysis tools, such as GeneDataAnalyzer and DrugTargetPredictor, are utilized in the drug discovery process and the potential challenges or opportunities associated with these tools.
+Case Studies:
+The case studies on the Phase I Clinical Trial of Alzheimer's Drug and the Collaborative Study on AI-Powered Drug Efficacy Prediction can be used to exemplify how pathway analysis has been applied in real-world drug discovery scenarios, emphasizing the impact of pathway analysis on identifying potential drug targets and predicting drug efficacy.
+Overall, incorporating insights from the experts, software tools, and case studies in the knowledge base can enrich the response by providing real-world examples and expert perspectives on the integration of pathway analysis in drug discovery. This will help to convey a more comprehensive understanding of the role of pathway analysis in drug discovery.</t>
+  </si>
+  <si>
+    <t>In addition to the information provided, leveraging the expertise of Dr. Jane Smith, a renowned biomedical researcher specializing in genetic markers for neurodegenerative diseases, could be beneficial. Her background and experience align closely with the topic of phenotypic and genotypic screening in drug discovery. Engaging with her could provide valuable insights into the practical applications and challenges of identifying new drug targets based on genetic markers for neurodegenerative diseases.
+Furthermore, incorporating the expertise of Dr. Aaron Lee, a bioinformatician with a specialization in genomic data analysis, could enhance the knowledge base. He has experience in developing algorithms for predicting drug efficacy based on genomic data and working on large-scale genomic databases for cancer research. This expertise would be invaluable in understanding the potential of genotypic screening in predicting drug efficacy based on genomic data.
+Additionally, the knowledge base can be enriched by including case studies related to successful applications of both phenotypic and genotypic screening in drug discovery. For example, including case studies on the use of phenotypic screening in identifying effective compounds for complex diseases and genotypic screening in targeting specific genetic markers for personalized medicine would provide practical insights for drug discovery professionals.
+Moreover, featuring advanced software tools such as MolModelX for molecular modeling, GeneDataAnalyzer for bioinformatics analysis of gene expression data, DrugTargetPredictor for AI-driven target prediction, and ChemSynthAssist for chemical synthesis optimization would provide a comprehensive understanding of the technological resources available for phenotypic and genotypic screening in drug discovery.
+Integrating these additional elements into the knowledge base would offer a holistic view of the advancements and applications of phenotypic and genotypic screening in drug discovery, catering to a wide range of audience interests and needs in the field.</t>
+  </si>
+  <si>
+    <t>Given the expertise and knowledge of the remaining team members in "Team Rebuild," additional considerations can be made to address the challenges of translating in vitro findings to in vivo models in the context of drug discovery and development. Here are some potential adjustments to the response considering the expertise and tools available in the knowledgebase:
+1. Leveraging Team Expertise: Dr. Jane Smith has a strong background in genetic markers for neurodegenerative diseases and has led a project on identifying new targets for Alzheimer's treatment. Her expertise can be harnessed to ensure that the genetic aspects of in vitro findings are effectively translated to in vivo models, particularly in the context of neurodegenerative drug discovery.
+2. Advanced Genomic Data Analysis: Dr. Aaron Lee's expertise in bioinformatics and genomic data analysis can contribute to bridging the gap between in vitro and in vivo models. His work in developing algorithms for predicting drug efficacy based on genomic data can be valuable in interpreting in vitro findings within the broader genomic context for in vivo translation.
+3. Utilizing Tools for Translation: The available software tools such as "GeneDataAnalyzer" and "DrugTargetPredictor" are relevant for analyzing gene expression changes in response to drug candidates and predicting potential drug targets based on genetic data, respectively. Leveraging these tools can aid in the translational process by providing insights into gene expression changes and identifying potential drug targets from in vitro findings.
+4. Integration of AI in Translation: Dr. Lee's experience in integrating AI with genomic data for personalized medicine aligns with the ongoing efforts to bridge in vitro and in vivo findings. The in-house AI-driven tool "DrugTargetPredictor" can be further explored and possibly optimized to aid in the translation of in vitro results to in vivo models.
+5. Awareness of Successful Case Studies: The phase I clinical trial of an Alzheimer's drug can serve as a reference for successful translation from in vitro findings to in vivo results, particularly in the context of targeting genetic markers. This knowledge can guide the team in formulating strategies for effective translation in their drug discovery projects.
+Considering these adjustments and the available expertise and tools, the team can strategically address the challenges of translating in vitro findings to in vivo models in drug discovery, ensuring effective utilization of their capabilities and resources.</t>
+  </si>
+  <si>
+    <t>Based on the knowledgebase content, we can further enhance the response by incorporating insights from Dr. Jane Smith, a renowned biomedical researcher, and Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis.
+To complement the information about the role of structural biology in drug design, Dr. Smith's expertise in genetic markers for neurodegenerative diseases can provide valuable insights into the application of structural biology in understanding disease-specific protein structures and identifying potential drug targets. Dr. Smith's work in identifying new targets for Alzheimer's treatment and her research on the genetic basis of Parkinson's disease can contribute to a more comprehensive discussion on how structural biology aids in the design of drugs for neurodegenerative conditions.
+Additionally, Dr. Lee's expertise in developing algorithms for predicting drug efficacy based on genomic data and his work on personalized cancer therapy using genomic data analysis can add a perspective on how structural biology, combined with genomic data, can enrich the drug discovery process. This can highlight the role of structural biology in understanding the genetic basis of diseases and leveraging genomic data for personalized drug design.
+Furthermore, incorporating case studies related to neurodegenerative diseases or cancer, where structural biology played a pivotal role in drug design, can provide real-world examples of the impact of structural biology in the successful development of new drugs.
+By integrating insights from these experts and relevant case studies, the response can offer a comprehensive overview of how structural biology contributes to drug discovery and design, particularly in the context of neurodegenerative diseases and personalized cancer therapy.</t>
+  </si>
+  <si>
+    <t>In addition to the existing information, it would be valuable to consult with domain experts such as Dr. Jane Smith, a biomedical researcher with expertise in genetic markers for neurodegenerative diseases. Dr. Smith's insights could provide a deeper understanding of how POLR3E gene dysfunction may impact neurodegenerative diseases and potential therapeutic interventions, given her renowned work on the molecular pathways involved in neurodegeneration.
+Furthermore, consulting with Dr. Aaron Lee, a bioinformatician who specializes in genomic data analysis, could provide valuable input on how genomic data can be leveraged to better understand the function and mechanisms of POLR3E. Dr. Lee's expertise in integrating AI with genomic data for personalized medicine could shed light on potential applications for drug discovery and precision medicine.
+Moreover, the software tool "GeneDataAnalyzer" could be utilized to analyze gene expression changes in response to drug candidates, which would be particularly relevant for identifying how POLR3E dysfunction might impact gene expression and potential therapeutic targets.
+Additionally, exploring relevant case studies, such as the Phase I clinical trial of an Alzheimer's drug targeting genetic markers and the collaborative study on AI-powered drug efficacy prediction, could provide insights into the practical applications of genetic markers and potential drug targets identified for neurodegenerative diseases.
+By incorporating insights from these domain experts, leveraging advanced bioinformatics tools and platforms, and referencing relevant case studies, we can further enhance our understanding of the gene POLR3E and its potential implications for drug discovery and therapeutic interventions.</t>
+  </si>
+  <si>
+    <t>Based on the knowledge base provided, Dr. Aaron Lee, a bioinformatician with expertise in genomic data analysis and drug discovery, could provide valuable insights into the potential implications of POLR3E dysregulation in cancer for drug discovery and therapeutic interventions. His experience in developing algorithms for predicting drug efficacy based on genomic data, as well as his work on personalized cancer therapy based on genomic data analysis, would be relevant to understand the role of POLR3E in cancer and its potential as a drug target.
+Additionally, the software tool "GeneDataAnalyzer" could be utilized to analyze gene expression changes in response to targeting POLR3E for cancer treatment. This tool's advanced data visualization and support for multiple genomic data types make it suitable for studying the gene expression changes and understanding the mechanisms involved in targeting POLR3E.
+Furthermore, the case study "Phase I Clinical Trial of Alzheimer's Drug" could serve as an example of how a drug targeting specific genetic markers, similar to the role of POLR3E in cancer, has shown promising results in a clinical trial. Understanding the success and challenges of this trial could provide valuable insights for planning potential therapeutic interventions targeting POLR3E in cancer.
+In summary, leveraging the expertise of Dr. Aaron Lee, utilizing the GeneDataAnalyzer tool, and drawing insights from relevant case studies in drug discovery can enhance our understanding of the potential implications of POLR3E dysregulation in cancer and guide further research and development efforts.</t>
+  </si>
+  <si>
+    <t>Considering the knowledge base provided, we can leverage the expertise of Dr. Aaron Lee, a bioinformatician, who has experience in integrating AI with genomic data for personalized medicine. Dr. Lee's background in developing algorithms for predicting drug efficacy based on genomic data aligns with the urgent need to analyze the potential oncogenic properties of POLR3E.
+We could collaborate with Dr. Lee to utilize advanced computational and data-driven approaches to rapidly analyze large-scale cancer genomics datasets, aiming to identify any potential associations between POLR3E and cancer. Dr. Lee's expertise in developing personalized therapy protocols based on genomic data analysis could be instrumental in this analysis.
+Furthermore, integrating the use of the software tools available in the knowledge base, such as GeneDataAnalyzer for analyzing gene expression data, and DrugTargetPredictor for predicting potential drug targets based on genetic data, could aid in identifying potential associations and actionable insights regarding POLR3E in the context of cancer.
+In addition, if there is a need to explore potential drug development specifically targeting the molecular interactions associated with POLR3E in cancer, the expertise of Dr. Jane Smith, a biomedical researcher with a background in identifying new targets for neurodegenerative diseases, could provide valuable insights. Her experience in molecular pathways and drug target identification could be relevant in this context. Additionally, the software tool MolModelX for simulating drug-protein interactions could be utilized to identify potential binding sites on target proteins related to POLR3E.
+Overall, leveraging the expertise of both Dr. Aaron Lee and Dr. Jane Smith, along with the available software tools, would align with the urgency of the situation and enhance the comprehensive analysis of POLR3E as an oncogene, potentially expediting drug discovery or treatment options.</t>
+  </si>
+  <si>
+    <t>In the context of adjusted funding levels, it's essential to consider the potential impact on research resources for studying the gene POLR3E and its associations with cancer. Given the relevance of POLR3E to various cancer types, it may be beneficial to prioritize and allocate resources effectively to ensure continued advancements in understanding its role in cancer biology.
+This may involve collaborations with experts in biomedical research and bioinformatics like Dr. Jane Smith and Dr. Aaron Lee, who have expertise in genetic markers for neurodegenerative diseases and genomic data analysis for cancer research, respectively. Leveraging their knowledge and experience could lead to a more comprehensive understanding of the implications of POLR3E in cancer and potential therapeutic strategies.
+Additionally, utilizing software tools such as MolModelX for simulating drug-protein interactions and GeneDataAnalyzer for analyzing gene expression data can aid in elucidating the molecular mechanisms underlying POLR3E's involvement in cancer.
+Furthermore, considering case studies such as the phase I clinical trial of Alzheimer's drug and the collaborative study on AI-powered drug efficacy prediction can provide insights into strategies for translating genomic discoveries, including those related to POLR3E, into potential clinical applications.
+In summary, amidst funding adjustments, it's important to optimize collaborations, leverage advanced software tools, and draw insights from relevant case studies to continue advancing our understanding of POLR3E in cancer and potential drug discovery efforts.</t>
+  </si>
+  <si>
+    <t>Based on the knowledgebase content provided, there are several opportunities and considerations for leveraging the expertise and tools available to enhance your drug discovery process related to the gene POLR3E.
+1. Collaboration with Biomedical Researcher: Given Dr. Jane Smith's specialization in molecular pathways involved in neurodegeneration and her project on identifying new targets for Alzheimer's treatment, it would be beneficial to collaborate with her to gain insights into potential connections between POLR3E and neurodegenerative diseases. Combining your expertise in computational biology with her domain knowledge can lead to a more comprehensive understanding of the implications of POLR3E interactions.
+2. Utilizing Bioinformatician's Expertise: Dr. Aaron Lee's experience in developing algorithms for predicting drug efficacy based on genomic data can be valuable in the context of understanding the impact of POLR3E interactions on drug response. Collaborating with Dr. Lee can provide insights into how genomic data related to POLR3E can inform personalized medicine and drug discovery efforts.
+3. Integration of AI with Genomic Data: Dr. Lee's pioneering work in integrating AI with genomic data aligns with the use of computational methods and machine learning for drug discovery. Exploring the potential application of AI in analyzing POLR3E interactions and their relevance to drug discovery could lead to innovative approaches.
+4. Software Tools for Drug Discovery: Consider leveraging software tools such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for analyzing gene expression changes in response to drug candidates, and DrugTargetPredictor for streamlining target identification based on POLR3E-related genetic data. These tools can enhance your ability to interpret and apply the network information obtained for POLR3E.
+5. Strategic Application of Case Studies: The case study on the Phase I Clinical Trial of Alzheimer's Drug aligns with the potential relevance of POLR3E to neurodegenerative diseases. Understanding the genetic markers for Alzheimer's and other neurodegenerative diseases could provide context for the interactions and mechanisms involving POLR3E.
+With these considerations in mind, you can further explore the implications of POLR3E interactions and mechanisms in the context of drug discovery, personalized medicine, and potential applications to neurodegenerative diseases.</t>
+  </si>
+  <si>
+    <t>Given the legal shift affecting our procedures, we should refrain from providing direct links to the publications related to the POLR3E gene. Instead, I recommend stating the titles and authors of the publications, and encouraging the individuals to search for them using appropriate databases or platforms.
+Additionally, given your expertise in drug discovery and computational biology, you may want to explore the following resources from our knowledge base:
+1. **Experts**: Dr. Jane Smith is a Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases. She has contributed significantly to the identification of new targets for Alzheimer's treatment and research on the genetic basis of Parkinson's disease. This expertise could be valuable in understanding the genetic aspects of drug discovery.
+2. **Software Tools**: Several software tools can be leveraged in drug discovery, such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for analyzing gene expression data, DrugTargetPredictor for identifying potential drug targets based on genetic data, and ChemSynthAssist for assisting in the chemical synthesis of drug compounds. These tools align with your expertise in computational biology and may enhance your drug discovery research.
+3. **Case Studies**: The case study "Collaborative Study on AI-Powered Drug Efficacy Prediction" is of particular interest as it demonstrates the successful combination of AI algorithms and genomic data to predict drug efficacy for personalized medicine. This aligns with your expertise in genomic data analysis and drug discovery.
+Considering your expertise, these resources can further enrich your knowledge and potentially enhance your drug discovery research. If you need further assistance or information related to a specific aspect of drug discovery, feel free to ask!</t>
+  </si>
+  <si>
+    <t>Given the knowledge base, we can provide a more in-depth exploration of drug discovery and related technical information. For example:
+1. Exploring the integration of AI and genomic data for personalized medicine and drug efficacy prediction, with a focus on the pioneering work of Dr. Aaron Lee in developing algorithms for predicting drug efficacy based on genomic data.
+2. Understanding the impact of Dr. Jane Smith's research on molecular pathways involved in neurodegeneration and her contributions to identifying new targets for Alzheimer's treatment in the context of drug discovery.
+3. Utilizing software tools such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for analyzing gene expression data, DrugTargetPredictor for predicting potential drug targets, and ChemSynthAssist for assisting in the chemical synthesis of drug compounds.
+4. Reviewing case studies, including the phase I clinical trial of an Alzheimer's drug targeting genetic markers and the collaborative study on AI-powered drug efficacy prediction.
+Additionally, we can explore further topics such as the impact of genomic data analysis on drug discovery, novel targets for neurodegenerative diseases, bioinformatics platforms for gene expression analysis, and the role of AI in genomic medicine. These insights will help in framing a comprehensive understanding of the landscape of drug discovery and its intersection with genomics and computational biology.</t>
+  </si>
+  <si>
+    <t>Considering the expertise and resources available in the knowledge base, it would be beneficial to leverage the expertise of Dr. Jane Smith, a renowned biomedical researcher with a background in genetic markers for neurodegenerative diseases, and Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis. Dr. Smith's experience in identifying new targets for Alzheimer's treatment and Dr. Lee's proficiency in AI-integrated genomic data analysis can provide valuable insights for refining the strategy to use CRISPR-Cas9 for editing genes implicated in Alzheimer's disease.
+Additionally, the specialized software tools available in the knowledge base, such as GeneDataAnalyzer for analyzing gene expression data and DrugTargetPredictor for predicting potential drug targets based on genetic data, can be utilized to further refine the gene editing strategy and identify potential therapeutic targets.
+Furthermore, the case study on the phase I clinical trial of an Alzheimer's drug provides valuable insights into the potential outcomes and success metrics for similar therapeutic interventions. Collaboration with experts and leveraging advanced software tools and case study results can enhance the strategy for using CRISPR-Cas9 in Alzheimer's research and drug discovery.
+In summary, leveraging the expertise of Dr. Jane Smith and Dr. Aaron Lee, utilizing specialized software tools, and learning from relevant case studies can enrich the strategy for using CRISPR-Cas9 in editing genes implicated in Alzheimer's disease and advancing drug discovery efforts.</t>
+  </si>
+  <si>
+    <t>Based on the knowledgebase information provided, in addition to the outlined steps for developing siRNA sequences to target a specific oncogene, here are additional steps and considerations that can be integrated into the process:
+1. Collaboration with Dr. Jane Smith: Given Dr. Smith's expertise in genetic markers for neurodegenerative diseases and her involvement in identifying new targets for Alzheimer's treatment, it may be beneficial to collaborate with her to gain insights into the molecular pathways associated with oncogene targets. This collaboration can provide valuable perspective on potential overlaps between neurodegenerative disease pathways and oncogene pathways, facilitating a systems biology approach to target identification.
+2. Utilize Dr. Aaron Lee's Expertise: Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data and working on large-scale genomic databases for cancer research makes him a valuable resource for integrating genomic data analysis into the siRNA target identification process. Collaborating with Dr. Lee can provide access to cutting-edge tools and methodologies for analyzing genomic data relevant to oncogene targeting.
+3. Integration of AI and Genomic Data: Given Dr. Lee's expertise in integrating AI with genomic data for personalized medicine, consider exploring AI-driven approaches for predicting siRNA efficacy and off-target effects. This can involve leveraging machine learning algorithms to optimize siRNA sequence design and predict potential off-target interactions, ultimately enhancing the precision of siRNA-based oncogene knockdown.
+4. Leveraging Software Tools: The software tools available in the knowledgebase, such as MolModelX, GeneDataAnalyzer, DrugTargetPredictor, and ChemSynthAssist, can be leveraged for advanced molecular modeling, gene expression analysis, target prediction, and chemical synthesis planning. Integrating these tools into the siRNA design and validation process can enhance the accuracy and efficiency of target identification and experimental validation.
+5. Case Studies and Clinical Trials: Reviewing case studies, such as the Phase I Clinical Trial of Alzheimer's Drug and the collaborative study on AI-powered drug efficacy prediction, can provide valuable insights into successful translational research approaches and methodologies for validating drug targets. Drawing upon these real-world examples can inform the design and validation of siRNA sequences for oncogene targeting.
+By integrating these additional considerations and leveraging the expertise, tools, and real-world insights available in the knowledgebase, the process of developing siRNA sequences to target and knock down a specific oncogene can be enhanced with a multidisciplinary and translational approach.</t>
+  </si>
+  <si>
+    <t>Given the adjusted funding levels and the need for cost-effective strategies, it would be beneficial to leverage available resources and expertise from collaborators or research institutions. Here are additional considerations and potential actions to optimize the HTS assay design for identifying small molecule inhibitors of the novel protein target involved in cancer cell proliferation:
+1. Collaborate with Dr. Jane Smith, a renowned biomedical researcher specializing in molecular pathways involved in neurodegeneration. Considering the complex nature of cancer cell proliferation pathways, her expertise could provide valuable insights and potential collaboration opportunities for understanding the protein target's role in cellular processes related to cancer. This collaboration could also lead to shared resources for assay development and compound libraries.
+2. Engage Dr. Aaron Lee, a bioinformatician with experience in genomic data analysis. His expertise in integrating AI with genomic data for personalized medicine could contribute to the identification of potential small molecule inhibitors by leveraging genomic and gene expression data analysis. Collaborating with Dr. Lee may provide access to advanced bioinformatics tools and methodologies for data analysis, further optimizing the screening process.
+3. Utilize the AI-driven tool "DrugTargetPredictor" to streamline target identification and prioritize potential drug targets based on genetic data. Although the tool is currently in the experimental stage and has limited external validation, it could provide valuable insights into potential molecular targets for cancer cell proliferation. Collaborating with the development team or utilizing the tool's experimental capabilities aligned with the project goals could be explored.
+4. Leverage open-source or freely available resources for assay development and data analysis, aligning with cost-effective strategies. This could involve using freely accessible bioinformatics platforms for gene expression data analysis or open-access compound libraries for the screening process.
+5. Explore potential collaborations with pharmaceutical companies or research institutions to access established assay technologies or pre-existing compound libraries. Engaging in collaborative projects to share resources and expertise may allow for efficient utilization of funding and infrastructure.
+Incorporating the expertise of Dr. Jane Smith and Dr. Aaron Lee, as well as leveraging relevant bioinformatics tools and open-access resources, can contribute to a more cost-effective and efficient HTS assay design for identifying small molecule inhibitors of the novel protein target associated with cancer cell proliferation.</t>
+  </si>
+  <si>
+    <t>Given the expertise and resources available in the knowledge base, there are several additional steps we could incorporate into the strategy for developing an antibody-drug conjugate (ADC) targeting a specific antigen overexpressed in a type of breast cancer:
+1. Collaborate with Dr. Jane Smith, a Biomedical Researcher:
+   - Collaborate with Dr. Jane Smith to leverage her expertise in identifying new targets for neurodegenerative diseases. Given her focus on molecular pathways, her insights could be valuable in understanding the role of the overexpressed antigen in breast cancer progression and potential interactions with therapeutics.
+2. Engage Dr. Aaron Lee, a Bioinformatician:
+   - Given Dr. Lee's background in developing algorithms for predicting drug efficacy based on genomic data, collaborate with him to analyze the genomic and transcriptomic profile of the specific type of breast cancer. This analysis could aid in identifying additional potential targets, biomarkers, and molecular pathways that could enhance the effectiveness of the ADC.
+3. Utilize Software Tools:
+   - Leverage the "GeneDataAnalyzer" tool for analyzing gene expression data to identify gene expression changes in response to the ADC. This could help in understanding the mechanism of action and potential resistance pathways in breast cancer cells.
+   - Incorporate "DrugTargetPredictor" for streamlined target identification in early-phase drug discovery. The tool's use of machine learning algorithms aligns well with the objective of developing a targeted ADC.
+4. Incorporate Case Studies:
+   - Utilize the findings from the "Phase I Clinical Trial of Alzheimer's Drug" to design a robust clinical trial strategy for the ADC, considering patient stratification, dosage optimization, and endpoints for evaluating efficacy.
+   - Learn from the "Collaborative Study on AI-Powered Drug Efficacy Prediction" to implement AI-driven models for predicting the efficacy of the ADC in personalized treatment approaches. By integrating genomics data and AI algorithms, the development of a predictive model for patient stratification can further enhance the clinical translation of the ADC.
+By incorporating these additional resources from the knowledge base, the strategy for developing the ADC can benefit from advanced expertise, computational tools, and successful case studies in drug development and personalized medicine.</t>
+  </si>
+  <si>
+    <t>Given your expertise and the knowledgebase, in addition to the outlined pharmacokinetic study design, it would be beneficial to incorporate the expertise and resources available to enhance the study. Here are some specific recommendations based on the knowledgebase:
+1. Utilize Dr. Aaron Lee's Expertise: Dr. Lee, a bioinformatician specializing in genomic data analysis, can contribute to the study design by integrating genomic data analysis to understand the drug's pharmacokinetics in the context of individual genetic variations. Incorporating genomic data can help identify potential differences in drug metabolism and response among patients, leading to personalized dosing strategies and insights into the drug's efficacy.
+2. Consider AI-Powered Drug Efficacy Prediction: Given Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data, integrating AI-driven predictive models to assess the drug's efficacy and pharmacokinetics in different patient populations could provide valuable insights. This aligns with Dr. Lee's expertise in personalized medicine and genomic data analysis.
+3. Collaborate with Dr. Jane Smith's Research: Dr. Smith's expertise in biomedical research, particularly in identifying new targets for neurodegenerative diseases, could be leveraged to explore potential links between the new oral antidiabetic drug and its impact on neurodegenerative disease risks, especially considering the higher prevalence of type 2 diabetes in such populations. This collaboration could provide valuable insights into potential secondary benefits or risks associated with the new drug.
+4. Explore Drug-Protein Interactions Using MolModelX: The molecular modeling tool, MolModelX, can be used to simulate and analyze potential drug-protein interactions. This could aid in understanding the drug's mechanisms of action and its binding affinities with relevant proteins involved in glucose metabolism or other related pathways.
+5. Enhance Data Integrity with GeneDataAnalyzer: To ensure robust analysis and interpretation of genomic data related to drug response, leveraging the advanced data visualization tools and genomic data analysis features of GeneDataAnalyzer could enhance the reliability and integrity of the pharmacokinetic study data, aligning with Dr. Lee's expertise in genomic data analysis.
+By leveraging the expertise of Dr. Lee and Dr. Smith, as well as the capabilities of the software tools available in the knowledgebase, the pharmacokinetic study design can be enriched with genomic insights, predictive modeling, and advanced data analysis, ultimately enhancing the understanding of the new oral antidiabetic drug's pharmacokinetics.</t>
+  </si>
+  <si>
+    <t>Considering the knowledge base provided, here are some additional actions that could be considered in response to the potential risks associated with the chemogenomics model:
+1. Expert Consultation: Dr. Jane Smith, with her expertise in genetic markers for neurodegenerative diseases, could provide valuable insights into the potential implications of elevated risk predictions, especially if the model is targeting drug interventions in the context of neurodegenerative diseases. Her experience in identifying new targets for Alzheimer's treatment and research on the genetic basis of Parkinson's disease could offer guidance on addressing any specific concerns related to drug-target interactions in neurological conditions.
+2. Algorithm Validation: Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis, could be consulted to evaluate the predictive algorithm used in the chemogenomics model. His experience in developing algorithms for predicting drug efficacy based on genomic data and pioneering the integration of AI with genomic data for personalized medicine could help assess the robustness and reliability of the model's predictions.
+3. Tool Evaluation: Considering the potential limitations of existing computational tools, a review of alternative software and tools may be necessary. For example, assessing the capabilities of the in-house AI-driven tool "DrugTargetPredictor" and its potential for external validation could provide insights into the reliability and applicability of the model's predictions.
+4. Case Studies Review: Analyzing relevant case studies, such as the "Phase I Clinical Trial of Alzheimer's Drug," could offer real-world context to the predictive model's potential implications and the importance of rigorous risk assessment and validation in drug discovery.
+5. Risk Mitigation Strategies: Exploring risk mitigation strategies, such as refining the model, conducting additional experiments, or exploring alternative approaches to drug-target interaction prediction, should be prioritized. Collaborative efforts leveraging the expertise of the provided experts, as well as the capabilities of the existing software tools, could aid in formulating effective risk mitigation strategies.
+These additional considerations would contribute to a comprehensive approach to addressing the potential risks associated with the chemogenomics model and ensure the reliability and safety of drug-target interaction predictions.</t>
+  </si>
+  <si>
+    <t>Considering the knowledgebase content and the expertise available, further steps to enhance the computational modeling for predicting off-target effects of potential drug candidates could include the following:
+1. Collaborate with Dr. Aaron Lee, the bioinformatician, who has expertise in developing algorithms for predicting drug efficacy based on genomic data. Dr. Lee's experience in integrating AI with genomic data for personalized medicine could provide valuable insights into leveraging genomic and omics data for predicting off-target effects of drug candidates.
+2. Utilize the software tool "DrugTargetPredictor," an AI-driven tool for predicting potential drug targets based on genetic data, which could be adapted and optimized for predicting off-target effects of drug candidates.
+3. Incorporate data from Dr. Jane Smith's project on identifying new targets for Alzheimer's treatment. This project's outcomes may offer valuable information on potential off-target proteins that could be impacted by drug candidates, particularly in the context of neurodegenerative diseases.
+4. Explore the use of open-source software and databases, especially in collaboration with research partners, to minimize costs and improve access to computational tools for predicting off-target effects.
+5. Consider leveraging MolModelX for simulating drug-protein interactions to identify potential binding sites on target proteins, especially in the context of off-target predictions.
+6. Focus on collaborative efforts and data sharing within the scientific community, as suggested in the perturbation scenario, to maximize the use of limited resources and enhance computational modeling approaches.
+These steps, in conjunction with the available expertise and resources, can further strengthen the computational modeling for predicting off-target effects of potential drug candidates and contribute to the advancement of drug discovery efforts.</t>
+  </si>
+  <si>
+    <t>Based on the knowledge base content provided, additional steps could be taken to further refine and strengthen the drug discovery process. Here are some suggestions:
+1. Integrating Genomic Data Analysis with Drug Discovery: Dr. Aaron Lee's expertise in bioinformatics and genomic data analysis can be leveraged to incorporate genomic information into the drug discovery process. By integrating genomic data analysis tools like GeneDataAnalyzer with drug target prediction, it's possible to identify genetic markers or expression changes associated with drug response, which can inform target selection and individualized treatment strategies for complex diseases such as neurodegenerative disorders and cancer.
+2. Enhancing Drug-Target Interaction Predictions: MolModelX, a molecular modeling tool, can be utilized to simulate and analyze drug-protein interactions. By applying high-accuracy simulation and dynamic modeling of molecular interactions, potential drug candidates' binding sites on target proteins can be identified, contributing to rational drug design and optimization.
+3. Streamlining Target Identification with AI-Driven Tools: Dr. Aaron Lee's in-house AI-driven tool, DrugTargetPredictor, has the potential to streamline the early-phase drug discovery process by predicting potential drug targets based on genetic data. To further validate and enhance its capabilities, collaboration with external partners for validation studies and continuous improvement of predictive algorithms will be valuable.
+4. Optimizing Chemical Synthesis of Drug Compounds: ChemSynthAssist, a custom software for assisting in the chemical synthesis of drug compounds, can aid in planning and optimizing synthetic routes. By utilizing its features for automated synthesis pathway suggestions and real-time chemical reaction modeling, the efficiency and reproducibility of drug compound synthesis can be improved, potentially accelerating the development timeline.
+5. Learning from Successful Case Studies: The case study on the Phase I Clinical Trial of Alzheimer's Drug provides valuable insights into the successful translation of genetic markers for Alzheimer's disease into a promising drug candidate. Understanding the underlying genetic pathways involved in neurodegeneration, as highlighted by Dr. Jane Smith's expertise, could inform the selection of drug targets and delivery methods.
+Incorporating these suggestions into the drug discovery process can enhance the precision, efficiency, and success rate of identifying and developing novel drug candidates for various therapeutic areas. This approach aligns with the expertise and resources available in the knowledge base, enabling a more holistic and data-driven drug discovery strategy.</t>
+  </si>
+  <si>
+    <t>Given the expertise available in the knowledge base, there are several additional approaches and resources that can strengthen the strategy for screening for synergistic effects between drug candidates:
+1. Informed Drug Selection: Given Dr. Jane Smith's expertise in genetic markers for neurodegenerative diseases and her project on multi-institutional collaboration to identify drug targets for neurodegenerative diseases, she could provide insights into the selection of drug candidates that target specific pathways relevant to these diseases. This could improve the relevance and potential clinical impact of the identified synergistic drug combinations.
+2. Genomic Data Analysis: Dr. Aaron Lee's background in bioinformatics and experience in genomic data analysis could be leveraged to integrate genomic data into the screening strategy. By incorporating genomic information, such as genetic variations or expression profiles relevant to the targeted pathways, it may be possible to identify drug combinations that are more likely to exhibit synergistic effects based on genetic interactions.
+3. Computational Tools: The use of computational tools such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for gene expression analysis, and DrugTargetPredictor for predicting potential drug targets based on genetic data could enhance the screening process. These tools can provide molecular insights, identify gene expression changes in response to drug candidates, and aid in the identification of potential drug targets, respectively.
+4. Case Studies: The case study on the Phase I Clinical Trial of Alzheimer's drug, led by Dr. Jane Smith, provides valuable insights into successful drug development targeting specific genetic markers. Understanding the methodologies and results of this trial can inform the screening strategy for identifying synergistic drug combinations in the context of neurodegenerative diseases.
+By leveraging the expertise of Dr. Jane Smith and Dr. Aaron Lee, as well as utilizing the available computational tools and case studies, the strategy for screening synergistic effects between drug candidates can be further optimized to consider disease-specific pathways, genomic interactions, and successful clinical trial outcomes.</t>
+  </si>
+  <si>
+    <t>Based on the knowledge base provided, in order to further address the question on mutations in the PAS domain for the target protein that exhibit high selectivity for prostate cancer cell lines, we can consider the following additional steps and resources:
+Expert Consultation:
+- Dr. Aaron Lee, a bioinformatician specializing in genomic data analysis, could provide valuable insights into utilizing genomic data to identify potential mutations and their effects on cancer cell selectivity. Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data aligns with the current research question.
+- Collaboration with Dr. Jane Smith, a biomedical researcher specializing in genetic markers for neurodegenerative diseases, could bring experience in identifying genetic pathways relevant to disease states. While her specialization is in neurodegenerative diseases, her expertise in genetic pathways and molecular mechanisms could be valuable for studying cancer-specific mutations.
+Software and Tools:
+- "MolModelX" could be used for simulating drug-protein interactions to identify potential binding sites or conformational changes caused by specific mutations in the PAS domain.
+- "GeneDataAnalyzer" may aid in analyzing gene expression data to understand the impact of mutations on gene expression specifically in prostate cancer cell lines.
+- "DrugTargetPredictor" may serve as a useful tool for predicting potential drug targets based on genetic data, which could be applied to identify potential PAS domain mutations for targeted therapies.
+- "ChemSynthAssist" could assist in planning and optimizing synthetic routes if novel compounds need to be synthesized based on the identified mutations for further experimental validation.
+Case Studies:
+- The "Phase I Clinical Trial of Alzheimer's Drug" could serve as a reference to understand the process of transitioning genetic markers into therapeutic targets, which could be relevant for translating PAS domain mutations into potential drug targets.
+- The "Collaborative Study on AI-Powered Drug Efficacy Prediction" might provide insights into the integration of AI algorithms with genomic data for predictive modeling, which could be relevant in predicting the impact of mutations on drug efficacy for prostate cancer cell lines.
+In summary, leveraging the expertise of Dr. Lee and potentially collaborating with Dr. Smith, along with utilizing the suggested software tools and drawing insights from relevant case studies, could further enhance the approach to identifying mutations in the PAS domain for the target protein exhibiting high selectivity for prostate cancer cell lines.</t>
+  </si>
+  <si>
+    <t>Given the context of your knowledgebase, here are a few additional considerations to be mindful of:
+1. Leveraging Computational Biology and Bioinformatics Tools: Incorporating bioinformatics platforms such as GeneDataAnalyzer and DrugTargetPredictor, as well as molecular modeling tools like MolModelX, can enhance the analysis of genetic variants in BRCA genes and their interaction with paralogs. These tools can aid in the interpretation of genomic data and predict potential drug targets for personalized medicine approaches.
+2. Data Integrity and Validation: Ensuring the reliability and integrity of data sources is critical. Incorporating rigorous data quality checks and validation mechanisms, particularly when dealing with genomic and genetic data, will help maintain high standards of accuracy and credibility in research findings.
+3. Collaboration with Experts: Given the complexity of genetic interactions and drug discovery, collaborations with experts in the fields of bioinformatics, computational biology, and drug discovery, such as Dr. Aaron Lee, the bioinformatician with expertise in genomic data analysis, could provide valuable insights and methodological guidance.
+4. Stay Updated on Drug Discovery Advancements: Keeping abreast of the latest advances in drug discovery, precision medicine, and personalized therapy protocols, as demonstrated in the case studies provided, can inform decision-making processes and contribute to the development of innovative strategies for drug discovery.
+5. Multidisciplinary Approach: Engaging experts from diverse backgrounds, such as biomedical researchers specializing in neurodegenerative diseases like Dr. Jane Smith, can enrich the understanding of molecular pathways and genetic markers relevant to the interaction of BRCA genes with paralogs, potentially opening up new avenues for therapeutic interventions.
+By incorporating these considerations into the research and data analysis processes, you can enhance the understanding of genetic variants affecting BRCA gene interactions and their implications for drug discovery and personalized medicine.</t>
+  </si>
+  <si>
+    <t>In addition to using reliable and validated bioinformatics tools for gene set enrichment analysis, it's important to consider the expertise of individuals who can contribute valuable insights to drug discovery projects. In this case, consulting with experts in biomedical research and bioinformatics could provide valuable perspectives and guidance for leveraging genomic data in drug discovery efforts.
+For instance, Dr. Jane Smith, a Biomedical Researcher with expertise in genetic markers for neurodegenerative diseases, could provide valuable insights into the molecular pathways involved in neurodegeneration. With her background in identifying new targets for Alzheimer's treatment and research on the genetic basis of Parkinson's disease, her input could be instrumental in interpreting genomic data and identifying potential drug targets.
+Similarly, Dr. Aaron Lee, a Bioinformatician specializing in genomic data analysis and integrating AI with genomic data for personalized medicine, could offer expertise in leveraging genomics for drug discovery. Dr. Lee's experience in developing algorithms for predicting drug efficacy based on genomic data and working on large-scale genomic databases for cancer research makes him a valuable resource for incorporating genomic data analysis into drug discovery projects.
+Furthermore, leveraging software and tools such as MolModelX for simulating drug-protein interactions, GeneDataAnalyzer for analyzing gene expression data, DrugTargetPredictor for predicting potential drug targets based on genetic data, and ChemSynthAssist for assisting in the chemical synthesis of drug compounds can streamline various aspects of drug discovery.
+Additionally, case studies involving the successful use of genomic data in drug discovery, such as the Phase I Clinical Trial of an Alzheimer's drug targeting genetic markers and the Collaborative Study on AI-Powered Drug Efficacy Prediction, can provide valuable insights and strategies for incorporating genomics into drug discovery efforts.
+By considering the expertise of relevant experts, utilizing specialized software and tools, and drawing insights from successful case studies, drug discovery projects can maximize the potential of genomic data for identifying novel drug targets and improving treatment efficacy.</t>
+  </si>
+  <si>
+    <t>Considering the knowledge base and resources available, we may want to involve Dr. Aaron Lee, the bioinformatician with expertise in genomic data analysis and application of AI in personalized medicine, in our efforts. His experience in developing algorithms for predicting drug efficacy based on genomic data aligns with the goal of identifying protein domains enriched for pathogenic mutations in breast cancer patients to guide drug discovery efforts.
+Additionally, leveraging the "DrugTargetPredictor" software tool could be beneficial, as it is designed for predicting potential drug targets based on genetic data and may assist in streamlining target identification in the early phases of drug discovery.
+In terms of the response, we should emphasize the potential impact of identifying enriched protein domains in guiding drug discovery efforts and precision medicine approaches for breast cancer treatment. Furthermore, given the significance of personalized medicine in cancer treatment, we could highlight successful case studies that demonstrate the value of integrating genomic data analysis into drug discovery, such as the collaborative study on AI-powered drug efficacy prediction.
+Lastly, considering the limited resources available, it's crucial to prioritize and focus on the most efficient and impactful approaches, such as leveraging publicly available databases and bioinformatics tools, as mentioned in the original response. These approaches can provide valuable insights without requiring extensive resources for experimental validation or complex computational analyses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +2012,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -584,7 +2064,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -618,6 +2098,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -652,9 +2133,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -827,14 +2309,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +2342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -871,16 +2356,16 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -891,19 +2376,19 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -914,19 +2399,19 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -937,19 +2422,19 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -960,19 +2445,19 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -983,19 +2468,19 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1006,19 +2491,19 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1029,19 +2514,19 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1052,19 +2537,19 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1075,19 +2560,19 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1098,19 +2583,19 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1121,19 +2606,19 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1144,19 +2629,19 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1167,19 +2652,19 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1190,19 +2675,19 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1213,19 +2698,19 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1236,19 +2721,19 @@
         <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1259,19 +2744,19 @@
         <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1282,19 +2767,19 @@
         <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1305,19 +2790,19 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1328,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1351,19 +2836,19 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1374,19 +2859,19 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1397,19 +2882,19 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1420,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1443,19 +2928,19 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1466,19 +2951,19 @@
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1489,19 +2974,19 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1512,19 +2997,19 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1535,19 +3020,19 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1558,19 +3043,19 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1581,19 +3066,19 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1604,19 +3089,19 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1627,19 +3112,19 @@
         <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1650,19 +3135,19 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1673,19 +3158,19 @@
         <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1696,19 +3181,19 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1719,19 +3204,19 @@
         <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1742,19 +3227,19 @@
         <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1765,16 +3250,16 @@
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/files/galen_results_gpt4_dynamic.xlsx
+++ b/files/galen_results_gpt4_dynamic.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F13A9CC9DF816FEAFA160B27BBDEF6D1512B46F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6121523-F0C1-3646-BACA-510DF71CAA8A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1744,8 +1750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,13 +1814,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1852,7 +1866,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1886,6 +1900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1920,9 +1935,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2095,14 +2111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>186</v>
       </c>
       <c r="H2">
-        <v>5.790890375773112</v>
+        <v>5.7908903757731123</v>
       </c>
       <c r="I2" t="s">
         <v>221</v>
@@ -2166,7 +2187,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2219,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +2242,7 @@
         <v>188</v>
       </c>
       <c r="H4">
-        <v>5.405431270599365</v>
+        <v>5.4054312705993652</v>
       </c>
       <c r="I4" t="s">
         <v>223</v>
@@ -2230,7 +2251,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2274,7 @@
         <v>189</v>
       </c>
       <c r="H5">
-        <v>5.16763432820638</v>
+        <v>5.1676343282063799</v>
       </c>
       <c r="I5" t="s">
         <v>224</v>
@@ -2262,7 +2283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2306,7 @@
         <v>190</v>
       </c>
       <c r="H6">
-        <v>5.733311414718628</v>
+        <v>5.7333114147186279</v>
       </c>
       <c r="I6" t="s">
         <v>223</v>
@@ -2294,7 +2315,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>191</v>
       </c>
       <c r="H7">
-        <v>6.036989370981853</v>
+        <v>6.0369893709818534</v>
       </c>
       <c r="I7" t="s">
         <v>221</v>
@@ -2326,7 +2347,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2349,7 +2370,7 @@
         <v>192</v>
       </c>
       <c r="H8">
-        <v>7.591433604558309</v>
+        <v>7.5914336045583086</v>
       </c>
       <c r="I8" t="s">
         <v>223</v>
@@ -2358,7 +2379,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2381,7 +2402,7 @@
         <v>193</v>
       </c>
       <c r="H9">
-        <v>4.105125586191813</v>
+        <v>4.1051255861918126</v>
       </c>
       <c r="I9" t="s">
         <v>225</v>
@@ -2390,7 +2411,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2413,7 +2434,7 @@
         <v>194</v>
       </c>
       <c r="H10">
-        <v>5.814067045847575</v>
+        <v>5.8140670458475752</v>
       </c>
       <c r="I10" t="s">
         <v>223</v>
@@ -2422,7 +2443,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2466,7 @@
         <v>195</v>
       </c>
       <c r="H11">
-        <v>7.072681585947673</v>
+        <v>7.0726815859476728</v>
       </c>
       <c r="I11" t="s">
         <v>226</v>
@@ -2454,7 +2475,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>196</v>
       </c>
       <c r="H12">
-        <v>5.506198644638062</v>
+        <v>5.5061986446380624</v>
       </c>
       <c r="I12" t="s">
         <v>226</v>
@@ -2486,7 +2507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>197</v>
       </c>
       <c r="H13">
-        <v>4.325655698776245</v>
+        <v>4.3256556987762451</v>
       </c>
       <c r="I13" t="s">
         <v>225</v>
@@ -2518,7 +2539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2562,7 @@
         <v>198</v>
       </c>
       <c r="H14">
-        <v>4.147291421890259</v>
+        <v>4.1472914218902588</v>
       </c>
       <c r="I14" t="s">
         <v>224</v>
@@ -2550,7 +2571,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2594,7 @@
         <v>199</v>
       </c>
       <c r="H15">
-        <v>5.322275638580322</v>
+        <v>5.3222756385803223</v>
       </c>
       <c r="I15" t="s">
         <v>223</v>
@@ -2582,7 +2603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>200</v>
       </c>
       <c r="H16">
-        <v>4.983783006668091</v>
+        <v>4.9837830066680908</v>
       </c>
       <c r="I16" t="s">
         <v>226</v>
@@ -2614,7 +2635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2658,7 @@
         <v>201</v>
       </c>
       <c r="H17">
-        <v>4.356294631958008</v>
+        <v>4.3562946319580078</v>
       </c>
       <c r="I17" t="s">
         <v>226</v>
@@ -2646,7 +2667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2690,7 @@
         <v>202</v>
       </c>
       <c r="H18">
-        <v>4.653450012207031</v>
+        <v>4.6534500122070312</v>
       </c>
       <c r="I18" t="s">
         <v>222</v>
@@ -2678,7 +2699,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2701,7 +2722,7 @@
         <v>203</v>
       </c>
       <c r="H19">
-        <v>4.998920599619548</v>
+        <v>4.9989205996195478</v>
       </c>
       <c r="I19" t="s">
         <v>225</v>
@@ -2710,7 +2731,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2754,7 @@
         <v>204</v>
       </c>
       <c r="H20">
-        <v>5.138689994812012</v>
+        <v>5.1386899948120117</v>
       </c>
       <c r="I20" t="s">
         <v>224</v>
@@ -2742,7 +2763,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2786,7 @@
         <v>205</v>
       </c>
       <c r="H21">
-        <v>7.301136334737142</v>
+        <v>7.3011363347371416</v>
       </c>
       <c r="I21" t="s">
         <v>225</v>
@@ -2774,7 +2795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>206</v>
       </c>
       <c r="H22">
-        <v>4.018489360809326</v>
+        <v>4.0184893608093262</v>
       </c>
       <c r="I22" t="s">
         <v>222</v>
@@ -2806,7 +2827,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +2850,7 @@
         <v>207</v>
       </c>
       <c r="H23">
-        <v>7.612537304560344</v>
+        <v>7.6125373045603437</v>
       </c>
       <c r="I23" t="s">
         <v>223</v>
@@ -2838,7 +2859,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2861,7 +2882,7 @@
         <v>208</v>
       </c>
       <c r="H24">
-        <v>6.413499275843303</v>
+        <v>6.4134992758433027</v>
       </c>
       <c r="I24" t="s">
         <v>223</v>
@@ -2870,7 +2891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2893,7 +2914,7 @@
         <v>209</v>
       </c>
       <c r="H25">
-        <v>6.025337934494019</v>
+        <v>6.0253379344940194</v>
       </c>
       <c r="I25" t="s">
         <v>223</v>
@@ -2902,7 +2923,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>210</v>
       </c>
       <c r="H26">
-        <v>5.247354984283447</v>
+        <v>5.2473549842834473</v>
       </c>
       <c r="I26" t="s">
         <v>225</v>
@@ -2934,7 +2955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2957,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="H27">
-        <v>4.708980321884155</v>
+        <v>4.7089803218841553</v>
       </c>
       <c r="I27" t="s">
         <v>225</v>
@@ -2966,7 +2987,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>212</v>
       </c>
       <c r="H28">
-        <v>6.260851621627808</v>
+        <v>6.2608516216278076</v>
       </c>
       <c r="I28" t="s">
         <v>225</v>
@@ -2998,7 +3019,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3021,7 +3042,7 @@
         <v>213</v>
       </c>
       <c r="H29">
-        <v>5.1225000222524</v>
+        <v>5.1225000222524004</v>
       </c>
       <c r="I29" t="s">
         <v>226</v>
@@ -3030,7 +3051,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>214</v>
       </c>
       <c r="H30">
-        <v>5.714948018391927</v>
+        <v>5.7149480183919268</v>
       </c>
       <c r="I30" t="s">
         <v>223</v>
@@ -3062,7 +3083,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3106,7 @@
         <v>215</v>
       </c>
       <c r="H31">
-        <v>4.833066940307617</v>
+        <v>4.8330669403076172</v>
       </c>
       <c r="I31" t="s">
         <v>226</v>
@@ -3094,7 +3115,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3138,7 @@
         <v>216</v>
       </c>
       <c r="H32">
-        <v>4.625466346740723</v>
+        <v>4.6254663467407227</v>
       </c>
       <c r="I32" t="s">
         <v>227</v>
@@ -3126,7 +3147,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3170,7 @@
         <v>217</v>
       </c>
       <c r="H33">
-        <v>4.740513960520427</v>
+        <v>4.7405139605204267</v>
       </c>
       <c r="I33" t="s">
         <v>224</v>
@@ -3158,7 +3179,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>218</v>
       </c>
       <c r="H34">
-        <v>4.887188355127971</v>
+        <v>4.8871883551279707</v>
       </c>
       <c r="I34" t="s">
         <v>222</v>
@@ -3190,7 +3211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3234,7 @@
         <v>219</v>
       </c>
       <c r="H35">
-        <v>4.552060683568318</v>
+        <v>4.5520606835683184</v>
       </c>
       <c r="I35" t="s">
         <v>227</v>
@@ -3222,7 +3243,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3245,7 +3266,7 @@
         <v>220</v>
       </c>
       <c r="H36">
-        <v>4.416490952173869</v>
+        <v>4.4164909521738691</v>
       </c>
       <c r="I36" t="s">
         <v>227</v>
